--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T545"/>
+  <dimension ref="A1:T548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="O332" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P332" t="n">
-        <v>8750</v>
+        <v>25000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1250</v>
+        <v>3571</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N333" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O333" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P333" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O334" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P334" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>643</v>
+        <v>2143</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N335" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O335" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P335" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1929</v>
+        <v>1250</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N336" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O336" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P336" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27327,13 +27327,13 @@
         <v>300</v>
       </c>
       <c r="N337" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O337" t="n">
         <v>5000</v>
       </c>
-      <c r="O337" t="n">
-        <v>6000</v>
-      </c>
       <c r="P337" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O338" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P338" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1286</v>
+        <v>1929</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N339" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27564,13 +27564,13 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O340" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P340" t="n">
         <v>5500</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N341" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O341" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P341" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27727,13 +27727,13 @@
         <v>450</v>
       </c>
       <c r="N342" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O342" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P342" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27807,13 +27807,13 @@
         <v>350</v>
       </c>
       <c r="N343" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O343" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P343" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O344" t="n">
         <v>11000</v>
       </c>
       <c r="P344" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N345" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O345" t="n">
         <v>9000</v>
       </c>
       <c r="P345" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N346" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O346" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P346" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>679</v>
+        <v>1000</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P347" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1857</v>
+        <v>1500</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N348" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O348" t="n">
         <v>9000</v>
       </c>
-      <c r="O348" t="n">
-        <v>10000</v>
-      </c>
       <c r="P348" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28287,13 +28287,13 @@
         <v>300</v>
       </c>
       <c r="N349" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O349" t="n">
         <v>5000</v>
       </c>
-      <c r="O349" t="n">
-        <v>6000</v>
-      </c>
       <c r="P349" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>786</v>
+        <v>679</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N350" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2786</v>
+        <v>1857</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="N351" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P351" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2500</v>
+        <v>1357</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P352" t="n">
-        <v>9438</v>
+        <v>5500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1348</v>
+        <v>786</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="N353" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="O353" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P353" t="n">
-        <v>7786</v>
+        <v>19500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1112</v>
+        <v>2786</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="N354" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="O354" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P354" t="n">
-        <v>4769</v>
+        <v>17500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>681</v>
+        <v>2500</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="N355" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>11500</v>
+        <v>9438</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1643</v>
+        <v>1348</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="N356" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P356" t="n">
-        <v>9500</v>
+        <v>7786</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1357</v>
+        <v>1112</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N357" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O357" t="n">
         <v>5000</v>
       </c>
-      <c r="O357" t="n">
-        <v>6000</v>
-      </c>
       <c r="P357" t="n">
-        <v>5500</v>
+        <v>4769</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>786</v>
+        <v>681</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O358" t="n">
         <v>12000</v>
       </c>
       <c r="P358" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1571</v>
+        <v>1643</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="N359" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>7600</v>
+        <v>9500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1086</v>
+        <v>1357</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N360" t="n">
         <v>5000</v>
@@ -29173,7 +29173,7 @@
         <v>6000</v>
       </c>
       <c r="P360" t="n">
-        <v>5625</v>
+        <v>5500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="N361" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>571</v>
+        <v>1571</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>1700</v>
+        <v>750</v>
       </c>
       <c r="N362" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O362" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P362" t="n">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1357</v>
+        <v>1086</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="N363" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P363" t="n">
-        <v>7467</v>
+        <v>5625</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1067</v>
+        <v>804</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N364" t="n">
         <v>4000</v>
       </c>
       <c r="O364" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P364" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="N365" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P365" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N366" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O366" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P366" t="n">
-        <v>9500</v>
+        <v>7467</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1357</v>
+        <v>1067</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N367" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O367" t="n">
         <v>5000</v>
       </c>
-      <c r="O367" t="n">
-        <v>6000</v>
-      </c>
       <c r="P367" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N368" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O368" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P368" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1214</v>
+        <v>1643</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29887,13 +29887,13 @@
         <v>700</v>
       </c>
       <c r="N369" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O369" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P369" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>964</v>
+        <v>1357</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N370" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O370" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P370" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P371" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1714</v>
+        <v>1214</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N372" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P372" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1429</v>
+        <v>964</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N373" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O373" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P373" t="n">
-        <v>8000</v>
+        <v>4250</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1143</v>
+        <v>607</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N374" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2357</v>
+        <v>1714</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N375" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>857</v>
+        <v>1429</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N376" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O376" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P376" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2714</v>
+        <v>1143</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N377" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O377" t="n">
         <v>17000</v>
       </c>
       <c r="P377" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2286</v>
+        <v>2357</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30607,13 +30607,13 @@
         <v>100</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P378" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30687,13 +30687,13 @@
         <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O379" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P379" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1143</v>
+        <v>2714</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N380" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P380" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>4333</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>619</v>
+        <v>1714</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
         <v>8000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P382" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O383" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P383" t="n">
-        <v>4444</v>
+        <v>7000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>635</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N384" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P384" t="n">
-        <v>8750</v>
+        <v>4333</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1250</v>
+        <v>619</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O385" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P385" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N386" t="n">
         <v>4000</v>
@@ -31253,7 +31253,7 @@
         <v>5000</v>
       </c>
       <c r="P386" t="n">
-        <v>4500</v>
+        <v>4444</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N387" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O387" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P387" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N388" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P388" t="n">
-        <v>9385</v>
+        <v>7500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1341</v>
+        <v>1071</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="N389" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P389" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1143</v>
+        <v>643</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O390" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P390" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>679</v>
+        <v>500</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N391" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O391" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>8250</v>
+        <v>9385</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1179</v>
+        <v>1341</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="N392" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O392" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P392" t="n">
-        <v>7188</v>
+        <v>8000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1027</v>
+        <v>1143</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N393" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O393" t="n">
         <v>5000</v>
       </c>
       <c r="P393" t="n">
-        <v>4400</v>
+        <v>4750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N394" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O394" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="P394" t="n">
-        <v>22500</v>
+        <v>8250</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>3214</v>
+        <v>1179</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O395" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P395" t="n">
-        <v>12500</v>
+        <v>7188</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1786</v>
+        <v>1027</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P396" t="n">
-        <v>10000</v>
+        <v>4400</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1429</v>
+        <v>629</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N397" t="n">
         <v>22000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N398" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O398" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2429</v>
+        <v>1786</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N399" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>24500</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>3500</v>
+        <v>1429</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N400" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O400" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P400" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2786</v>
+        <v>3214</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O401" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P401" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1286</v>
+        <v>2429</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O402" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P402" t="n">
-        <v>7000</v>
+        <v>24500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N403" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O403" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P403" t="n">
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>857</v>
+        <v>2786</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>2250</v>
+        <v>200</v>
       </c>
       <c r="N404" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P404" t="n">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="N405" t="n">
         <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P405" t="n">
-        <v>7194</v>
+        <v>7000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N406" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P406" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>679</v>
+        <v>857</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>350</v>
+        <v>2250</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O407" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1286</v>
+        <v>1243</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="N408" t="n">
         <v>7000</v>
       </c>
       <c r="O408" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P408" t="n">
-        <v>7000</v>
+        <v>7194</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N409" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O409" t="n">
         <v>5000</v>
       </c>
       <c r="P409" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P410" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2071</v>
+        <v>1286</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N411" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P411" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1643</v>
+        <v>1000</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N412" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P412" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N413" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P413" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
         <v>700</v>
       </c>
       <c r="N414" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1357</v>
+        <v>1643</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,11 +33560,11 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N415" t="n">
         <v>7000</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N416" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O416" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P416" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="N417" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O417" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>8286</v>
+        <v>9500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1184</v>
+        <v>1357</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,17 +33804,17 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>2520</v>
+        <v>800</v>
       </c>
       <c r="N418" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P418" t="n">
         <v>7500</v>
       </c>
-      <c r="P418" t="n">
-        <v>6659</v>
-      </c>
       <c r="Q418" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>951</v>
+        <v>1071</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N419" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O419" t="n">
         <v>5000</v>
       </c>
       <c r="P419" t="n">
-        <v>4692</v>
+        <v>4500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P420" t="n">
-        <v>10900</v>
+        <v>8286</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1557</v>
+        <v>1184</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>1350</v>
+        <v>2520</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O421" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P421" t="n">
-        <v>8481</v>
+        <v>6659</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1212</v>
+        <v>951</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="N422" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O422" t="n">
         <v>5000</v>
       </c>
       <c r="P422" t="n">
-        <v>4500</v>
+        <v>4692</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="N423" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>9500</v>
+        <v>10900</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1357</v>
+        <v>1557</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O424" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P424" t="n">
-        <v>7500</v>
+        <v>8481</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1071</v>
+        <v>1212</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="N425" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O425" t="n">
         <v>5000</v>
       </c>
       <c r="P425" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N426" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>536</v>
+        <v>1357</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,21 +34520,21 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>1680</v>
+        <v>400</v>
       </c>
       <c r="N427" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O427" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P427" t="n">
         <v>7500</v>
       </c>
-      <c r="O427" t="n">
-        <v>8500</v>
-      </c>
-      <c r="P427" t="n">
-        <v>8021</v>
-      </c>
       <c r="Q427" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1146</v>
+        <v>1071</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N428" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="O428" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>6921</v>
+        <v>4750</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>989</v>
+        <v>679</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N429" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O429" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P429" t="n">
-        <v>4800</v>
+        <v>3750</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>686</v>
+        <v>536</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>300</v>
+        <v>1680</v>
       </c>
       <c r="N430" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O430" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P430" t="n">
-        <v>14500</v>
+        <v>8021</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>2071</v>
+        <v>1146</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P431" t="n">
-        <v>11000</v>
+        <v>6921</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1571</v>
+        <v>989</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N432" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O432" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P432" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>857</v>
+        <v>686</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P433" t="n">
-        <v>8554</v>
+        <v>14500</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1222</v>
+        <v>2071</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>1450</v>
+        <v>400</v>
       </c>
       <c r="N434" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>7017</v>
+        <v>11000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1002</v>
+        <v>1571</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N435" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P435" t="n">
-        <v>4719</v>
+        <v>6000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>674</v>
+        <v>857</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N436" t="n">
         <v>8000</v>
       </c>
       <c r="O436" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P436" t="n">
-        <v>8000</v>
+        <v>8554</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1143</v>
+        <v>1222</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>700</v>
+        <v>1450</v>
       </c>
       <c r="N437" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P437" t="n">
-        <v>6500</v>
+        <v>7017</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>929</v>
+        <v>1002</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N438" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O438" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P438" t="n">
-        <v>4250</v>
+        <v>4719</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>607</v>
+        <v>674</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N439" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>3500</v>
+        <v>1143</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N440" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O440" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P440" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2857</v>
+        <v>929</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N441" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O441" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P441" t="n">
-        <v>15000</v>
+        <v>4250</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>2143</v>
+        <v>607</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N442" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P442" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1357</v>
+        <v>3500</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="N443" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P443" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N444" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O444" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P444" t="n">
-        <v>4750</v>
+        <v>15000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>679</v>
+        <v>2143</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N445" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="O445" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>429</v>
+        <v>1357</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>11885</v>
+        <v>7500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1698</v>
+        <v>1071</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="N447" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O447" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P447" t="n">
-        <v>10125</v>
+        <v>4750</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1446</v>
+        <v>679</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N448" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O448" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P448" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>786</v>
+        <v>429</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O449" t="n">
         <v>13000</v>
       </c>
       <c r="P449" t="n">
-        <v>12500</v>
+        <v>11885</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1786</v>
+        <v>1698</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="N450" t="n">
         <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>9500</v>
+        <v>10125</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1357</v>
+        <v>1446</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N451" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O451" t="n">
         <v>6000</v>
       </c>
-      <c r="O451" t="n">
-        <v>7000</v>
-      </c>
       <c r="P451" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>929</v>
+        <v>786</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P452" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1357</v>
+        <v>1786</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N453" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="N454" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O454" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P454" t="n">
-        <v>10391</v>
+        <v>6500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1484</v>
+        <v>929</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,11 +36840,11 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N456" t="n">
         <v>4000</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>880</v>
+        <v>1150</v>
       </c>
       <c r="N457" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P457" t="n">
-        <v>8642</v>
+        <v>10391</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1235</v>
+        <v>1484</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>7607</v>
+        <v>8500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1087</v>
+        <v>1214</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N459" t="n">
         <v>4000</v>
@@ -37093,7 +37093,7 @@
         <v>5000</v>
       </c>
       <c r="P459" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="N460" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O460" t="n">
         <v>9000</v>
       </c>
-      <c r="O460" t="n">
-        <v>9500</v>
-      </c>
       <c r="P460" t="n">
-        <v>9188</v>
+        <v>8642</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1313</v>
+        <v>1235</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N461" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
         <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>7688</v>
+        <v>7607</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N462" t="n">
         <v>4000</v>
       </c>
       <c r="O462" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P462" t="n">
-        <v>4417</v>
+        <v>4600</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>2250</v>
+        <v>800</v>
       </c>
       <c r="N463" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O463" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P463" t="n">
-        <v>7911</v>
+        <v>9188</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1130</v>
+        <v>1313</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="N464" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O464" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P464" t="n">
-        <v>6816</v>
+        <v>7688</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>974</v>
+        <v>1098</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N465" t="n">
         <v>4000</v>
       </c>
       <c r="O465" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P465" t="n">
-        <v>4472</v>
+        <v>4417</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>500</v>
+        <v>2250</v>
       </c>
       <c r="N466" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P466" t="n">
-        <v>11600</v>
+        <v>7911</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1657</v>
+        <v>1130</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>10000</v>
+        <v>6816</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1429</v>
+        <v>974</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O468" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P468" t="n">
-        <v>6000</v>
+        <v>4472</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>857</v>
+        <v>639</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N469" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>5000</v>
+        <v>11600</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>714</v>
+        <v>1657</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N471" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,11 +38120,11 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N472" t="n">
         <v>5000</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N473" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="N474" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O474" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P474" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P475" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>571</v>
+        <v>714</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N476" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O476" t="n">
         <v>8000</v>
       </c>
       <c r="P476" t="n">
-        <v>7875</v>
+        <v>8000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="N477" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P477" t="n">
-        <v>6857</v>
+        <v>6000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>980</v>
+        <v>857</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N478" t="n">
         <v>4000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P478" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N479" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>13500</v>
+        <v>7875</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1929</v>
+        <v>1125</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N480" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>11500</v>
+        <v>6857</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1643</v>
+        <v>980</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N481" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O481" t="n">
         <v>5000</v>
       </c>
-      <c r="O481" t="n">
-        <v>6000</v>
-      </c>
       <c r="P481" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N482" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O482" t="n">
         <v>14000</v>
       </c>
-      <c r="O482" t="n">
-        <v>15000</v>
-      </c>
       <c r="P482" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>2071</v>
+        <v>1929</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1500</v>
+        <v>1643</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
         <v>200</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P485" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1143</v>
+        <v>2071</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="N486" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>857</v>
+        <v>1500</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N487" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P487" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="N488" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>17585</v>
+        <v>8000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>2512</v>
+        <v>1143</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="N489" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P489" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N490" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O490" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P490" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>17585</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1429</v>
+        <v>2512</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N494" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>2714</v>
+        <v>1429</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N495" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>2071</v>
+        <v>1000</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1571</v>
+        <v>714</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N497" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O497" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P497" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1286</v>
+        <v>2714</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O498" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P498" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1071</v>
+        <v>2071</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N499" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>643</v>
+        <v>1571</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N501" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O501" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1571</v>
+        <v>1071</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P502" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>930</v>
+        <v>80</v>
       </c>
       <c r="N503" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>8796</v>
+        <v>13000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1257</v>
+        <v>1857</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>950</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P504" t="n">
-        <v>7421</v>
+        <v>11000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1060</v>
+        <v>1571</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N505" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>4156</v>
+        <v>9000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>594</v>
+        <v>1286</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>600</v>
+        <v>930</v>
       </c>
       <c r="N506" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O506" t="n">
         <v>9000</v>
       </c>
-      <c r="O506" t="n">
-        <v>10000</v>
-      </c>
       <c r="P506" t="n">
-        <v>9583</v>
+        <v>8796</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1369</v>
+        <v>1257</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,7 +40924,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N507" t="n">
         <v>7000</v>
@@ -40933,7 +40933,7 @@
         <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>7700</v>
+        <v>7421</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="N508" t="n">
         <v>4000</v>
       </c>
       <c r="O508" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P508" t="n">
-        <v>4500</v>
+        <v>4156</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N509" t="n">
         <v>9000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>9583</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1286</v>
+        <v>1369</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N510" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O510" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P510" t="n">
-        <v>9500</v>
+        <v>7700</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1357</v>
+        <v>1100</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N511" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P511" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N512" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
         <v>300</v>
       </c>
       <c r="N513" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N515" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O515" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P515" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N516" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P516" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1643</v>
+        <v>786</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N517" t="n">
         <v>5000</v>
       </c>
       <c r="O517" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P517" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41742,11 +41742,11 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O518" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P518" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1357</v>
+        <v>1929</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="N519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P519" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1071</v>
+        <v>1643</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N520" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O520" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P520" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>679</v>
+        <v>786</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N521" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O521" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>500</v>
+        <v>1357</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N522" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O522" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P522" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2071</v>
+        <v>1071</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N523" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P523" t="n">
-        <v>12500</v>
+        <v>4750</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1786</v>
+        <v>679</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M524" t="n">
         <v>300</v>
       </c>
       <c r="N524" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P524" t="n">
-        <v>6667</v>
+        <v>3500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>952</v>
+        <v>500</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N525" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1429</v>
+        <v>2071</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N526" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P526" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1143</v>
+        <v>1786</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N527" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O527" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>5000</v>
+        <v>6667</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>714</v>
+        <v>952</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,7 +42604,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
         <v>10000</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N529" t="n">
         <v>8000</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,11 +42840,11 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="N531" t="n">
         <v>10000</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P533" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1786</v>
+        <v>1000</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
         <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N536" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O536" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P536" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>786</v>
+        <v>1786</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>3060</v>
+        <v>700</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>7676</v>
+        <v>9500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1097</v>
+        <v>1357</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1550</v>
+        <v>300</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O538" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P538" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>929</v>
+        <v>1071</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N539" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O539" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P539" t="n">
-        <v>4812</v>
+        <v>5500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>200</v>
+        <v>3060</v>
       </c>
       <c r="N540" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>23500</v>
+        <v>7676</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>3357</v>
+        <v>1097</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>140</v>
+        <v>1550</v>
       </c>
       <c r="N541" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O541" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P541" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>2786</v>
+        <v>929</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O542" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P542" t="n">
-        <v>11000</v>
+        <v>4812</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1571</v>
+        <v>687</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N543" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O543" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="P543" t="n">
-        <v>25400</v>
+        <v>23500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>3629</v>
+        <v>3357</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N544" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O544" t="n">
         <v>20000</v>
       </c>
-      <c r="O544" t="n">
-        <v>23000</v>
-      </c>
       <c r="P544" t="n">
-        <v>21381</v>
+        <v>19500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>3054</v>
+        <v>2786</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,68 +43927,308 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E545" t="n">
+        <v>13</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M545" t="n">
+        <v>120</v>
+      </c>
+      <c r="N545" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O545" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P545" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S545" t="n">
+        <v>1571</v>
+      </c>
+      <c r="T545" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>6</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E545" t="n">
-        <v>13</v>
-      </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G545" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I545" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J545" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L545" t="inlineStr">
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M546" t="n">
+        <v>300</v>
+      </c>
+      <c r="N546" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O546" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P546" t="n">
+        <v>25400</v>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S546" t="n">
+        <v>3629</v>
+      </c>
+      <c r="T546" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>6</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E547" t="n">
+        <v>13</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M547" t="n">
+        <v>210</v>
+      </c>
+      <c r="N547" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O547" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P547" t="n">
+        <v>21381</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S547" t="n">
+        <v>3054</v>
+      </c>
+      <c r="T547" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>6</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E548" t="n">
+        <v>13</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M545" t="n">
+      <c r="M548" t="n">
         <v>90</v>
       </c>
-      <c r="N545" t="n">
+      <c r="N548" t="n">
         <v>14000</v>
       </c>
-      <c r="O545" t="n">
+      <c r="O548" t="n">
         <v>15000</v>
       </c>
-      <c r="P545" t="n">
+      <c r="P548" t="n">
         <v>14556</v>
       </c>
-      <c r="Q545" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R545" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S545" t="n">
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S548" t="n">
         <v>2079</v>
       </c>
-      <c r="T545" t="n">
+      <c r="T548" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T563"/>
+  <dimension ref="A1:T567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>2400</v>
+        <v>150</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O552" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P552" t="n">
-        <v>9375</v>
+        <v>25000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1339</v>
+        <v>3571</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O553" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P553" t="n">
-        <v>7750</v>
+        <v>20000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1107</v>
+        <v>2857</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N554" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O554" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P554" t="n">
-        <v>4750</v>
+        <v>15000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>679</v>
+        <v>2143</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,11 +44760,11 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
         <v>10000</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>450</v>
+        <v>2400</v>
       </c>
       <c r="N556" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>8000</v>
+        <v>9375</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1143</v>
+        <v>1339</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N557" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O557" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>857</v>
+        <v>1107</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N558" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O558" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>19000</v>
+        <v>4750</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>2714</v>
+        <v>679</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N559" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O559" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P559" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>2286</v>
+        <v>1429</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O560" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N561" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O561" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P561" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>3000</v>
+        <v>857</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O562" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P562" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2286</v>
+        <v>2714</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,68 +45367,388 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E563" t="n">
+        <v>13</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G563" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M563" t="n">
+        <v>150</v>
+      </c>
+      <c r="N563" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O563" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P563" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S563" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T563" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>6</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D564" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E564" t="n">
+        <v>13</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G564" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M564" t="n">
+        <v>100</v>
+      </c>
+      <c r="N564" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O564" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P564" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S564" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T564" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>6</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E563" t="n">
-        <v>13</v>
-      </c>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G563" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I563" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J563" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L563" t="inlineStr">
+      <c r="E565" t="n">
+        <v>13</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G565" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M565" t="n">
+        <v>300</v>
+      </c>
+      <c r="N565" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O565" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P565" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S565" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T565" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>6</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D566" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E566" t="n">
+        <v>13</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G566" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M566" t="n">
+        <v>400</v>
+      </c>
+      <c r="N566" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O566" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P566" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S566" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T566" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>6</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E567" t="n">
+        <v>13</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G567" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M563" t="n">
+      <c r="M567" t="n">
         <v>200</v>
       </c>
-      <c r="N563" t="n">
+      <c r="N567" t="n">
         <v>11000</v>
       </c>
-      <c r="O563" t="n">
+      <c r="O567" t="n">
         <v>12000</v>
       </c>
-      <c r="P563" t="n">
+      <c r="P567" t="n">
         <v>11500</v>
       </c>
-      <c r="Q563" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R563" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S563" t="n">
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S567" t="n">
         <v>1643</v>
       </c>
-      <c r="T563" t="n">
+      <c r="T567" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T567"/>
+  <dimension ref="A1:T570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="N514" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O514" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P514" t="n">
-        <v>8286</v>
+        <v>24600</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1184</v>
+        <v>3514</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="N515" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O515" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P515" t="n">
-        <v>6659</v>
+        <v>19625</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>951</v>
+        <v>2804</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="N516" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P516" t="n">
-        <v>4692</v>
+        <v>15000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>670</v>
+        <v>2143</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="N517" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O517" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>25000</v>
+        <v>8286</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>3571</v>
+        <v>1184</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>120</v>
+        <v>2520</v>
       </c>
       <c r="N518" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O518" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P518" t="n">
-        <v>20000</v>
+        <v>6659</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2857</v>
+        <v>951</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="N519" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O519" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P519" t="n">
-        <v>15000</v>
+        <v>4692</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>2143</v>
+        <v>670</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1143</v>
+        <v>3571</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N521" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O521" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P521" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N522" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O522" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P522" t="n">
-        <v>4333</v>
+        <v>15000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>619</v>
+        <v>2143</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="N523" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>3571</v>
+        <v>1143</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N524" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O524" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P524" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N525" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O525" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P525" t="n">
-        <v>15000</v>
+        <v>4333</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>2143</v>
+        <v>619</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="N526" t="n">
         <v>25000</v>
       </c>
       <c r="O526" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="P526" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>3643</v>
+        <v>3571</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,7 +42524,7 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N527" t="n">
         <v>20000</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,7 +42604,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N528" t="n">
         <v>15000</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>820</v>
+        <v>500</v>
       </c>
       <c r="N529" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O529" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P529" t="n">
-        <v>25787</v>
+        <v>25500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>3684</v>
+        <v>3643</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="N530" t="n">
         <v>20000</v>
       </c>
       <c r="O530" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="P530" t="n">
-        <v>22139</v>
+        <v>20000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>3163</v>
+        <v>2857</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O531" t="n">
         <v>15000</v>
       </c>
       <c r="P531" t="n">
-        <v>14414</v>
+        <v>15000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>2059</v>
+        <v>2143</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>250</v>
+        <v>820</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O532" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P532" t="n">
-        <v>9500</v>
+        <v>25787</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1357</v>
+        <v>3684</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>100</v>
+        <v>790</v>
       </c>
       <c r="N533" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O533" t="n">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="P533" t="n">
-        <v>4500</v>
+        <v>22139</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>643</v>
+        <v>3163</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>3400</v>
+        <v>580</v>
       </c>
       <c r="N534" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P534" t="n">
-        <v>7515</v>
+        <v>14414</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1074</v>
+        <v>2059</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="N535" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,11 +43240,11 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N536" t="n">
         <v>4000</v>
@@ -43253,7 +43253,7 @@
         <v>5000</v>
       </c>
       <c r="P536" t="n">
-        <v>4577</v>
+        <v>4500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>900</v>
+        <v>3400</v>
       </c>
       <c r="N537" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O537" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>14500</v>
+        <v>7515</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>2071</v>
+        <v>1074</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O538" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="P538" t="n">
-        <v>12500</v>
+        <v>6173</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1786</v>
+        <v>882</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N539" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O539" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P539" t="n">
-        <v>6667</v>
+        <v>4577</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>952</v>
+        <v>654</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N540" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O540" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P540" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1107</v>
+        <v>2071</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N541" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>964</v>
+        <v>1786</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43727,13 +43727,13 @@
         <v>300</v>
       </c>
       <c r="N542" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O542" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P542" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N543" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="O543" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P543" t="n">
-        <v>22000</v>
+        <v>7750</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>3143</v>
+        <v>1107</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P544" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1714</v>
+        <v>964</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P545" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P546" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1071</v>
+        <v>3143</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N547" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O547" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P547" t="n">
-        <v>4750</v>
+        <v>12000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>679</v>
+        <v>1714</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N548" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P548" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>500</v>
+        <v>1357</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N549" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P549" t="n">
-        <v>11455</v>
+        <v>7500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1636</v>
+        <v>1071</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N550" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P550" t="n">
-        <v>9600</v>
+        <v>4750</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1371</v>
+        <v>679</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M551" t="n">
         <v>300</v>
       </c>
       <c r="N551" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O551" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P551" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>679</v>
+        <v>500</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="N552" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O552" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P552" t="n">
-        <v>25000</v>
+        <v>11455</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>3571</v>
+        <v>1636</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N553" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>20000</v>
+        <v>9600</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>2857</v>
+        <v>1371</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N554" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O554" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P554" t="n">
-        <v>15000</v>
+        <v>4750</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>2143</v>
+        <v>679</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N555" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O555" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P555" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="N556" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O556" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P556" t="n">
-        <v>9375</v>
+        <v>20000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1339</v>
+        <v>2857</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N557" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P557" t="n">
-        <v>7750</v>
+        <v>15000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1107</v>
+        <v>2143</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O558" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>679</v>
+        <v>1429</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>350</v>
+        <v>2400</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
         <v>10000</v>
       </c>
       <c r="P559" t="n">
-        <v>10000</v>
+        <v>9375</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1429</v>
+        <v>1339</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="N560" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O560" t="n">
         <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N561" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O561" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>857</v>
+        <v>679</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N562" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2714</v>
+        <v>1429</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N563" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N564" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P564" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45567,13 +45567,13 @@
         <v>300</v>
       </c>
       <c r="N565" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O565" t="n">
         <v>20000</v>
       </c>
-      <c r="O565" t="n">
-        <v>22000</v>
-      </c>
       <c r="P565" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>3000</v>
+        <v>2714</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,7 +45644,7 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N566" t="n">
         <v>15000</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,31 +45724,271 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N567" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O567" t="n">
         <v>12000</v>
       </c>
       <c r="P567" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S567" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T567" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>6</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E568" t="n">
+        <v>13</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G568" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M568" t="n">
+        <v>300</v>
+      </c>
+      <c r="N568" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O568" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P568" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S568" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T568" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>6</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E569" t="n">
+        <v>13</v>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G569" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M569" t="n">
+        <v>400</v>
+      </c>
+      <c r="N569" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O569" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P569" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q569" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S569" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T569" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>6</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D570" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E570" t="n">
+        <v>13</v>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G570" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I570" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M570" t="n">
+        <v>200</v>
+      </c>
+      <c r="N570" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O570" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P570" t="n">
         <v>11500</v>
       </c>
-      <c r="Q567" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R567" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S567" t="n">
+      <c r="Q570" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S570" t="n">
         <v>1643</v>
       </c>
-      <c r="T567" t="n">
+      <c r="T570" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T570"/>
+  <dimension ref="A1:T573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N369" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O369" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P369" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1714</v>
+        <v>3571</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O370" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P370" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N371" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O371" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P371" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="N372" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P372" t="n">
-        <v>9429</v>
+        <v>12000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1347</v>
+        <v>1714</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P373" t="n">
-        <v>7615</v>
+        <v>10000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1088</v>
+        <v>1429</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N374" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O374" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P374" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>643</v>
+        <v>1143</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N375" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O375" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>24500</v>
+        <v>9429</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>3500</v>
+        <v>1347</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="N376" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O376" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P376" t="n">
-        <v>20000</v>
+        <v>7615</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2857</v>
+        <v>1088</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N377" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O377" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P377" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2143</v>
+        <v>643</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N378" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O378" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P378" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2929</v>
+        <v>3500</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O379" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P379" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2214</v>
+        <v>2857</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N380" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>929</v>
+        <v>2143</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N381" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O381" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P381" t="n">
-        <v>5000</v>
+        <v>20500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>714</v>
+        <v>2929</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="N382" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P382" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1643</v>
+        <v>2214</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P383" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="N384" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O384" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P384" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1429</v>
+        <v>1643</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="N386" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P386" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N387" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O387" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P387" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>607</v>
+        <v>857</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
         <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N389" t="n">
         <v>8000</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31567,13 +31567,13 @@
         <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O390" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P390" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>786</v>
+        <v>607</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N391" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>3571</v>
+        <v>1571</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="N392" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O392" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>3000</v>
+        <v>1214</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N393" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O393" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P393" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2143</v>
+        <v>786</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O394" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P394" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>3000</v>
+        <v>3571</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N395" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O395" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P395" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P396" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32127,13 +32127,13 @@
         <v>150</v>
       </c>
       <c r="N397" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O397" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P397" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>3571</v>
+        <v>3000</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N398" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O398" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P398" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N399" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N400" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P400" t="n">
-        <v>11500</v>
+        <v>25000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1643</v>
+        <v>3571</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P401" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1357</v>
+        <v>3000</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N402" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P402" t="n">
-        <v>4750</v>
+        <v>15000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>679</v>
+        <v>2143</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N403" t="n">
         <v>11000</v>
@@ -32613,7 +32613,7 @@
         <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>11375</v>
+        <v>11500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1625</v>
+        <v>1643</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32693,7 +32693,7 @@
         <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>9312</v>
+        <v>9500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1330</v>
+        <v>1357</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N405" t="n">
         <v>4500</v>
@@ -32773,7 +32773,7 @@
         <v>5000</v>
       </c>
       <c r="P405" t="n">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N406" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P406" t="n">
-        <v>9750</v>
+        <v>11375</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1393</v>
+        <v>1625</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>8404</v>
+        <v>9312</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1201</v>
+        <v>1330</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33013,7 +33013,7 @@
         <v>5000</v>
       </c>
       <c r="P408" t="n">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N409" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="O409" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>536</v>
+        <v>1393</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N410" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P410" t="n">
-        <v>19000</v>
+        <v>8404</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2714</v>
+        <v>1201</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O411" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P411" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2071</v>
+        <v>679</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N412" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P412" t="n">
-        <v>11000</v>
+        <v>3750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1571</v>
+        <v>536</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N413" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O413" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P413" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>3500</v>
+        <v>2714</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N414" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O414" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P414" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>2786</v>
+        <v>2071</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44264</v>
+        <v>44398</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N415" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1250</v>
+        <v>1571</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N416" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P416" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1071</v>
+        <v>3500</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N417" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="O417" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P417" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>643</v>
+        <v>2786</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N418" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="O418" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P418" t="n">
-        <v>3250</v>
+        <v>8750</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P420" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P421" t="n">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>929</v>
+        <v>464</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N422" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>714</v>
+        <v>1857</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N423" t="n">
         <v>9000</v>
       </c>
       <c r="O423" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,24 +34280,24 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
         <v>7000</v>
       </c>
       <c r="P424" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1000</v>
+        <v>929</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,11 +34360,11 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N425" t="n">
         <v>5000</v>
@@ -34377,7 +34377,7 @@
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,20 +34444,20 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P426" t="n">
-        <v>10391</v>
+        <v>9000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1484</v>
+        <v>1286</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,20 +34524,20 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N427" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P427" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,20 +34604,20 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N428" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O428" t="n">
         <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>300</v>
+        <v>1150</v>
       </c>
       <c r="N429" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
         <v>11000</v>
       </c>
       <c r="P429" t="n">
-        <v>11000</v>
+        <v>10391</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1571</v>
+        <v>1484</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N430" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
         <v>9000</v>
       </c>
       <c r="P430" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O431" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P431" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>880</v>
+        <v>300</v>
       </c>
       <c r="N432" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O432" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P432" t="n">
-        <v>8642</v>
+        <v>11000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1235</v>
+        <v>1571</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P433" t="n">
-        <v>7607</v>
+        <v>9000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1087</v>
+        <v>1286</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N434" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P434" t="n">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>657</v>
+        <v>1000</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>80</v>
+        <v>880</v>
       </c>
       <c r="N435" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O435" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P435" t="n">
-        <v>20000</v>
+        <v>8642</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>2857</v>
+        <v>1235</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>7607</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1857</v>
+        <v>1087</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N437" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O437" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P437" t="n">
-        <v>9500</v>
+        <v>4600</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1357</v>
+        <v>657</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O438" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P438" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>929</v>
+        <v>2857</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N439" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O439" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>3071</v>
+        <v>1857</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N440" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P440" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2357</v>
+        <v>1357</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O442" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P442" t="n">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1000</v>
+        <v>3071</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P443" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1143</v>
+        <v>2357</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N444" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N445" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P445" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>571</v>
+        <v>1000</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N446" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N447" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N448" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O448" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P448" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36302,11 +36302,11 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
         <v>300</v>
       </c>
       <c r="N450" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N451" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O451" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P451" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N452" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O452" t="n">
         <v>8000</v>
       </c>
-      <c r="O452" t="n">
-        <v>8500</v>
-      </c>
       <c r="P452" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N453" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O453" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P453" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N454" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O454" t="n">
         <v>5000</v>
       </c>
       <c r="P454" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>150</v>
+        <v>2600</v>
       </c>
       <c r="N455" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="P455" t="n">
-        <v>22500</v>
+        <v>8173</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>3214</v>
+        <v>1168</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O456" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P456" t="n">
-        <v>12500</v>
+        <v>6729</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1786</v>
+        <v>961</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P457" t="n">
-        <v>10000</v>
+        <v>4844</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1429</v>
+        <v>692</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="N458" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O458" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P458" t="n">
-        <v>24621</v>
+        <v>22500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>3517</v>
+        <v>3214</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="N459" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>20317</v>
+        <v>12500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2902</v>
+        <v>1786</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="N461" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P461" t="n">
-        <v>9500</v>
+        <v>24621</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1357</v>
+        <v>3517</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N462" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O462" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P462" t="n">
-        <v>7500</v>
+        <v>20317</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1071</v>
+        <v>2902</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N463" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P463" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>643</v>
+        <v>2071</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N464" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="P464" t="n">
-        <v>25400</v>
+        <v>9500</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>3629</v>
+        <v>1357</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N465" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>21381</v>
+        <v>7500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>3054</v>
+        <v>1071</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N466" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O466" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P466" t="n">
-        <v>14556</v>
+        <v>4500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>2079</v>
+        <v>643</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N467" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P467" t="n">
-        <v>11500</v>
+        <v>25400</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1643</v>
+        <v>3629</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P468" t="n">
-        <v>9500</v>
+        <v>21381</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1357</v>
+        <v>3054</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N469" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P469" t="n">
-        <v>5500</v>
+        <v>14556</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>786</v>
+        <v>2079</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37967,13 +37967,13 @@
         <v>800</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O470" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>2071</v>
+        <v>1643</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38047,13 +38047,13 @@
         <v>700</v>
       </c>
       <c r="N471" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P471" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O472" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P472" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N473" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O473" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1321</v>
+        <v>1643</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N475" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
         <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1107</v>
+        <v>1071</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N476" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O476" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P476" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N477" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1107</v>
+        <v>1321</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N478" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O478" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>6600</v>
+        <v>7750</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>943</v>
+        <v>1107</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N479" t="n">
         <v>4000</v>
@@ -38693,7 +38693,7 @@
         <v>5000</v>
       </c>
       <c r="P479" t="n">
-        <v>4429</v>
+        <v>4500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N480" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O480" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P480" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O481" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>13000</v>
+        <v>6600</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1857</v>
+        <v>943</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O482" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P482" t="n">
-        <v>10500</v>
+        <v>4429</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1500</v>
+        <v>633</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N483" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P483" t="n">
-        <v>6500</v>
+        <v>3750</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>929</v>
+        <v>536</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N484" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P484" t="n">
-        <v>8250</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1179</v>
+        <v>1857</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N485" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>7188</v>
+        <v>10500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1027</v>
+        <v>1500</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N486" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P486" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>629</v>
+        <v>929</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="N487" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O487" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P487" t="n">
-        <v>20000</v>
+        <v>8250</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2857</v>
+        <v>1179</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N488" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O488" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P488" t="n">
-        <v>17700</v>
+        <v>7188</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>2529</v>
+        <v>1027</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N489" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O489" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P489" t="n">
-        <v>18000</v>
+        <v>4400</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>2571</v>
+        <v>629</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O490" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P490" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1857</v>
+        <v>2857</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N491" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O491" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P491" t="n">
-        <v>12000</v>
+        <v>17700</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1714</v>
+        <v>2529</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N492" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O492" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P492" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>857</v>
+        <v>2571</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N493" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O493" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P493" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N494" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O494" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P494" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="N495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N496" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O496" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P496" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N497" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1643</v>
+        <v>1143</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N498" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N499" t="n">
         <v>5000</v>
       </c>
       <c r="O499" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N500" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O500" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P500" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>2786</v>
+        <v>1643</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="N501" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O501" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P501" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>2500</v>
+        <v>1357</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N502" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="O502" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P502" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>3571</v>
+        <v>786</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N503" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O503" t="n">
         <v>20000</v>
       </c>
       <c r="P503" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>2857</v>
+        <v>2786</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N504" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O504" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P504" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N505" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O505" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P505" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2857</v>
+        <v>3571</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40847,13 +40847,13 @@
         <v>150</v>
       </c>
       <c r="N506" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O506" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P506" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O508" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P508" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1500</v>
+        <v>2857</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N509" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1214</v>
+        <v>2000</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N510" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>679</v>
+        <v>1429</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P511" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1857</v>
+        <v>1500</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N512" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O512" t="n">
         <v>9000</v>
       </c>
-      <c r="O512" t="n">
-        <v>10000</v>
-      </c>
       <c r="P512" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41407,13 +41407,13 @@
         <v>300</v>
       </c>
       <c r="N513" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O513" t="n">
         <v>5000</v>
       </c>
-      <c r="O513" t="n">
-        <v>6000</v>
-      </c>
       <c r="P513" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>786</v>
+        <v>679</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N514" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P514" t="n">
-        <v>24600</v>
+        <v>13000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>3514</v>
+        <v>1857</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N515" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>19625</v>
+        <v>9500</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>2804</v>
+        <v>1357</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N516" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O516" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P516" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2143</v>
+        <v>786</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="N517" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O517" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P517" t="n">
-        <v>8286</v>
+        <v>24600</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1184</v>
+        <v>3514</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="N518" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O518" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P518" t="n">
-        <v>6659</v>
+        <v>19625</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>951</v>
+        <v>2804</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="N519" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O519" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P519" t="n">
-        <v>4692</v>
+        <v>15000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>670</v>
+        <v>2143</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="N520" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O520" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>25000</v>
+        <v>8286</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>3571</v>
+        <v>1184</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>120</v>
+        <v>2520</v>
       </c>
       <c r="N521" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O521" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P521" t="n">
-        <v>20000</v>
+        <v>6659</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>2857</v>
+        <v>951</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="N522" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O522" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P522" t="n">
-        <v>15000</v>
+        <v>4692</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2143</v>
+        <v>670</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O523" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P523" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1143</v>
+        <v>3571</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N524" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P524" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N525" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O525" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>4333</v>
+        <v>15000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>619</v>
+        <v>2143</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="N526" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>3571</v>
+        <v>1143</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N527" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O527" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N528" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O528" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P528" t="n">
-        <v>15000</v>
+        <v>4333</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2143</v>
+        <v>619</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="N529" t="n">
         <v>25000</v>
       </c>
       <c r="O529" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="P529" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>3643</v>
+        <v>3571</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,7 +42764,7 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N530" t="n">
         <v>20000</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,7 +42844,7 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N531" t="n">
         <v>15000</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>820</v>
+        <v>500</v>
       </c>
       <c r="N532" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O532" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P532" t="n">
-        <v>25787</v>
+        <v>25500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>3684</v>
+        <v>3643</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="N533" t="n">
         <v>20000</v>
       </c>
       <c r="O533" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="P533" t="n">
-        <v>22139</v>
+        <v>20000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>3163</v>
+        <v>2857</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="N534" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O534" t="n">
         <v>15000</v>
       </c>
       <c r="P534" t="n">
-        <v>14414</v>
+        <v>15000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>2059</v>
+        <v>2143</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>250</v>
+        <v>820</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>25787</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1357</v>
+        <v>3684</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>100</v>
+        <v>790</v>
       </c>
       <c r="N536" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O536" t="n">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="P536" t="n">
-        <v>4500</v>
+        <v>22139</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>643</v>
+        <v>3163</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>3400</v>
+        <v>580</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O537" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P537" t="n">
-        <v>7515</v>
+        <v>14414</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1074</v>
+        <v>2059</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,11 +43480,11 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N539" t="n">
         <v>4000</v>
@@ -43493,7 +43493,7 @@
         <v>5000</v>
       </c>
       <c r="P539" t="n">
-        <v>4577</v>
+        <v>4500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>900</v>
+        <v>3400</v>
       </c>
       <c r="N540" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>14500</v>
+        <v>7515</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>2071</v>
+        <v>1074</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N541" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O541" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="P541" t="n">
-        <v>12500</v>
+        <v>6173</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1786</v>
+        <v>882</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N542" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O542" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P542" t="n">
-        <v>6667</v>
+        <v>4577</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>952</v>
+        <v>654</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N543" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O543" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P543" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1107</v>
+        <v>2071</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N544" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O544" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P544" t="n">
-        <v>6750</v>
+        <v>12500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>964</v>
+        <v>1786</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43967,13 +43967,13 @@
         <v>300</v>
       </c>
       <c r="N545" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O545" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P545" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N546" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="O546" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P546" t="n">
-        <v>22000</v>
+        <v>7750</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>3143</v>
+        <v>1107</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="N547" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P547" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1714</v>
+        <v>964</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N548" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P548" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N549" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P549" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1071</v>
+        <v>3143</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N550" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>4750</v>
+        <v>12000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>679</v>
+        <v>1714</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N551" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>500</v>
+        <v>1357</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N552" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O552" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>11455</v>
+        <v>7500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1636</v>
+        <v>1071</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P553" t="n">
-        <v>9600</v>
+        <v>4750</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1371</v>
+        <v>679</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M554" t="n">
         <v>300</v>
       </c>
       <c r="N554" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O554" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P554" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>679</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="N555" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O555" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P555" t="n">
-        <v>25000</v>
+        <v>11455</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>3571</v>
+        <v>1636</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N556" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>20000</v>
+        <v>9600</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>2857</v>
+        <v>1371</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N557" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O557" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P557" t="n">
-        <v>15000</v>
+        <v>4750</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>2143</v>
+        <v>679</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N558" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O558" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P558" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P559" t="n">
-        <v>9375</v>
+        <v>20000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1339</v>
+        <v>2857</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N560" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P560" t="n">
-        <v>7750</v>
+        <v>15000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1107</v>
+        <v>2143</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N561" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>679</v>
+        <v>1429</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>350</v>
+        <v>2400</v>
       </c>
       <c r="N562" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O562" t="n">
         <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>10000</v>
+        <v>9375</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1429</v>
+        <v>1339</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="N563" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O563" t="n">
         <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N564" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O564" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P564" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>857</v>
+        <v>679</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N565" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>2714</v>
+        <v>1429</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N566" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O566" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P566" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N567" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O567" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P567" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45807,13 +45807,13 @@
         <v>300</v>
       </c>
       <c r="N568" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O568" t="n">
         <v>20000</v>
       </c>
-      <c r="O568" t="n">
-        <v>22000</v>
-      </c>
       <c r="P568" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>3000</v>
+        <v>2714</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,7 +45884,7 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N569" t="n">
         <v>15000</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,31 +45964,271 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N570" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O570" t="n">
         <v>12000</v>
       </c>
       <c r="P570" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q570" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S570" t="n">
+        <v>1714</v>
+      </c>
+      <c r="T570" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>6</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E571" t="n">
+        <v>13</v>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G571" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I571" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M571" t="n">
+        <v>300</v>
+      </c>
+      <c r="N571" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O571" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P571" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q571" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S571" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T571" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>6</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D572" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E572" t="n">
+        <v>13</v>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G572" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I572" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M572" t="n">
+        <v>400</v>
+      </c>
+      <c r="N572" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O572" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P572" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q572" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S572" t="n">
+        <v>2286</v>
+      </c>
+      <c r="T572" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>6</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D573" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E573" t="n">
+        <v>13</v>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G573" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I573" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M573" t="n">
+        <v>200</v>
+      </c>
+      <c r="N573" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O573" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P573" t="n">
         <v>11500</v>
       </c>
-      <c r="Q570" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R570" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S570" t="n">
+      <c r="Q573" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S573" t="n">
         <v>1643</v>
       </c>
-      <c r="T570" t="n">
+      <c r="T573" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T579"/>
+  <dimension ref="A1:T582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O383" t="n">
         <v>24000</v>
       </c>
       <c r="P383" t="n">
-        <v>23500</v>
+        <v>22667</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>3357</v>
+        <v>3238</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N384" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O384" t="n">
         <v>20000</v>
       </c>
       <c r="P384" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2786</v>
+        <v>2686</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P385" t="n">
-        <v>11000</v>
+        <v>13333</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1571</v>
+        <v>1905</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N386" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O386" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P386" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>3071</v>
+        <v>3357</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N387" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O387" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P387" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2357</v>
+        <v>2786</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N388" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O388" t="n">
         <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1714</v>
+        <v>1571</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P389" t="n">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>3071</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N390" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P390" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1393</v>
+        <v>2357</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31647,13 +31647,13 @@
         <v>80</v>
       </c>
       <c r="N391" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44172</v>
+        <v>44414</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P392" t="n">
-        <v>12308</v>
+        <v>7000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1758</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O393" t="n">
         <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1429</v>
+        <v>1393</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O394" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P394" t="n">
-        <v>7403</v>
+        <v>20000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1058</v>
+        <v>2857</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="N395" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>16500</v>
+        <v>12308</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2357</v>
+        <v>1758</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="N396" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>857</v>
+        <v>1429</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N397" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>9417</v>
+        <v>7403</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1345</v>
+        <v>1058</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N398" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O398" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P398" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1143</v>
+        <v>2357</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32287,13 +32287,13 @@
         <v>100</v>
       </c>
       <c r="N399" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O399" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P399" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N400" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O400" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>4000</v>
+        <v>9417</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>571</v>
+        <v>1345</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P402" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1071</v>
+        <v>500</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M403" t="n">
         <v>200</v>
       </c>
       <c r="N403" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O403" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P403" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>679</v>
+        <v>571</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N404" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>536</v>
+        <v>1357</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1929</v>
+        <v>1071</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E406" t="n">
         <v>13</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P406" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1643</v>
+        <v>679</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N407" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O407" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P407" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>786</v>
+        <v>536</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O408" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P408" t="n">
-        <v>8554</v>
+        <v>13500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1222</v>
+        <v>1929</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>1450</v>
+        <v>640</v>
       </c>
       <c r="N409" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O409" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>7017</v>
+        <v>11500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1002</v>
+        <v>1643</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N410" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O410" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P410" t="n">
-        <v>4719</v>
+        <v>5500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>674</v>
+        <v>786</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="N411" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O411" t="n">
         <v>9000</v>
       </c>
-      <c r="O411" t="n">
-        <v>10000</v>
-      </c>
       <c r="P411" t="n">
-        <v>9500</v>
+        <v>8554</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1357</v>
+        <v>1222</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>700</v>
+        <v>1450</v>
       </c>
       <c r="N412" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O412" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P412" t="n">
-        <v>7500</v>
+        <v>7017</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1071</v>
+        <v>1002</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N413" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O413" t="n">
         <v>5000</v>
       </c>
       <c r="P413" t="n">
-        <v>4500</v>
+        <v>4719</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="N414" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O414" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>3500</v>
+        <v>1357</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N415" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O415" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P415" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>3000</v>
+        <v>1071</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N416" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O416" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P416" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>2071</v>
+        <v>643</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N417" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P417" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1357</v>
+        <v>3500</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N418" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O418" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P418" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1286</v>
+        <v>3000</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P419" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1071</v>
+        <v>2071</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N420" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N421" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O421" t="n">
         <v>9000</v>
       </c>
       <c r="P421" t="n">
-        <v>8750</v>
+        <v>9000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N423" t="n">
         <v>4000</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N424" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O424" t="n">
         <v>9000</v>
       </c>
-      <c r="O424" t="n">
-        <v>10000</v>
-      </c>
       <c r="P424" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1357</v>
+        <v>1250</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N426" t="n">
         <v>4000</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N427" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O427" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>536</v>
+        <v>1357</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N429" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P429" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1143</v>
+        <v>643</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N430" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O430" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P430" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>8038</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1148</v>
+        <v>1429</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N432" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P432" t="n">
-        <v>4850</v>
+        <v>8000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>693</v>
+        <v>1143</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
         <v>300</v>
       </c>
       <c r="N433" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O433" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="P433" t="n">
-        <v>20500</v>
+        <v>4750</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>2929</v>
+        <v>679</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>360</v>
+        <v>1300</v>
       </c>
       <c r="N434" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>17000</v>
+        <v>8038</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>2429</v>
+        <v>1148</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P435" t="n">
-        <v>11000</v>
+        <v>4850</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1571</v>
+        <v>693</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N436" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O436" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P436" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1071</v>
+        <v>2929</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N437" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O437" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P437" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>2857</v>
+        <v>2429</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,13 +35404,13 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N438" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
         <v>11000</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O439" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N440" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O440" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P440" t="n">
-        <v>9625</v>
+        <v>20000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1375</v>
+        <v>2857</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N441" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O441" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P441" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1071</v>
+        <v>1571</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O442" t="n">
         <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N443" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O443" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>4250</v>
+        <v>9625</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>607</v>
+        <v>1375</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N444" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N445" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P445" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N446" t="n">
         <v>4000</v>
       </c>
       <c r="O446" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P446" t="n">
-        <v>4500</v>
+        <v>4250</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N447" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="O447" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P447" t="n">
-        <v>3250</v>
+        <v>8750</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1357</v>
+        <v>1071</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P449" t="n">
-        <v>7467</v>
+        <v>4500</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1067</v>
+        <v>643</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N450" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O450" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P450" t="n">
-        <v>4500</v>
+        <v>3250</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>260</v>
+        <v>1500</v>
       </c>
       <c r="N452" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O452" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>6000</v>
+        <v>7467</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>857</v>
+        <v>1067</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N453" t="n">
         <v>4000</v>
       </c>
       <c r="O453" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P453" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,7 +36680,7 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N455" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O455" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P455" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N456" t="n">
         <v>4000</v>
       </c>
       <c r="O456" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P456" t="n">
-        <v>4333</v>
+        <v>4000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N457" t="n">
         <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N459" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P459" t="n">
-        <v>11000</v>
+        <v>4333</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1571</v>
+        <v>619</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
         <v>9000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>3060</v>
+        <v>350</v>
       </c>
       <c r="N462" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O462" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P462" t="n">
-        <v>7676</v>
+        <v>11000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1097</v>
+        <v>1571</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="N463" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P463" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N464" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O464" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P464" t="n">
-        <v>4812</v>
+        <v>7000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>687</v>
+        <v>1000</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>800</v>
+        <v>3060</v>
       </c>
       <c r="N465" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>14500</v>
+        <v>7676</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>2071</v>
+        <v>1097</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>700</v>
+        <v>1550</v>
       </c>
       <c r="N466" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1643</v>
+        <v>929</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N467" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O467" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P467" t="n">
-        <v>7500</v>
+        <v>4812</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1071</v>
+        <v>687</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P468" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N469" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>3500</v>
+        <v>1643</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N470" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>2857</v>
+        <v>1071</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N471" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>2143</v>
+        <v>857</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P472" t="n">
-        <v>9692</v>
+        <v>24500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1385</v>
+        <v>3500</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="N473" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="O473" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P473" t="n">
-        <v>3750</v>
+        <v>20000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>536</v>
+        <v>2857</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N474" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O474" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P474" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>2571</v>
+        <v>2143</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N475" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O475" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P475" t="n">
-        <v>15000</v>
+        <v>9692</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>2143</v>
+        <v>1385</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N476" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O476" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P476" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1000</v>
+        <v>536</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1150</v>
+        <v>250</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O477" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P477" t="n">
-        <v>10391</v>
+        <v>18000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1484</v>
+        <v>2571</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N478" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O478" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P478" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1214</v>
+        <v>2143</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N479" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O479" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P479" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="N480" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P480" t="n">
-        <v>7750</v>
+        <v>10391</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1107</v>
+        <v>1484</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N481" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P481" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>964</v>
+        <v>1214</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N482" t="n">
         <v>4000</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N483" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O483" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>20500</v>
+        <v>7750</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2929</v>
+        <v>1107</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N484" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O484" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P484" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>2214</v>
+        <v>964</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39167,13 +39167,13 @@
         <v>300</v>
       </c>
       <c r="N485" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O485" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P485" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>929</v>
+        <v>643</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N486" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O486" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P486" t="n">
-        <v>5000</v>
+        <v>20500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>714</v>
+        <v>2929</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N487" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O487" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P487" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2000</v>
+        <v>2214</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N488" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O488" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P488" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P489" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N490" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P490" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N491" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O491" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P491" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>929</v>
+        <v>1714</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N492" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P492" t="n">
-        <v>4250</v>
+        <v>9000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>607</v>
+        <v>1286</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N494" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P494" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1214</v>
+        <v>929</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1107</v>
+        <v>1429</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N497" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>6600</v>
+        <v>8500</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>943</v>
+        <v>1214</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N498" t="n">
         <v>4000</v>
       </c>
       <c r="O498" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P498" t="n">
-        <v>4429</v>
+        <v>4250</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N499" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O499" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N500" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O500" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P500" t="n">
-        <v>25000</v>
+        <v>6600</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>3571</v>
+        <v>943</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N501" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O501" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>20000</v>
+        <v>4429</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>2857</v>
+        <v>633</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N502" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O502" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P502" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2143</v>
+        <v>536</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O503" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P503" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>2500</v>
+        <v>3571</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N504" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O504" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P504" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>2071</v>
+        <v>2857</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P505" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>929</v>
+        <v>2143</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N506" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O506" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P506" t="n">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>714</v>
+        <v>2500</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>930</v>
+        <v>360</v>
       </c>
       <c r="N507" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O507" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P507" t="n">
-        <v>8796</v>
+        <v>14500</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1257</v>
+        <v>2071</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="N508" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O508" t="n">
         <v>7000</v>
       </c>
-      <c r="O508" t="n">
-        <v>8000</v>
-      </c>
       <c r="P508" t="n">
-        <v>7421</v>
+        <v>6500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1060</v>
+        <v>929</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O509" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P509" t="n">
-        <v>4156</v>
+        <v>5000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>594</v>
+        <v>714</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>250</v>
+        <v>930</v>
       </c>
       <c r="N510" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O510" t="n">
         <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O511" t="n">
         <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>8000</v>
+        <v>7421</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N512" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O512" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P512" t="n">
-        <v>5500</v>
+        <v>4156</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>786</v>
+        <v>594</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N513" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P514" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P515" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1286</v>
+        <v>786</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="N516" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>7911</v>
+        <v>13000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1130</v>
+        <v>1857</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N517" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O517" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P517" t="n">
-        <v>6816</v>
+        <v>11000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>974</v>
+        <v>1571</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N518" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O518" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P518" t="n">
-        <v>4472</v>
+        <v>9000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>639</v>
+        <v>1286</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="N519" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P519" t="n">
-        <v>11500</v>
+        <v>7911</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1643</v>
+        <v>1130</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N520" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P520" t="n">
-        <v>9500</v>
+        <v>6816</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1357</v>
+        <v>974</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N521" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O521" t="n">
         <v>5000</v>
       </c>
-      <c r="O521" t="n">
-        <v>6000</v>
-      </c>
       <c r="P521" t="n">
-        <v>5500</v>
+        <v>4472</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>786</v>
+        <v>639</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N522" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O522" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1857</v>
+        <v>1643</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="N523" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P523" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P524" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="N525" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O525" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P525" t="n">
-        <v>7875</v>
+        <v>13000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1125</v>
+        <v>1857</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N526" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P526" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>929</v>
+        <v>1571</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N527" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P527" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N528" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P528" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N529" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N530" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O530" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P530" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="N531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>7515</v>
+        <v>11500</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1074</v>
+        <v>1643</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N532" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O533" t="n">
         <v>5000</v>
       </c>
       <c r="P533" t="n">
-        <v>4577</v>
+        <v>4750</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P534" t="n">
-        <v>12000</v>
+        <v>7515</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1714</v>
+        <v>1074</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>190</v>
+        <v>1300</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>6173</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1357</v>
+        <v>882</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P536" t="n">
-        <v>9444</v>
+        <v>4577</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1349</v>
+        <v>654</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P537" t="n">
-        <v>7545</v>
+        <v>12000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1078</v>
+        <v>1714</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N538" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>4714</v>
+        <v>9500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>673</v>
+        <v>1357</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,7 +43484,7 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="N539" t="n">
         <v>9000</v>
@@ -43493,7 +43493,7 @@
         <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>9395</v>
+        <v>9444</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N540" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
         <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>7750</v>
+        <v>7545</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N541" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O541" t="n">
         <v>5000</v>
       </c>
       <c r="P541" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="N542" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O542" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>20000</v>
+        <v>9395</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>2857</v>
+        <v>1342</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N543" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O543" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P543" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>2143</v>
+        <v>1107</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P546" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P547" t="n">
-        <v>9250</v>
+        <v>20000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1321</v>
+        <v>2857</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N548" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O548" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>7750</v>
+        <v>14000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1107</v>
+        <v>2000</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N549" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O549" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44370,10 +44370,10 @@
         <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O551" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1357</v>
+        <v>1107</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O552" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P552" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P553" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
         <v>300</v>
       </c>
       <c r="N554" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O554" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P554" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N555" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P555" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44782,11 +44782,11 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N556" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O556" t="n">
         <v>8000</v>
       </c>
-      <c r="O556" t="n">
-        <v>8500</v>
-      </c>
       <c r="P556" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N557" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O557" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P557" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N558" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O558" t="n">
         <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>275</v>
+        <v>2600</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P559" t="n">
-        <v>10000</v>
+        <v>8173</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1429</v>
+        <v>1168</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N560" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P560" t="n">
-        <v>8000</v>
+        <v>6729</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1143</v>
+        <v>961</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N561" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O561" t="n">
         <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>5000</v>
+        <v>4844</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="N562" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N563" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1786</v>
+        <v>1143</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N564" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O564" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P564" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N565" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O565" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P565" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1250</v>
+        <v>2071</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N566" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P566" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1071</v>
+        <v>1786</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N567" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O567" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P567" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N568" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O568" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P568" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N569" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O569" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P569" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O570" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P570" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P571" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1143</v>
+        <v>500</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="N572" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P572" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N573" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N574" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N575" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P575" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>3571</v>
+        <v>1286</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="N576" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O576" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="P576" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>3286</v>
+        <v>1071</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O577" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P577" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N578" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O578" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P578" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1357</v>
+        <v>3571</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,68 +46647,308 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E579" t="n">
+        <v>13</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G579" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M579" t="n">
+        <v>75</v>
+      </c>
+      <c r="N579" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O579" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P579" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q579" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Provincia de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="S579" t="n">
+        <v>3286</v>
+      </c>
+      <c r="T579" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>6</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E579" t="n">
-        <v>13</v>
-      </c>
-      <c r="F579" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G579" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I579" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J579" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L579" t="inlineStr">
+      <c r="E580" t="n">
+        <v>13</v>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G580" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M580" t="n">
+        <v>130</v>
+      </c>
+      <c r="N580" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O580" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P580" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q580" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S580" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T580" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>6</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E581" t="n">
+        <v>13</v>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G581" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M581" t="n">
+        <v>240</v>
+      </c>
+      <c r="N581" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O581" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P581" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q581" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S581" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T581" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>6</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E582" t="n">
+        <v>13</v>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G582" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M579" t="n">
+      <c r="M582" t="n">
         <v>170</v>
       </c>
-      <c r="N579" t="n">
+      <c r="N582" t="n">
         <v>6000</v>
       </c>
-      <c r="O579" t="n">
+      <c r="O582" t="n">
         <v>7000</v>
       </c>
-      <c r="P579" t="n">
+      <c r="P582" t="n">
         <v>6500</v>
       </c>
-      <c r="Q579" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R579" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S579" t="n">
+      <c r="Q582" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S582" t="n">
         <v>929</v>
       </c>
-      <c r="T579" t="n">
+      <c r="T582" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T585"/>
+  <dimension ref="A1:T587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N392" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O392" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P392" t="n">
-        <v>21500</v>
+        <v>17000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>3071</v>
+        <v>2429</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N393" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2357</v>
+        <v>1714</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N394" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P394" t="n">
-        <v>12000</v>
+        <v>21500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1714</v>
+        <v>3071</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N395" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O395" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P395" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>2357</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="N396" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>9750</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1393</v>
+        <v>1714</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N397" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,20 +32204,20 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O398" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>12308</v>
+        <v>9750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1758</v>
+        <v>1393</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>620</v>
+        <v>1300</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>7403</v>
+        <v>12308</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1058</v>
+        <v>1758</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N401" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2357</v>
+        <v>1429</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="N402" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>6000</v>
+        <v>7403</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>857</v>
+        <v>1058</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>9417</v>
+        <v>16500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1345</v>
+        <v>2357</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E404" t="n">
         <v>13</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P404" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N405" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O405" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>3500</v>
+        <v>9417</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>1345</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N406" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -32920,33 +32920,33 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
+        <v>100</v>
+      </c>
+      <c r="N407" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O407" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P407" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
         <v>500</v>
-      </c>
-      <c r="N407" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O407" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P407" t="n">
-        <v>9500</v>
-      </c>
-      <c r="Q407" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R407" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S407" t="n">
-        <v>1357</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P408" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1071</v>
+        <v>571</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N409" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>679</v>
+        <v>1357</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N410" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>536</v>
+        <v>1071</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N411" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P411" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1929</v>
+        <v>679</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N412" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P412" t="n">
-        <v>11500</v>
+        <v>3750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1643</v>
+        <v>536</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N413" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P413" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>786</v>
+        <v>1929</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>1400</v>
+        <v>640</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O414" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>8554</v>
+        <v>11500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1222</v>
+        <v>1643</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>1450</v>
+        <v>360</v>
       </c>
       <c r="N415" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P415" t="n">
-        <v>7017</v>
+        <v>5500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1002</v>
+        <v>786</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="N416" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O416" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P416" t="n">
-        <v>4719</v>
+        <v>8554</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>674</v>
+        <v>1222</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="N417" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P417" t="n">
-        <v>9500</v>
+        <v>7017</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1357</v>
+        <v>1002</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O418" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P418" t="n">
-        <v>7500</v>
+        <v>4719</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1071</v>
+        <v>674</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N419" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="N420" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O420" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P420" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>3500</v>
+        <v>1071</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
         <v>300</v>
       </c>
       <c r="N421" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O421" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P421" t="n">
-        <v>21000</v>
+        <v>4500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>3000</v>
+        <v>643</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O422" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P422" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2071</v>
+        <v>3500</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N423" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P423" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1357</v>
+        <v>3000</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P424" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1286</v>
+        <v>2071</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="N425" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O425" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N426" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P426" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N427" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P427" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N428" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P428" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1071</v>
+        <v>643</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N429" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="O429" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P429" t="n">
-        <v>4500</v>
+        <v>8750</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>643</v>
+        <v>1250</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N430" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P430" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1357</v>
+        <v>1071</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P431" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1071</v>
+        <v>643</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34920,20 +34920,20 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N432" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N433" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P433" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>536</v>
+        <v>1071</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
         <v>200</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1143</v>
+        <v>536</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>679</v>
+        <v>1429</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>8038</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N438" t="n">
         <v>4500</v>
@@ -35413,7 +35413,7 @@
         <v>5000</v>
       </c>
       <c r="P438" t="n">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N439" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O439" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P439" t="n">
-        <v>20500</v>
+        <v>8038</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>2929</v>
+        <v>1148</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N440" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O440" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P440" t="n">
-        <v>17000</v>
+        <v>4850</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2429</v>
+        <v>693</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P441" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1571</v>
+        <v>2929</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P442" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1071</v>
+        <v>2429</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N443" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>2857</v>
+        <v>1571</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1571</v>
+        <v>1071</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N445" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O445" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P445" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N446" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P446" t="n">
-        <v>9625</v>
+        <v>11000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1375</v>
+        <v>1571</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N448" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O448" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>5500</v>
+        <v>9625</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>786</v>
+        <v>1375</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N449" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O449" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>4250</v>
+        <v>7500</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>607</v>
+        <v>1071</v>
       </c>
       <c r="T449" t="n">
         <v>7</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N450" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P450" t="n">
-        <v>8750</v>
+        <v>5500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1250</v>
+        <v>786</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N451" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P451" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1071</v>
+        <v>607</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N452" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="O452" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P452" t="n">
-        <v>4500</v>
+        <v>8750</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>643</v>
+        <v>1250</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="N453" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="N454" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O454" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P454" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="N455" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P455" t="n">
-        <v>7467</v>
+        <v>3250</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1067</v>
+        <v>464</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="N456" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="N457" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
         <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>8000</v>
+        <v>7467</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1143</v>
+        <v>1067</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O458" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P458" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>857</v>
+        <v>643</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N459" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P460" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N462" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O462" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P462" t="n">
-        <v>4333</v>
+        <v>8000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>619</v>
+        <v>1143</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N463" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O463" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P463" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="N464" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O464" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P464" t="n">
-        <v>6000</v>
+        <v>4333</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>857</v>
+        <v>619</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
         <v>350</v>
       </c>
       <c r="N465" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P465" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>500</v>
+        <v>235</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1286</v>
+        <v>857</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N467" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O467" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P467" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>3060</v>
+        <v>500</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P468" t="n">
-        <v>7676</v>
+        <v>9000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1097</v>
+        <v>1286</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1550</v>
+        <v>450</v>
       </c>
       <c r="N469" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O469" t="n">
         <v>7000</v>
       </c>
       <c r="P469" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>929</v>
+        <v>1000</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>800</v>
+        <v>3060</v>
       </c>
       <c r="N470" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>4812</v>
+        <v>7676</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>687</v>
+        <v>1097</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="N471" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>2071</v>
+        <v>929</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N472" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P472" t="n">
-        <v>11500</v>
+        <v>4812</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1643</v>
+        <v>687</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1071</v>
+        <v>2071</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N474" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O474" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>857</v>
+        <v>1643</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N475" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>3500</v>
+        <v>1071</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N476" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O476" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P476" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2857</v>
+        <v>857</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N477" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O477" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P477" t="n">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>1300</v>
+        <v>80</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P478" t="n">
-        <v>9692</v>
+        <v>20000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1385</v>
+        <v>2857</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N479" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O479" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P479" t="n">
-        <v>3750</v>
+        <v>15000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>536</v>
+        <v>2143</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="N480" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>18000</v>
+        <v>9692</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>2571</v>
+        <v>1385</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N481" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O481" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P481" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>2143</v>
+        <v>536</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N482" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O482" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P482" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1000</v>
+        <v>2571</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P483" t="n">
-        <v>10391</v>
+        <v>15000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1484</v>
+        <v>2143</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N484" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O484" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P484" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>360</v>
+        <v>1150</v>
       </c>
       <c r="N485" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>4500</v>
+        <v>10391</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>643</v>
+        <v>1484</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
         <v>500</v>
       </c>
       <c r="N486" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O486" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P486" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1107</v>
+        <v>1214</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="N487" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>964</v>
+        <v>643</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N488" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O488" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>643</v>
+        <v>1107</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N489" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="O489" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>20500</v>
+        <v>6750</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>2929</v>
+        <v>964</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N490" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O490" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P490" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>2214</v>
+        <v>643</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N491" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O491" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P491" t="n">
-        <v>6500</v>
+        <v>20500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>929</v>
+        <v>2929</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N492" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O492" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P492" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>714</v>
+        <v>2214</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N493" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O493" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>2000</v>
+        <v>929</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N494" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O494" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P494" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O495" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P495" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1286</v>
+        <v>2000</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N497" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N498" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O498" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P498" t="n">
-        <v>4250</v>
+        <v>8000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>607</v>
+        <v>1143</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1429</v>
+        <v>929</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N500" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O500" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P500" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1214</v>
+        <v>607</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N501" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O501" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P501" t="n">
-        <v>4250</v>
+        <v>10000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>607</v>
+        <v>1429</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
         <v>500</v>
       </c>
       <c r="N502" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1107</v>
+        <v>1214</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O503" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P503" t="n">
-        <v>6600</v>
+        <v>4250</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>943</v>
+        <v>607</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N504" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>4429</v>
+        <v>7750</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>633</v>
+        <v>1107</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="N505" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P505" t="n">
-        <v>3750</v>
+        <v>6600</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>536</v>
+        <v>943</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N506" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="O506" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P506" t="n">
-        <v>25000</v>
+        <v>4429</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>3571</v>
+        <v>633</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N507" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O507" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P507" t="n">
-        <v>20000</v>
+        <v>3750</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>2857</v>
+        <v>536</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O508" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P508" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2143</v>
+        <v>3571</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N509" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O509" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P509" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>2500</v>
+        <v>2857</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O510" t="n">
         <v>15000</v>
       </c>
       <c r="P510" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>2071</v>
+        <v>2143</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N511" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P511" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>929</v>
+        <v>2500</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N512" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O512" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P512" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>714</v>
+        <v>2071</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>930</v>
+        <v>240</v>
       </c>
       <c r="N513" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O513" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>8796</v>
+        <v>6500</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1257</v>
+        <v>929</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="N514" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O514" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P514" t="n">
-        <v>7421</v>
+        <v>5000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1060</v>
+        <v>714</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>480</v>
+        <v>930</v>
       </c>
       <c r="N515" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="O515" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P515" t="n">
-        <v>4156</v>
+        <v>8796</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>594</v>
+        <v>1257</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>7421</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1286</v>
+        <v>1060</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N517" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P517" t="n">
-        <v>8000</v>
+        <v>4156</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1143</v>
+        <v>594</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N518" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O518" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P518" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N519" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O519" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N520" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P520" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1571</v>
+        <v>786</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N521" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O521" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P521" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1286</v>
+        <v>1857</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>2250</v>
+        <v>200</v>
       </c>
       <c r="N522" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O522" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P522" t="n">
-        <v>7911</v>
+        <v>11000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1130</v>
+        <v>1571</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>950</v>
+        <v>180</v>
       </c>
       <c r="N523" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P523" t="n">
-        <v>6816</v>
+        <v>9000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>974</v>
+        <v>1286</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="N524" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O524" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P524" t="n">
-        <v>4472</v>
+        <v>7911</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>639</v>
+        <v>1130</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N525" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P525" t="n">
-        <v>11500</v>
+        <v>6816</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1643</v>
+        <v>974</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P526" t="n">
-        <v>9500</v>
+        <v>4472</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1357</v>
+        <v>639</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N527" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O527" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P527" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>786</v>
+        <v>1643</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="N528" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1857</v>
+        <v>1357</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N529" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O529" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P529" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1571</v>
+        <v>786</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N530" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P530" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1143</v>
+        <v>1857</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N531" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P531" t="n">
-        <v>7875</v>
+        <v>11000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1125</v>
+        <v>1571</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N532" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P532" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>929</v>
+        <v>1143</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="N533" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O533" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="P533" t="n">
-        <v>3750</v>
+        <v>7875</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>536</v>
+        <v>1125</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P534" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1643</v>
+        <v>929</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1357</v>
+        <v>536</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N536" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>4750</v>
+        <v>11500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>679</v>
+        <v>1643</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>7515</v>
+        <v>9500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1074</v>
+        <v>1357</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O538" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P538" t="n">
-        <v>6173</v>
+        <v>4750</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>882</v>
+        <v>679</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="N539" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O539" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>4577</v>
+        <v>7515</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>654</v>
+        <v>1074</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="N540" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O540" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P540" t="n">
-        <v>12000</v>
+        <v>6173</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1714</v>
+        <v>882</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>190</v>
+        <v>1300</v>
       </c>
       <c r="N541" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P541" t="n">
-        <v>9500</v>
+        <v>4577</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1357</v>
+        <v>654</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>9444</v>
+        <v>12000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1349</v>
+        <v>1714</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>1100</v>
+        <v>190</v>
       </c>
       <c r="N543" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>7545</v>
+        <v>9500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1078</v>
+        <v>1357</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N544" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>4714</v>
+        <v>9444</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>673</v>
+        <v>1349</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P545" t="n">
-        <v>9395</v>
+        <v>7545</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1342</v>
+        <v>1078</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N546" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P546" t="n">
-        <v>7750</v>
+        <v>4714</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1107</v>
+        <v>673</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="N547" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O547" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>5000</v>
+        <v>9395</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>714</v>
+        <v>1342</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N548" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O548" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>20000</v>
+        <v>7750</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>2857</v>
+        <v>1107</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N549" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O549" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P549" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>2143</v>
+        <v>714</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N551" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O551" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P551" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N552" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O552" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P552" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>9250</v>
+        <v>14000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1321</v>
+        <v>2000</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N554" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P554" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1107</v>
+        <v>1429</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
         <v>200</v>
       </c>
       <c r="N555" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>4500</v>
+        <v>9250</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>643</v>
+        <v>1321</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N556" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O556" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P556" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1286</v>
+        <v>1107</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P557" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1357</v>
+        <v>643</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="N559" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P559" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N560" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O560" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P560" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="N561" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O561" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P561" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>2600</v>
+        <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O562" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P562" t="n">
-        <v>8173</v>
+        <v>5500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1168</v>
+        <v>786</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="N563" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O563" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P563" t="n">
-        <v>6729</v>
+        <v>5000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>961</v>
+        <v>714</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="N564" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O564" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P564" t="n">
-        <v>4844</v>
+        <v>8173</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>692</v>
+        <v>1168</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>275</v>
+        <v>1200</v>
       </c>
       <c r="N565" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P565" t="n">
-        <v>10000</v>
+        <v>6729</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1429</v>
+        <v>961</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N566" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P566" t="n">
-        <v>8000</v>
+        <v>4844</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1143</v>
+        <v>692</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="N567" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="N568" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>2071</v>
+        <v>1143</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>800</v>
+        <v>370</v>
       </c>
       <c r="N569" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O569" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1786</v>
+        <v>714</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N570" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O570" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P570" t="n">
-        <v>6667</v>
+        <v>14500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>952</v>
+        <v>2071</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N571" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O571" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P571" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1250</v>
+        <v>1786</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N572" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O572" t="n">
         <v>7000</v>
       </c>
-      <c r="O572" t="n">
-        <v>8000</v>
-      </c>
       <c r="P572" t="n">
-        <v>7500</v>
+        <v>6667</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1071</v>
+        <v>952</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N573" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="O573" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P573" t="n">
-        <v>4500</v>
+        <v>8750</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>643</v>
+        <v>1250</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N574" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O574" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>500</v>
+        <v>1071</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O575" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P575" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M576" t="n">
         <v>200</v>
       </c>
       <c r="N576" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P576" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1429</v>
+        <v>500</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="N578" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O578" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P578" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N579" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O579" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P579" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="N580" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P580" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>714</v>
+        <v>1286</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="N581" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="O581" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="P581" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="N582" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="O582" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P582" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>3286</v>
+        <v>714</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N583" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O583" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P583" t="n">
-        <v>10500</v>
+        <v>25000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1500</v>
+        <v>3571</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="N584" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="O584" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P584" t="n">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1357</v>
+        <v>3286</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47160,35 +47160,195 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M585" t="n">
+        <v>130</v>
+      </c>
+      <c r="N585" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O585" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P585" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S585" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T585" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>6</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E586" t="n">
+        <v>13</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M586" t="n">
+        <v>240</v>
+      </c>
+      <c r="N586" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O586" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P586" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S586" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T586" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>6</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M585" t="n">
+      <c r="M587" t="n">
         <v>170</v>
       </c>
-      <c r="N585" t="n">
+      <c r="N587" t="n">
         <v>6000</v>
       </c>
-      <c r="O585" t="n">
+      <c r="O587" t="n">
         <v>7000</v>
       </c>
-      <c r="P585" t="n">
+      <c r="P587" t="n">
         <v>6500</v>
       </c>
-      <c r="Q585" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R585" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S585" t="n">
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S587" t="n">
         <v>929</v>
       </c>
-      <c r="T585" t="n">
+      <c r="T587" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T587"/>
+  <dimension ref="A1:T590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N542" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O542" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P542" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N543" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P543" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N544" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O544" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P544" t="n">
-        <v>9444</v>
+        <v>14000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1349</v>
+        <v>2000</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N545" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P545" t="n">
-        <v>7545</v>
+        <v>12000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1078</v>
+        <v>1714</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N546" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>4714</v>
+        <v>9500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>673</v>
+        <v>1357</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,7 +44124,7 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="N547" t="n">
         <v>9000</v>
@@ -44133,7 +44133,7 @@
         <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>9395</v>
+        <v>9444</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N548" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
         <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>7750</v>
+        <v>7545</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N549" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O549" t="n">
         <v>5000</v>
       </c>
       <c r="P549" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="N550" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>20000</v>
+        <v>9395</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>2857</v>
+        <v>1342</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N551" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O551" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>2143</v>
+        <v>1107</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N552" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O552" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P552" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N553" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O553" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P553" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O555" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P555" t="n">
-        <v>9250</v>
+        <v>20000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1321</v>
+        <v>2857</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N556" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P556" t="n">
-        <v>7750</v>
+        <v>14000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1107</v>
+        <v>2000</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N557" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O557" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P557" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45010,10 +45010,10 @@
         <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1357</v>
+        <v>1107</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N560" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O560" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P560" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N561" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P561" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
         <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O562" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N563" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O563" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P563" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N564" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O564" t="n">
         <v>8000</v>
       </c>
-      <c r="O564" t="n">
-        <v>8500</v>
-      </c>
       <c r="P564" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N565" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O565" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P565" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N566" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O566" t="n">
         <v>5000</v>
       </c>
       <c r="P566" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>275</v>
+        <v>2600</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>8173</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1429</v>
+        <v>1168</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N568" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P568" t="n">
-        <v>8000</v>
+        <v>6729</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1143</v>
+        <v>961</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N569" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O569" t="n">
         <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>5000</v>
+        <v>4844</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="N570" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1786</v>
+        <v>1143</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N572" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P572" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N573" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P573" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1250</v>
+        <v>2071</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N574" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P574" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1071</v>
+        <v>1786</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N575" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O575" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P575" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N576" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O576" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P576" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N577" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O577" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P577" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N578" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O578" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P578" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O579" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P579" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1143</v>
+        <v>500</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="N580" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N581" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N582" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O582" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N583" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O583" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>3571</v>
+        <v>1286</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="N584" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O584" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="P584" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>3286</v>
+        <v>1071</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O585" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P585" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P586" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1357</v>
+        <v>3571</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,68 +47287,308 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M587" t="n">
+        <v>75</v>
+      </c>
+      <c r="N587" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O587" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P587" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Provincia de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="S587" t="n">
+        <v>3286</v>
+      </c>
+      <c r="T587" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>6</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E587" t="n">
-        <v>13</v>
-      </c>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G587" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I587" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J587" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L587" t="inlineStr">
+      <c r="E588" t="n">
+        <v>13</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G588" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M588" t="n">
+        <v>130</v>
+      </c>
+      <c r="N588" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O588" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P588" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S588" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T588" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>6</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E589" t="n">
+        <v>13</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M589" t="n">
+        <v>240</v>
+      </c>
+      <c r="N589" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O589" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P589" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S589" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T589" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>6</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E590" t="n">
+        <v>13</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G590" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M587" t="n">
+      <c r="M590" t="n">
         <v>170</v>
       </c>
-      <c r="N587" t="n">
+      <c r="N590" t="n">
         <v>6000</v>
       </c>
-      <c r="O587" t="n">
+      <c r="O590" t="n">
         <v>7000</v>
       </c>
-      <c r="P587" t="n">
+      <c r="P590" t="n">
         <v>6500</v>
       </c>
-      <c r="Q587" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R587" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S587" t="n">
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S590" t="n">
         <v>929</v>
       </c>
-      <c r="T587" t="n">
+      <c r="T590" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T590"/>
+  <dimension ref="A1:T593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O456" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P456" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>1500</v>
+        <v>275</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O457" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P457" t="n">
-        <v>7467</v>
+        <v>15000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1067</v>
+        <v>2143</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N458" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P458" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>643</v>
+        <v>1714</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P459" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>260</v>
+        <v>1500</v>
       </c>
       <c r="N460" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>6000</v>
+        <v>7467</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>857</v>
+        <v>1067</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N461" t="n">
         <v>4000</v>
       </c>
       <c r="O461" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P461" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,7 +37320,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N464" t="n">
         <v>4000</v>
       </c>
       <c r="O464" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P464" t="n">
-        <v>4333</v>
+        <v>4000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N465" t="n">
         <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="N466" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O466" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N467" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O467" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P467" t="n">
-        <v>11000</v>
+        <v>4333</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1571</v>
+        <v>619</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O468" t="n">
         <v>9000</v>
       </c>
       <c r="P468" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="N469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>3060</v>
+        <v>350</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O470" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P470" t="n">
-        <v>7676</v>
+        <v>11000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1097</v>
+        <v>1571</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="N471" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N472" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O472" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P472" t="n">
-        <v>4812</v>
+        <v>7000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>687</v>
+        <v>1000</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>800</v>
+        <v>3060</v>
       </c>
       <c r="N473" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O473" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P473" t="n">
-        <v>14500</v>
+        <v>7676</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2071</v>
+        <v>1097</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>700</v>
+        <v>1550</v>
       </c>
       <c r="N474" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1643</v>
+        <v>929</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P475" t="n">
-        <v>7500</v>
+        <v>4812</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1071</v>
+        <v>687</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N476" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O476" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P476" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N477" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O477" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>3500</v>
+        <v>1643</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N478" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>2857</v>
+        <v>1071</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N479" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P479" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2143</v>
+        <v>857</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="N480" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O480" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P480" t="n">
-        <v>9692</v>
+        <v>24500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1385</v>
+        <v>3500</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="N481" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="O481" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P481" t="n">
-        <v>3750</v>
+        <v>20000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>536</v>
+        <v>2857</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N482" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O482" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P482" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>2571</v>
+        <v>2143</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N483" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>15000</v>
+        <v>9692</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2143</v>
+        <v>1385</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N484" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O484" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P484" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1000</v>
+        <v>536</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>1150</v>
+        <v>250</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O485" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P485" t="n">
-        <v>10391</v>
+        <v>18000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1484</v>
+        <v>2571</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N486" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P486" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1214</v>
+        <v>2143</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N487" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O487" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P487" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="N488" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P488" t="n">
-        <v>7750</v>
+        <v>10391</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1107</v>
+        <v>1484</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N489" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O489" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>964</v>
+        <v>1214</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N490" t="n">
         <v>4000</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N491" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O491" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P491" t="n">
-        <v>20500</v>
+        <v>7750</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>2929</v>
+        <v>1107</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N492" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O492" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P492" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>2214</v>
+        <v>964</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39807,13 +39807,13 @@
         <v>300</v>
       </c>
       <c r="N493" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O493" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>929</v>
+        <v>643</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N494" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O494" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P494" t="n">
-        <v>5000</v>
+        <v>20500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>714</v>
+        <v>2929</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N495" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O495" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P495" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>2000</v>
+        <v>2214</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N497" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O497" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P497" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O498" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P498" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N499" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O499" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>929</v>
+        <v>1714</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N500" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>4250</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>607</v>
+        <v>1286</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N501" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N502" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P502" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1214</v>
+        <v>929</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N504" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1107</v>
+        <v>1429</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>6600</v>
+        <v>8500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>943</v>
+        <v>1214</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N506" t="n">
         <v>4000</v>
       </c>
       <c r="O506" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P506" t="n">
-        <v>4429</v>
+        <v>4250</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N507" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O507" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N508" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O508" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>25000</v>
+        <v>6600</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>3571</v>
+        <v>943</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N509" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O509" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P509" t="n">
-        <v>20000</v>
+        <v>4429</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>2857</v>
+        <v>633</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N510" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O510" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P510" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>2143</v>
+        <v>536</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O511" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P511" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>2500</v>
+        <v>3571</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N512" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O512" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P512" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2071</v>
+        <v>2857</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N513" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O513" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P513" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>929</v>
+        <v>2143</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N514" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O514" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P514" t="n">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>714</v>
+        <v>2500</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>930</v>
+        <v>360</v>
       </c>
       <c r="N515" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P515" t="n">
-        <v>8796</v>
+        <v>14500</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1257</v>
+        <v>2071</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="N516" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O516" t="n">
         <v>7000</v>
       </c>
-      <c r="O516" t="n">
-        <v>8000</v>
-      </c>
       <c r="P516" t="n">
-        <v>7421</v>
+        <v>6500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1060</v>
+        <v>929</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N517" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O517" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P517" t="n">
-        <v>4156</v>
+        <v>5000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>594</v>
+        <v>714</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>250</v>
+        <v>930</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O518" t="n">
         <v>9000</v>
       </c>
       <c r="P518" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O519" t="n">
         <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>8000</v>
+        <v>7421</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N520" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O520" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P520" t="n">
-        <v>5500</v>
+        <v>4156</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>786</v>
+        <v>594</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N523" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O523" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P523" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1286</v>
+        <v>786</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="N524" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O524" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P524" t="n">
-        <v>7911</v>
+        <v>13000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1130</v>
+        <v>1857</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N525" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O525" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P525" t="n">
-        <v>6816</v>
+        <v>11000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>974</v>
+        <v>1571</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N526" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P526" t="n">
-        <v>4472</v>
+        <v>9000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>639</v>
+        <v>1286</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="N527" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O527" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P527" t="n">
-        <v>11500</v>
+        <v>7911</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1643</v>
+        <v>1130</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N528" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P528" t="n">
-        <v>9500</v>
+        <v>6816</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1357</v>
+        <v>974</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N529" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O529" t="n">
         <v>5000</v>
       </c>
-      <c r="O529" t="n">
-        <v>6000</v>
-      </c>
       <c r="P529" t="n">
-        <v>5500</v>
+        <v>4472</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>786</v>
+        <v>639</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N530" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O530" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1857</v>
+        <v>1643</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="N531" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N532" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P532" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="N533" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O533" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P533" t="n">
-        <v>7875</v>
+        <v>13000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1125</v>
+        <v>1857</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N534" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O534" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P534" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>929</v>
+        <v>1571</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N535" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N536" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P536" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P537" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N538" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O538" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P538" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="N539" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>7515</v>
+        <v>11500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1074</v>
+        <v>1643</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N540" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N541" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O541" t="n">
         <v>5000</v>
       </c>
       <c r="P541" t="n">
-        <v>4577</v>
+        <v>4750</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>80</v>
+        <v>3400</v>
       </c>
       <c r="N542" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>20000</v>
+        <v>7515</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>2857</v>
+        <v>1074</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>150</v>
+        <v>1300</v>
       </c>
       <c r="N543" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O543" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P543" t="n">
-        <v>17000</v>
+        <v>6173</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>2429</v>
+        <v>882</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N544" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O544" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P544" t="n">
-        <v>14000</v>
+        <v>4577</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>2000</v>
+        <v>654</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N546" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P546" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>9444</v>
+        <v>14000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1349</v>
+        <v>2000</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O548" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P548" t="n">
-        <v>7545</v>
+        <v>12000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1078</v>
+        <v>1714</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N549" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>4714</v>
+        <v>9500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>673</v>
+        <v>1357</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,7 +44364,7 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="N550" t="n">
         <v>9000</v>
@@ -44373,7 +44373,7 @@
         <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>9395</v>
+        <v>9444</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N551" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
         <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>7750</v>
+        <v>7545</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N552" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O552" t="n">
         <v>5000</v>
       </c>
       <c r="P552" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="N553" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>20000</v>
+        <v>9395</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>2857</v>
+        <v>1342</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N554" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O554" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>2143</v>
+        <v>1107</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N555" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O555" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P555" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N556" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O556" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P556" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N557" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P557" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O558" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P558" t="n">
-        <v>9250</v>
+        <v>20000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1321</v>
+        <v>2857</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N559" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P559" t="n">
-        <v>7750</v>
+        <v>14000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1107</v>
+        <v>2000</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N560" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O560" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P560" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45250,10 +45250,10 @@
         <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N562" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O562" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1357</v>
+        <v>1107</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N563" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O563" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P563" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N564" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P564" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
         <v>300</v>
       </c>
       <c r="N565" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O565" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N566" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N567" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O567" t="n">
         <v>8000</v>
       </c>
-      <c r="O567" t="n">
-        <v>8500</v>
-      </c>
       <c r="P567" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N568" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O568" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P568" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N569" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O569" t="n">
         <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>275</v>
+        <v>2600</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O570" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P570" t="n">
-        <v>10000</v>
+        <v>8173</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1429</v>
+        <v>1168</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P571" t="n">
-        <v>8000</v>
+        <v>6729</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1143</v>
+        <v>961</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N572" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O572" t="n">
         <v>5000</v>
       </c>
       <c r="P572" t="n">
-        <v>5000</v>
+        <v>4844</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="N573" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N574" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1786</v>
+        <v>1143</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N575" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O575" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P575" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N576" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O576" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P576" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1250</v>
+        <v>2071</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N577" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P577" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1071</v>
+        <v>1786</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N578" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O578" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P578" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N579" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O579" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P579" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N582" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P582" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1143</v>
+        <v>500</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="N583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N584" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O584" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N585" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N586" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O586" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P586" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>3571</v>
+        <v>1286</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="N587" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O587" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="P587" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>3286</v>
+        <v>1071</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N588" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O588" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P588" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P589" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1357</v>
+        <v>3571</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,68 +47527,308 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E590" t="n">
+        <v>13</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G590" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M590" t="n">
+        <v>75</v>
+      </c>
+      <c r="N590" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O590" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P590" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>Provincia de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="S590" t="n">
+        <v>3286</v>
+      </c>
+      <c r="T590" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>6</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D591" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E590" t="n">
-        <v>13</v>
-      </c>
-      <c r="F590" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G590" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I590" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J590" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L590" t="inlineStr">
+      <c r="E591" t="n">
+        <v>13</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G591" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M591" t="n">
+        <v>130</v>
+      </c>
+      <c r="N591" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O591" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P591" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S591" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T591" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>6</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E592" t="n">
+        <v>13</v>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G592" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M592" t="n">
+        <v>240</v>
+      </c>
+      <c r="N592" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O592" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P592" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S592" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T592" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>6</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E593" t="n">
+        <v>13</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G593" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M590" t="n">
+      <c r="M593" t="n">
         <v>170</v>
       </c>
-      <c r="N590" t="n">
+      <c r="N593" t="n">
         <v>6000</v>
       </c>
-      <c r="O590" t="n">
+      <c r="O593" t="n">
         <v>7000</v>
       </c>
-      <c r="P590" t="n">
+      <c r="P593" t="n">
         <v>6500</v>
       </c>
-      <c r="Q590" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R590" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S590" t="n">
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
         <v>929</v>
       </c>
-      <c r="T590" t="n">
+      <c r="T593" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T596"/>
+  <dimension ref="A1:T599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="N441" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="O441" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P441" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>679</v>
+        <v>1214</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>8038</v>
+        <v>10000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1148</v>
+        <v>1429</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N443" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>4850</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>693</v>
+        <v>1143</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35880,20 +35880,20 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
         <v>300</v>
       </c>
       <c r="N444" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O444" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="P444" t="n">
-        <v>20500</v>
+        <v>4750</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>2929</v>
+        <v>679</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>360</v>
+        <v>1300</v>
       </c>
       <c r="N445" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P445" t="n">
-        <v>17000</v>
+        <v>8038</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>2429</v>
+        <v>1148</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P446" t="n">
-        <v>11000</v>
+        <v>4850</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1571</v>
+        <v>693</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P447" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1071</v>
+        <v>2929</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N448" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O448" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P448" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>2857</v>
+        <v>2429</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,13 +36284,13 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N449" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
         <v>11000</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N450" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P450" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P451" t="n">
-        <v>9625</v>
+        <v>20000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1375</v>
+        <v>2857</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N452" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P452" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1071</v>
+        <v>1571</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O453" t="n">
         <v>6000</v>
       </c>
       <c r="P453" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N454" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O454" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P454" t="n">
-        <v>4250</v>
+        <v>9625</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>607</v>
+        <v>1375</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N455" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P456" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N457" t="n">
         <v>4000</v>
       </c>
       <c r="O457" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P457" t="n">
-        <v>4500</v>
+        <v>4250</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N458" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="O458" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>3250</v>
+        <v>8750</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N459" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O459" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2429</v>
+        <v>1071</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="N460" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O460" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P460" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>2143</v>
+        <v>643</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N461" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O461" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P461" t="n">
-        <v>12000</v>
+        <v>3250</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1714</v>
+        <v>464</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="N462" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P462" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1500</v>
+        <v>275</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P463" t="n">
-        <v>7467</v>
+        <v>15000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1067</v>
+        <v>2143</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N464" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O464" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P464" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>643</v>
+        <v>1714</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="N465" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O465" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>260</v>
+        <v>1500</v>
       </c>
       <c r="N466" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O466" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P466" t="n">
-        <v>6000</v>
+        <v>7467</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>857</v>
+        <v>1067</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N467" t="n">
         <v>4000</v>
       </c>
       <c r="O467" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P467" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,7 +37800,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N470" t="n">
         <v>4000</v>
       </c>
       <c r="O470" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P470" t="n">
-        <v>4333</v>
+        <v>4000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>619</v>
+        <v>571</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N471" t="n">
         <v>8000</v>
       </c>
       <c r="O471" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P471" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="N472" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O472" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P472" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N473" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O473" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P473" t="n">
-        <v>11000</v>
+        <v>4333</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1571</v>
+        <v>619</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O474" t="n">
         <v>9000</v>
       </c>
       <c r="P474" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>3060</v>
+        <v>350</v>
       </c>
       <c r="N476" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P476" t="n">
-        <v>7676</v>
+        <v>11000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1097</v>
+        <v>1571</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="N477" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P477" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N478" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>4812</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>687</v>
+        <v>1000</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>800</v>
+        <v>3060</v>
       </c>
       <c r="N479" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O479" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>14500</v>
+        <v>7676</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2071</v>
+        <v>1097</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>700</v>
+        <v>1550</v>
       </c>
       <c r="N480" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1643</v>
+        <v>929</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O481" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P481" t="n">
-        <v>7500</v>
+        <v>4812</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1071</v>
+        <v>687</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N482" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O482" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P482" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N483" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>3500</v>
+        <v>1643</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N484" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O484" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P484" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>2857</v>
+        <v>1071</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N485" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O485" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P485" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>2143</v>
+        <v>857</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P486" t="n">
-        <v>9692</v>
+        <v>24500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1385</v>
+        <v>3500</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="N487" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="O487" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P487" t="n">
-        <v>3750</v>
+        <v>20000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>536</v>
+        <v>2857</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N488" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O488" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P488" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>2571</v>
+        <v>2143</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N489" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>15000</v>
+        <v>9692</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>2143</v>
+        <v>1385</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N490" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O490" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P490" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1000</v>
+        <v>536</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>1150</v>
+        <v>250</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O491" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P491" t="n">
-        <v>10391</v>
+        <v>18000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1484</v>
+        <v>2571</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N492" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O492" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P492" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1214</v>
+        <v>2143</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N493" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="N494" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P494" t="n">
-        <v>7750</v>
+        <v>10391</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1107</v>
+        <v>1484</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N495" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P495" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>964</v>
+        <v>1214</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N496" t="n">
         <v>4000</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N497" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O497" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>20500</v>
+        <v>7750</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>2929</v>
+        <v>1107</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N498" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O498" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>2214</v>
+        <v>964</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40287,13 +40287,13 @@
         <v>300</v>
       </c>
       <c r="N499" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O499" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>929</v>
+        <v>643</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O500" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P500" t="n">
-        <v>5000</v>
+        <v>20500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>714</v>
+        <v>2929</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N501" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P501" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>2000</v>
+        <v>2214</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N502" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O502" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P502" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P503" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1143</v>
+        <v>2000</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>929</v>
+        <v>1714</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N506" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O506" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P506" t="n">
-        <v>4250</v>
+        <v>9000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>607</v>
+        <v>1286</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N508" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1214</v>
+        <v>929</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N510" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1107</v>
+        <v>1429</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N511" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>6600</v>
+        <v>8500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>943</v>
+        <v>1214</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N512" t="n">
         <v>4000</v>
       </c>
       <c r="O512" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P512" t="n">
-        <v>4429</v>
+        <v>4250</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N513" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O513" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N514" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O514" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P514" t="n">
-        <v>25000</v>
+        <v>6600</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>3571</v>
+        <v>943</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N515" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O515" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P515" t="n">
-        <v>20000</v>
+        <v>4429</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>2857</v>
+        <v>633</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N516" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O516" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P516" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2143</v>
+        <v>536</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O517" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P517" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2500</v>
+        <v>3571</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N518" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O518" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P518" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2071</v>
+        <v>2857</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N519" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O519" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P519" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>929</v>
+        <v>2143</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N520" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O520" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P520" t="n">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>714</v>
+        <v>2500</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>930</v>
+        <v>360</v>
       </c>
       <c r="N521" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P521" t="n">
-        <v>8796</v>
+        <v>14500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1257</v>
+        <v>2071</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="N522" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O522" t="n">
         <v>7000</v>
       </c>
-      <c r="O522" t="n">
-        <v>8000</v>
-      </c>
       <c r="P522" t="n">
-        <v>7421</v>
+        <v>6500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1060</v>
+        <v>929</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N523" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O523" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P523" t="n">
-        <v>4156</v>
+        <v>5000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>594</v>
+        <v>714</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>250</v>
+        <v>930</v>
       </c>
       <c r="N524" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O524" t="n">
         <v>9000</v>
       </c>
       <c r="P524" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O525" t="n">
         <v>8000</v>
       </c>
       <c r="P525" t="n">
-        <v>8000</v>
+        <v>7421</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N526" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O526" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P526" t="n">
-        <v>5500</v>
+        <v>4156</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>786</v>
+        <v>594</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N527" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O527" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P527" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N528" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N529" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O529" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P529" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1286</v>
+        <v>786</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="N530" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P530" t="n">
-        <v>7911</v>
+        <v>13000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1130</v>
+        <v>1857</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N531" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P531" t="n">
-        <v>6816</v>
+        <v>11000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>974</v>
+        <v>1571</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N532" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P532" t="n">
-        <v>4472</v>
+        <v>9000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>639</v>
+        <v>1286</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P533" t="n">
-        <v>11500</v>
+        <v>7911</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1643</v>
+        <v>1130</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O534" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P534" t="n">
-        <v>9500</v>
+        <v>6816</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1357</v>
+        <v>974</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N535" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O535" t="n">
         <v>5000</v>
       </c>
-      <c r="O535" t="n">
-        <v>6000</v>
-      </c>
       <c r="P535" t="n">
-        <v>5500</v>
+        <v>4472</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>786</v>
+        <v>639</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N536" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1857</v>
+        <v>1643</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="N537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="N539" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O539" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>7875</v>
+        <v>13000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1125</v>
+        <v>1857</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N540" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>929</v>
+        <v>1571</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N541" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P541" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N542" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O542" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P542" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N543" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P543" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N544" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O544" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P544" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="N545" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O545" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P545" t="n">
-        <v>7515</v>
+        <v>11500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1074</v>
+        <v>1643</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N546" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O547" t="n">
         <v>5000</v>
       </c>
       <c r="P547" t="n">
-        <v>4577</v>
+        <v>4750</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>80</v>
+        <v>3400</v>
       </c>
       <c r="N548" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>20000</v>
+        <v>7515</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>2857</v>
+        <v>1074</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>150</v>
+        <v>1300</v>
       </c>
       <c r="N549" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O549" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P549" t="n">
-        <v>17000</v>
+        <v>6173</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>2429</v>
+        <v>882</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N550" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P550" t="n">
-        <v>14000</v>
+        <v>4577</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>2000</v>
+        <v>654</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N551" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O551" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P551" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O552" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P552" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>9444</v>
+        <v>14000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1349</v>
+        <v>2000</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N554" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P554" t="n">
-        <v>7545</v>
+        <v>12000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1078</v>
+        <v>1714</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N555" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>4714</v>
+        <v>9500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>673</v>
+        <v>1357</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,7 +44844,7 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="N556" t="n">
         <v>9000</v>
@@ -44853,7 +44853,7 @@
         <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>9395</v>
+        <v>9444</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N557" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O557" t="n">
         <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>7750</v>
+        <v>7545</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N558" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O558" t="n">
         <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="N559" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P559" t="n">
-        <v>20000</v>
+        <v>9395</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>2857</v>
+        <v>1342</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N560" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O560" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>2143</v>
+        <v>1107</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N561" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O561" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N562" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O562" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P562" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P563" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N564" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O564" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P564" t="n">
-        <v>9250</v>
+        <v>20000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1321</v>
+        <v>2857</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N565" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>7750</v>
+        <v>14000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1107</v>
+        <v>2000</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N566" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O566" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P566" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45730,10 +45730,10 @@
         <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1357</v>
+        <v>1107</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O569" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N570" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O570" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P570" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M571" t="n">
         <v>300</v>
       </c>
       <c r="N571" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P571" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N572" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P572" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N573" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O573" t="n">
         <v>8000</v>
       </c>
-      <c r="O573" t="n">
-        <v>8500</v>
-      </c>
       <c r="P573" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N574" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O574" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P574" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N575" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O575" t="n">
         <v>5000</v>
       </c>
       <c r="P575" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>275</v>
+        <v>2600</v>
       </c>
       <c r="N576" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P576" t="n">
-        <v>10000</v>
+        <v>8173</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1429</v>
+        <v>1168</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>6729</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1143</v>
+        <v>961</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N578" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O578" t="n">
         <v>5000</v>
       </c>
       <c r="P578" t="n">
-        <v>5000</v>
+        <v>4844</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="N579" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O579" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1786</v>
+        <v>1143</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N581" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O581" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P581" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N582" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O582" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P582" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1250</v>
+        <v>2071</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N583" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P583" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1071</v>
+        <v>1786</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N584" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O584" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P584" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N585" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O585" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N586" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P586" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N587" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O587" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P587" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N588" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O588" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P588" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1143</v>
+        <v>500</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P589" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N590" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N591" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P591" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N592" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O592" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>3571</v>
+        <v>1286</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="N593" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O593" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="P593" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>3286</v>
+        <v>1071</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O594" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P594" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P595" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1357</v>
+        <v>3571</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,68 +48007,308 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M596" t="n">
+        <v>75</v>
+      </c>
+      <c r="N596" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O596" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P596" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Provincia de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="S596" t="n">
+        <v>3286</v>
+      </c>
+      <c r="T596" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>6</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E596" t="n">
-        <v>13</v>
-      </c>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G596" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I596" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J596" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L596" t="inlineStr">
+      <c r="E597" t="n">
+        <v>13</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M597" t="n">
+        <v>130</v>
+      </c>
+      <c r="N597" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O597" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P597" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S597" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T597" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>6</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M598" t="n">
+        <v>240</v>
+      </c>
+      <c r="N598" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O598" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P598" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S598" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T598" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>6</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E599" t="n">
+        <v>13</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M596" t="n">
+      <c r="M599" t="n">
         <v>170</v>
       </c>
-      <c r="N596" t="n">
+      <c r="N599" t="n">
         <v>6000</v>
       </c>
-      <c r="O596" t="n">
+      <c r="O599" t="n">
         <v>7000</v>
       </c>
-      <c r="P596" t="n">
+      <c r="P599" t="n">
         <v>6500</v>
       </c>
-      <c r="Q596" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R596" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S596" t="n">
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S599" t="n">
         <v>929</v>
       </c>
-      <c r="T596" t="n">
+      <c r="T599" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T607"/>
+  <dimension ref="A1:T610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N525" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O525" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P525" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>3571</v>
+        <v>1857</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>2857</v>
+        <v>1357</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N527" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O527" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P527" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2143</v>
+        <v>786</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N528" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O528" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P528" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2500</v>
+        <v>3571</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N529" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O529" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P529" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2071</v>
+        <v>2857</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P530" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>929</v>
+        <v>2143</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N531" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O531" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P531" t="n">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>714</v>
+        <v>2500</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>930</v>
+        <v>360</v>
       </c>
       <c r="N532" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P532" t="n">
-        <v>8796</v>
+        <v>14500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1257</v>
+        <v>2071</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="N533" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O533" t="n">
         <v>7000</v>
       </c>
-      <c r="O533" t="n">
-        <v>8000</v>
-      </c>
       <c r="P533" t="n">
-        <v>7421</v>
+        <v>6500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1060</v>
+        <v>929</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N534" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O534" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P534" t="n">
-        <v>4156</v>
+        <v>5000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>594</v>
+        <v>714</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>250</v>
+        <v>930</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O535" t="n">
         <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O536" t="n">
         <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>8000</v>
+        <v>7421</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N537" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="O537" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P537" t="n">
-        <v>5500</v>
+        <v>4156</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>786</v>
+        <v>594</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N538" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N539" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O539" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N540" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O540" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P540" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1286</v>
+        <v>786</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="N541" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O541" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>7911</v>
+        <v>13000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1130</v>
+        <v>1857</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N542" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P542" t="n">
-        <v>6816</v>
+        <v>11000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>974</v>
+        <v>1571</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N543" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P543" t="n">
-        <v>4472</v>
+        <v>9000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>639</v>
+        <v>1286</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P544" t="n">
-        <v>11500</v>
+        <v>7911</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1643</v>
+        <v>1130</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P545" t="n">
-        <v>9500</v>
+        <v>6816</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1357</v>
+        <v>974</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N546" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O546" t="n">
         <v>5000</v>
       </c>
-      <c r="O546" t="n">
-        <v>6000</v>
-      </c>
       <c r="P546" t="n">
-        <v>5500</v>
+        <v>4472</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>786</v>
+        <v>639</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N547" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O547" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P547" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1857</v>
+        <v>1643</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="N548" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="N550" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O550" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P550" t="n">
-        <v>7875</v>
+        <v>13000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1125</v>
+        <v>1857</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="N551" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O551" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P551" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>929</v>
+        <v>1571</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N552" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O552" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>3750</v>
+        <v>8000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N553" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O553" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P553" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N554" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O554" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P554" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1357</v>
+        <v>929</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N555" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P555" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P556" t="n">
-        <v>7515</v>
+        <v>11500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1074</v>
+        <v>1643</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N557" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P557" t="n">
-        <v>6173</v>
+        <v>9500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>882</v>
+        <v>1357</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N558" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O558" t="n">
         <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>4577</v>
+        <v>4750</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>80</v>
+        <v>3400</v>
       </c>
       <c r="N559" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O559" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>20000</v>
+        <v>7515</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>2857</v>
+        <v>1074</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>150</v>
+        <v>1300</v>
       </c>
       <c r="N560" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O560" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P560" t="n">
-        <v>17000</v>
+        <v>6173</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>2429</v>
+        <v>882</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N561" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O561" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>14000</v>
+        <v>4577</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2000</v>
+        <v>654</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N562" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O562" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P562" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1714</v>
+        <v>2857</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N563" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P563" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1357</v>
+        <v>2429</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="N564" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O564" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P564" t="n">
-        <v>9444</v>
+        <v>14000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1349</v>
+        <v>2000</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N565" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P565" t="n">
-        <v>7545</v>
+        <v>12000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1078</v>
+        <v>1714</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N566" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O566" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P566" t="n">
-        <v>4714</v>
+        <v>9500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>673</v>
+        <v>1357</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,7 +45724,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="N567" t="n">
         <v>9000</v>
@@ -45733,7 +45733,7 @@
         <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>9395</v>
+        <v>9444</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N568" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O568" t="n">
         <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>7750</v>
+        <v>7545</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N569" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O569" t="n">
         <v>5000</v>
       </c>
       <c r="P569" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="N570" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O570" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>20000</v>
+        <v>9395</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>2857</v>
+        <v>1342</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N571" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O571" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>2143</v>
+        <v>1107</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N572" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O572" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P572" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>2857</v>
+        <v>714</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O573" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P573" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P574" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N575" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P575" t="n">
-        <v>9250</v>
+        <v>20000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1321</v>
+        <v>2857</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N576" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>7750</v>
+        <v>14000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1107</v>
+        <v>2000</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N577" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46610,10 +46610,10 @@
         <v>9000</v>
       </c>
       <c r="O578" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P578" t="n">
-        <v>9000</v>
+        <v>9250</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N579" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O579" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P579" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1357</v>
+        <v>1107</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N580" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O580" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P580" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N581" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P581" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M582" t="n">
         <v>300</v>
       </c>
       <c r="N582" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N583" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O583" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P583" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2600</v>
+        <v>490</v>
       </c>
       <c r="N584" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O584" t="n">
         <v>8000</v>
       </c>
-      <c r="O584" t="n">
-        <v>8500</v>
-      </c>
       <c r="P584" t="n">
-        <v>8173</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1168</v>
+        <v>1071</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N585" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O585" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P585" t="n">
-        <v>6729</v>
+        <v>5500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>961</v>
+        <v>786</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N586" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O586" t="n">
         <v>5000</v>
       </c>
       <c r="P586" t="n">
-        <v>4844</v>
+        <v>5000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>275</v>
+        <v>2600</v>
       </c>
       <c r="N587" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O587" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P587" t="n">
-        <v>10000</v>
+        <v>8173</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1429</v>
+        <v>1168</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N588" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O588" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P588" t="n">
-        <v>8000</v>
+        <v>6729</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1143</v>
+        <v>961</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N589" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O589" t="n">
         <v>5000</v>
       </c>
       <c r="P589" t="n">
-        <v>5000</v>
+        <v>4844</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>900</v>
+        <v>275</v>
       </c>
       <c r="N590" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N591" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P591" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1786</v>
+        <v>1143</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N592" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O592" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P592" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N593" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O593" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>8750</v>
+        <v>14500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1250</v>
+        <v>2071</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N594" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O594" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P594" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1071</v>
+        <v>1786</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N595" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O595" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P595" t="n">
-        <v>4500</v>
+        <v>6667</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N596" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O596" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P597" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N598" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P598" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O599" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P599" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1143</v>
+        <v>500</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="N600" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P600" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N601" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N602" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O602" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P602" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N603" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O603" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P603" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>3571</v>
+        <v>1286</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>75</v>
+        <v>550</v>
       </c>
       <c r="N604" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="O604" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="P604" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>3286</v>
+        <v>1071</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P605" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P606" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1357</v>
+        <v>3571</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,68 +48887,308 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E607" t="n">
+        <v>13</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G607" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M607" t="n">
+        <v>75</v>
+      </c>
+      <c r="N607" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O607" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P607" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R607" t="inlineStr">
+        <is>
+          <t>Provincia de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="S607" t="n">
+        <v>3286</v>
+      </c>
+      <c r="T607" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>6</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D608" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E607" t="n">
-        <v>13</v>
-      </c>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G607" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I607" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J607" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L607" t="inlineStr">
+      <c r="E608" t="n">
+        <v>13</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G608" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M608" t="n">
+        <v>130</v>
+      </c>
+      <c r="N608" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O608" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P608" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S608" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T608" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>6</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E609" t="n">
+        <v>13</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G609" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M609" t="n">
+        <v>240</v>
+      </c>
+      <c r="N609" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O609" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P609" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S609" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T609" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>6</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E610" t="n">
+        <v>13</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G610" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M607" t="n">
+      <c r="M610" t="n">
         <v>170</v>
       </c>
-      <c r="N607" t="n">
+      <c r="N610" t="n">
         <v>6000</v>
       </c>
-      <c r="O607" t="n">
+      <c r="O610" t="n">
         <v>7000</v>
       </c>
-      <c r="P607" t="n">
+      <c r="P610" t="n">
         <v>6500</v>
       </c>
-      <c r="Q607" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R607" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S607" t="n">
+      <c r="Q610" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S610" t="n">
         <v>929</v>
       </c>
-      <c r="T607" t="n">
+      <c r="T610" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T614"/>
+  <dimension ref="A1:T618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>175</v>
+        <v>2100</v>
       </c>
       <c r="N516" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>15000</v>
+        <v>9571</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2143</v>
+        <v>1367</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>175</v>
+        <v>1750</v>
       </c>
       <c r="N517" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O517" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P517" t="n">
-        <v>11000</v>
+        <v>7571</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1571</v>
+        <v>1082</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>175</v>
+        <v>900</v>
       </c>
       <c r="N518" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O518" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="P518" t="n">
-        <v>8500</v>
+        <v>5333</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1214</v>
+        <v>762</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N519" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O519" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P519" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>2857</v>
+        <v>571</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="N520" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P520" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1571</v>
+        <v>2143</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N521" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O521" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P521" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N522" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="O522" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="P522" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2714</v>
+        <v>1214</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N523" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O523" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P523" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2357</v>
+        <v>2857</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N524" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O524" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P524" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1714</v>
+        <v>1571</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O525" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P525" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,20 +42444,20 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O526" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P526" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1286</v>
+        <v>2714</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,20 +42524,20 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N527" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O527" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P527" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1000</v>
+        <v>2357</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,20 +42604,20 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O528" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P528" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>714</v>
+        <v>1714</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N529" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,24 +42760,24 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N530" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P530" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1714</v>
+        <v>1286</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,24 +42840,24 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,24 +42920,24 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N532" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O532" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P532" t="n">
-        <v>7875</v>
+        <v>5000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N533" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O533" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P533" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>929</v>
+        <v>2000</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N534" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O534" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P534" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>536</v>
+        <v>1714</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N535" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>2071</v>
+        <v>1286</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N536" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P536" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N537" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O537" t="n">
         <v>7000</v>
       </c>
-      <c r="O537" t="n">
-        <v>8000</v>
-      </c>
       <c r="P537" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1071</v>
+        <v>929</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O538" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P538" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>857</v>
+        <v>536</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O539" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P539" t="n">
-        <v>12308</v>
+        <v>14500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1758</v>
+        <v>2071</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1429</v>
+        <v>1643</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,7 +43644,7 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N541" t="n">
         <v>7000</v>
@@ -43653,7 +43653,7 @@
         <v>8000</v>
       </c>
       <c r="P541" t="n">
-        <v>7403</v>
+        <v>7500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N542" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P542" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="N543" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P543" t="n">
-        <v>6000</v>
+        <v>12308</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>857</v>
+        <v>1758</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N544" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>7403</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1714</v>
+        <v>1058</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P546" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N547" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O547" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P547" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1929</v>
+        <v>857</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N548" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1571</v>
+        <v>571</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N549" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O549" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P549" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N550" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O551" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P551" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1357</v>
+        <v>1929</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="N552" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O552" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P552" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P553" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N554" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P554" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1071</v>
+        <v>1643</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N555" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>679</v>
+        <v>1357</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N556" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O556" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P556" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="N557" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P557" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N558" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O558" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P558" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>964</v>
+        <v>1071</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N559" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O559" t="n">
         <v>5000</v>
       </c>
       <c r="P559" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N560" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O560" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P560" t="n">
-        <v>20500</v>
+        <v>3500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>2929</v>
+        <v>500</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="N561" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O561" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P561" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2214</v>
+        <v>1214</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N562" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O562" t="n">
         <v>7000</v>
       </c>
       <c r="P562" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,11 +45400,11 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N563" t="n">
         <v>5000</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N564" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O564" t="n">
         <v>21000</v>
       </c>
-      <c r="O564" t="n">
-        <v>22000</v>
-      </c>
       <c r="P564" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>3071</v>
+        <v>2929</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N565" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O565" t="n">
         <v>16000</v>
       </c>
-      <c r="O565" t="n">
-        <v>17000</v>
-      </c>
       <c r="P565" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>2357</v>
+        <v>2214</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N567" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O567" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P567" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N568" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O568" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P568" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>2071</v>
+        <v>3071</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O569" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P569" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1571</v>
+        <v>2357</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N570" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O570" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P570" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N571" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P571" t="n">
-        <v>11455</v>
+        <v>7000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1636</v>
+        <v>1000</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N572" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P572" t="n">
-        <v>9600</v>
+        <v>14500</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1371</v>
+        <v>2071</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N573" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>4750</v>
+        <v>11000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>679</v>
+        <v>1571</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N574" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O574" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P574" t="n">
-        <v>19500</v>
+        <v>6000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>2786</v>
+        <v>857</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N575" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O575" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P575" t="n">
-        <v>16500</v>
+        <v>11455</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>2357</v>
+        <v>1636</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,11 +46440,11 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N576" t="n">
         <v>9000</v>
@@ -46453,7 +46453,7 @@
         <v>10000</v>
       </c>
       <c r="P576" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N577" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O577" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P577" t="n">
-        <v>25000</v>
+        <v>4750</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>3571</v>
+        <v>679</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N578" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O578" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P578" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>3286</v>
+        <v>2786</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
         <v>300</v>
       </c>
       <c r="N579" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O579" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P579" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>2929</v>
+        <v>2357</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N580" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>2429</v>
+        <v>1357</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O581" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P581" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1571</v>
+        <v>3571</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N582" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P582" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1071</v>
+        <v>3286</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="N583" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O583" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P583" t="n">
-        <v>8038</v>
+        <v>20500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1148</v>
+        <v>2929</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N584" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O584" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P584" t="n">
-        <v>4850</v>
+        <v>17000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>693</v>
+        <v>2429</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N585" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P585" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,11 +47240,11 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N586" t="n">
         <v>7000</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="N587" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O587" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P587" t="n">
-        <v>4500</v>
+        <v>8038</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N588" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O588" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P588" t="n">
-        <v>8500</v>
+        <v>4850</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1214</v>
+        <v>693</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N589" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P589" t="n">
-        <v>4444</v>
+        <v>9000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>635</v>
+        <v>1286</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N590" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O590" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N591" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O591" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P591" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>2857</v>
+        <v>643</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N592" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1400</v>
+        <v>180</v>
       </c>
       <c r="N593" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O593" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P593" t="n">
-        <v>8554</v>
+        <v>4444</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1222</v>
+        <v>635</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1450</v>
+        <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="O594" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P594" t="n">
-        <v>7017</v>
+        <v>25000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1002</v>
+        <v>3571</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N595" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O595" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P595" t="n">
-        <v>4719</v>
+        <v>20000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>674</v>
+        <v>2857</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>80</v>
       </c>
       <c r="N596" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O596" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P596" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="N597" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O597" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>17000</v>
+        <v>8554</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>2429</v>
+        <v>1222</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>120</v>
+        <v>1450</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="O598" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P598" t="n">
-        <v>14000</v>
+        <v>7017</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N599" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O599" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P599" t="n">
-        <v>9438</v>
+        <v>4719</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1348</v>
+        <v>674</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>2100</v>
+        <v>80</v>
       </c>
       <c r="N600" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O600" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P600" t="n">
-        <v>7786</v>
+        <v>20000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1112</v>
+        <v>2857</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="N601" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="O601" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P601" t="n">
-        <v>4769</v>
+        <v>17000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>681</v>
+        <v>2429</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>930</v>
+        <v>120</v>
       </c>
       <c r="N602" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O602" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P602" t="n">
-        <v>8796</v>
+        <v>14000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1257</v>
+        <v>2000</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>950</v>
+        <v>1600</v>
       </c>
       <c r="N603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>7421</v>
+        <v>9438</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1060</v>
+        <v>1348</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>480</v>
+        <v>2100</v>
       </c>
       <c r="N604" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O604" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P604" t="n">
-        <v>4156</v>
+        <v>7786</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>594</v>
+        <v>1112</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N605" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O605" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P605" t="n">
-        <v>16500</v>
+        <v>4769</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>2357</v>
+        <v>681</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>100</v>
+        <v>930</v>
       </c>
       <c r="N606" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O606" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P606" t="n">
-        <v>6000</v>
+        <v>8796</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>857</v>
+        <v>1257</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="N607" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O607" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P607" t="n">
-        <v>10000</v>
+        <v>7421</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1429</v>
+        <v>1060</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>4156</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1143</v>
+        <v>594</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N609" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O609" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P609" t="n">
-        <v>4750</v>
+        <v>16500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>679</v>
+        <v>2357</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O610" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P610" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>2071</v>
+        <v>857</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N611" t="n">
         <v>10000</v>
       </c>
       <c r="O611" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P611" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N612" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O612" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="P612" t="n">
-        <v>25400</v>
+        <v>8000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>3629</v>
+        <v>1143</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N613" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O613" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P613" t="n">
-        <v>21381</v>
+        <v>4750</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>3054</v>
+        <v>679</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,11 +49480,11 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N614" t="n">
         <v>14000</v>
@@ -49493,22 +49493,342 @@
         <v>15000</v>
       </c>
       <c r="P614" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R614" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S614" t="n">
+        <v>2071</v>
+      </c>
+      <c r="T614" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>6</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D615" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E615" t="n">
+        <v>13</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M615" t="n">
+        <v>400</v>
+      </c>
+      <c r="N615" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O615" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P615" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S615" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T615" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>6</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E616" t="n">
+        <v>13</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M616" t="n">
+        <v>300</v>
+      </c>
+      <c r="N616" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O616" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P616" t="n">
+        <v>25400</v>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S616" t="n">
+        <v>3629</v>
+      </c>
+      <c r="T616" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>6</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E617" t="n">
+        <v>13</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M617" t="n">
+        <v>210</v>
+      </c>
+      <c r="N617" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O617" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P617" t="n">
+        <v>21381</v>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S617" t="n">
+        <v>3054</v>
+      </c>
+      <c r="T617" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>6</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E618" t="n">
+        <v>13</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M618" t="n">
+        <v>90</v>
+      </c>
+      <c r="N618" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O618" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P618" t="n">
         <v>14556</v>
       </c>
-      <c r="Q614" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R614" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S614" t="n">
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S618" t="n">
         <v>2079</v>
       </c>
-      <c r="T614" t="n">
+      <c r="T618" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T640"/>
+  <dimension ref="A1:T643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E412" t="n">
         <v>13</v>
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>3060</v>
+        <v>2300</v>
       </c>
       <c r="N412" t="n">
         <v>7000</v>
@@ -33333,7 +33333,7 @@
         <v>8000</v>
       </c>
       <c r="P412" t="n">
-        <v>7676</v>
+        <v>7554</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>1550</v>
+        <v>1150</v>
       </c>
       <c r="N413" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O413" t="n">
         <v>6000</v>
       </c>
-      <c r="O413" t="n">
-        <v>7000</v>
-      </c>
       <c r="P413" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>929</v>
+        <v>786</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N414" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O414" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P414" t="n">
-        <v>4812</v>
+        <v>3500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>687</v>
+        <v>500</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>150</v>
+        <v>3060</v>
       </c>
       <c r="N415" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O415" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P415" t="n">
-        <v>25000</v>
+        <v>7676</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>3571</v>
+        <v>1097</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>200</v>
+        <v>1550</v>
       </c>
       <c r="N416" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O416" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>3000</v>
+        <v>929</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N417" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O417" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P417" t="n">
-        <v>15000</v>
+        <v>4812</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2143</v>
+        <v>687</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N418" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="O418" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P418" t="n">
-        <v>8750</v>
+        <v>25000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1250</v>
+        <v>3571</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P419" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1071</v>
+        <v>3000</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N420" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O420" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P420" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>643</v>
+        <v>2143</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N421" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O421" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P421" t="n">
-        <v>3500</v>
+        <v>8750</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>2800</v>
+        <v>450</v>
       </c>
       <c r="N422" t="n">
         <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>8286</v>
+        <v>7500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1184</v>
+        <v>1071</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>2520</v>
+        <v>400</v>
       </c>
       <c r="N423" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O423" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P423" t="n">
-        <v>6659</v>
+        <v>4500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>951</v>
+        <v>643</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="N424" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O424" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P424" t="n">
-        <v>4692</v>
+        <v>3500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>670</v>
+        <v>500</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="N425" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O425" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P425" t="n">
-        <v>11500</v>
+        <v>8286</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1643</v>
+        <v>1184</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>700</v>
+        <v>2520</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P426" t="n">
-        <v>9500</v>
+        <v>6659</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1357</v>
+        <v>951</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N427" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O427" t="n">
         <v>5000</v>
       </c>
-      <c r="O427" t="n">
-        <v>6000</v>
-      </c>
       <c r="P427" t="n">
-        <v>5500</v>
+        <v>4692</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>786</v>
+        <v>670</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N428" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
         <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1714</v>
+        <v>1643</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N429" t="n">
         <v>9000</v>
       </c>
       <c r="O429" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1429</v>
+        <v>1357</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N430" t="n">
         <v>5000</v>
       </c>
       <c r="O430" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P430" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N431" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>536</v>
+        <v>1714</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -34920,21 +34920,21 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N432" t="n">
         <v>9000</v>
       </c>
       <c r="O432" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P432" t="n">
         <v>10000</v>
       </c>
-      <c r="P432" t="n">
-        <v>9500</v>
-      </c>
       <c r="Q432" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T432" t="n">
         <v>7</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P433" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T433" t="n">
         <v>7</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N434" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O434" t="n">
         <v>4000</v>
       </c>
-      <c r="O434" t="n">
-        <v>5000</v>
-      </c>
       <c r="P434" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>643</v>
+        <v>536</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="N435" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>2857</v>
+        <v>1357</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="N436" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P436" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O437" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P437" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1429</v>
+        <v>643</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N438" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P438" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1143</v>
+        <v>2857</v>
       </c>
       <c r="T438" t="n">
         <v>7</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N439" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O439" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P439" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T439" t="n">
         <v>7</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O440" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P440" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1786</v>
+        <v>1429</v>
       </c>
       <c r="T440" t="n">
         <v>7</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N441" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T441" t="n">
         <v>7</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N442" t="n">
         <v>6000</v>
       </c>
       <c r="O442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T442" t="n">
         <v>7</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N443" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P443" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>2786</v>
+        <v>1786</v>
       </c>
       <c r="T443" t="n">
         <v>7</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N444" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>2214</v>
+        <v>1357</v>
       </c>
       <c r="T444" t="n">
         <v>7</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P445" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1571</v>
+        <v>929</v>
       </c>
       <c r="T445" t="n">
         <v>7</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1143</v>
+        <v>2786</v>
       </c>
       <c r="T446" t="n">
         <v>7</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1714</v>
+        <v>2214</v>
       </c>
       <c r="T447" t="n">
         <v>7</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N448" t="n">
         <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T448" t="n">
         <v>7</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36280,11 +36280,11 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N449" t="n">
         <v>8000</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N450" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>2786</v>
+        <v>1714</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N451" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>2500</v>
+        <v>1429</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O453" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P453" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1214</v>
+        <v>2786</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N454" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O454" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P454" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>786</v>
+        <v>2500</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,20 +36764,20 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N455" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P455" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1393</v>
+        <v>1571</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N456" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O456" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P456" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N457" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O457" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P457" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1286</v>
+        <v>786</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,24 +37000,24 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>9750</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1000</v>
+        <v>1393</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N459" t="n">
         <v>11000</v>
       </c>
       <c r="O459" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P459" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1643</v>
+        <v>1571</v>
       </c>
       <c r="T459" t="n">
         <v>7</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="N460" t="n">
         <v>9000</v>
       </c>
       <c r="O460" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P460" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N461" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P461" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N462" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O462" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>4250</v>
+        <v>11500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>607</v>
+        <v>1643</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="N463" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O463" t="n">
         <v>10000</v>
       </c>
-      <c r="O463" t="n">
-        <v>11000</v>
-      </c>
       <c r="P463" t="n">
-        <v>10333</v>
+        <v>9500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1476</v>
+        <v>1357</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N464" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O464" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P464" t="n">
-        <v>8875</v>
+        <v>5500</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1268</v>
+        <v>786</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N465" t="n">
         <v>4000</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>14174</v>
+        <v>10333</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>2025</v>
+        <v>1476</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O467" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>10368</v>
+        <v>8875</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1481</v>
+        <v>1268</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P468" t="n">
-        <v>7500</v>
+        <v>4250</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1071</v>
+        <v>607</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="N469" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O469" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P469" t="n">
-        <v>5500</v>
+        <v>14174</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>786</v>
+        <v>2025</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P470" t="n">
-        <v>13000</v>
+        <v>10368</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1857</v>
+        <v>1481</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P471" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1357</v>
+        <v>1071</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,11 +38120,11 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N472" t="n">
         <v>5000</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="N473" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P473" t="n">
-        <v>9517</v>
+        <v>13000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1360</v>
+        <v>1857</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38287,13 +38287,13 @@
         <v>1000</v>
       </c>
       <c r="N474" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>7600</v>
+        <v>9500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1086</v>
+        <v>1357</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N475" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O475" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P475" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>690</v>
+        <v>786</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>100</v>
+        <v>1450</v>
       </c>
       <c r="N476" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O476" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>14000</v>
+        <v>9517</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2000</v>
+        <v>1360</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="N477" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>11541</v>
+        <v>7600</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1649</v>
+        <v>1086</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N478" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O478" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P478" t="n">
-        <v>8500</v>
+        <v>4833</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1214</v>
+        <v>690</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N479" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P479" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>929</v>
+        <v>2000</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="N480" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="O480" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>4500</v>
+        <v>11541</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>643</v>
+        <v>1649</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N481" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P481" t="n">
-        <v>11600</v>
+        <v>8500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1657</v>
+        <v>1214</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P482" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1429</v>
+        <v>929</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N483" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O483" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P483" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>857</v>
+        <v>643</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N484" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O484" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>5000</v>
+        <v>11600</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>714</v>
+        <v>1657</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P485" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1929</v>
+        <v>1429</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P486" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O487" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1571</v>
+        <v>714</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N488" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P488" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>929</v>
+        <v>1929</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N489" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>679</v>
+        <v>1357</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N490" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O490" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P490" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>2500</v>
+        <v>1571</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O491" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>2071</v>
+        <v>929</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N492" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P492" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>929</v>
+        <v>679</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N493" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P493" t="n">
-        <v>5000</v>
+        <v>17500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>714</v>
+        <v>2500</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O494" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P494" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1571</v>
+        <v>2071</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>750</v>
+        <v>240</v>
       </c>
       <c r="N495" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O495" t="n">
         <v>7000</v>
       </c>
-      <c r="O495" t="n">
-        <v>8000</v>
-      </c>
       <c r="P495" t="n">
-        <v>7600</v>
+        <v>6500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1086</v>
+        <v>929</v>
       </c>
       <c r="T495" t="n">
         <v>7</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N496" t="n">
         <v>5000</v>
       </c>
       <c r="O496" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>5625</v>
+        <v>5000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>804</v>
+        <v>714</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P497" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>571</v>
+        <v>1571</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="N498" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P498" t="n">
-        <v>25000</v>
+        <v>7600</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>3571</v>
+        <v>1086</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N499" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O499" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P499" t="n">
-        <v>20000</v>
+        <v>5625</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>2857</v>
+        <v>804</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N500" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O500" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P500" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>2143</v>
+        <v>571</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N501" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O501" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P501" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1429</v>
+        <v>3571</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N502" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P502" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1214</v>
+        <v>2857</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O503" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P503" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N505" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2571</v>
+        <v>1214</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O506" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P506" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1571</v>
+        <v>857</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N507" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O507" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P507" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>3571</v>
+        <v>2857</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O508" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P508" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2857</v>
+        <v>2571</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N509" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O509" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>2143</v>
+        <v>1571</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>2250</v>
+        <v>140</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O510" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P510" t="n">
-        <v>8700</v>
+        <v>25000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1243</v>
+        <v>3571</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="N511" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O511" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P511" t="n">
-        <v>7194</v>
+        <v>20000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1028</v>
+        <v>2857</v>
       </c>
       <c r="T511" t="n">
         <v>7</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O512" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P512" t="n">
-        <v>4750</v>
+        <v>15000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>679</v>
+        <v>2143</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>300</v>
+        <v>2250</v>
       </c>
       <c r="N513" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>24500</v>
+        <v>8700</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>3500</v>
+        <v>1243</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="N514" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O514" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P514" t="n">
-        <v>20667</v>
+        <v>7194</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>2952</v>
+        <v>1028</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N515" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O515" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P515" t="n">
-        <v>15000</v>
+        <v>4750</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>2143</v>
+        <v>679</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>820</v>
+        <v>300</v>
       </c>
       <c r="N516" t="n">
         <v>24000</v>
       </c>
       <c r="O516" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P516" t="n">
-        <v>25787</v>
+        <v>24500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>3684</v>
+        <v>3500</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="N517" t="n">
         <v>20000</v>
       </c>
       <c r="O517" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="P517" t="n">
-        <v>22139</v>
+        <v>20667</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>3163</v>
+        <v>2952</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O518" t="n">
         <v>15000</v>
       </c>
       <c r="P518" t="n">
-        <v>14414</v>
+        <v>15000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2059</v>
+        <v>2143</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="N519" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O519" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P519" t="n">
-        <v>17500</v>
+        <v>25787</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>2500</v>
+        <v>3684</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O520" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P520" t="n">
-        <v>14000</v>
+        <v>22139</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>2000</v>
+        <v>3163</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="N521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P521" t="n">
-        <v>7000</v>
+        <v>14414</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1000</v>
+        <v>2059</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N522" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O522" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P522" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="N523" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O523" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P523" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2857</v>
+        <v>2000</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P525" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1357</v>
+        <v>3500</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P526" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N527" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O527" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P527" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>643</v>
+        <v>2143</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>1680</v>
+        <v>700</v>
       </c>
       <c r="N528" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>8021</v>
+        <v>9500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1146</v>
+        <v>1357</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N529" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>6921</v>
+        <v>7500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>989</v>
+        <v>1071</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N530" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O530" t="n">
         <v>5000</v>
       </c>
       <c r="P530" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>686</v>
+        <v>643</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>350</v>
+        <v>1680</v>
       </c>
       <c r="N531" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O531" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P531" t="n">
-        <v>11000</v>
+        <v>8021</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1571</v>
+        <v>1146</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>6921</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1286</v>
+        <v>989</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N533" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O533" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P533" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1000</v>
+        <v>686</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O534" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P534" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1786</v>
+        <v>1571</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N535" t="n">
         <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N536" t="n">
         <v>7000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P536" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N537" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P537" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>786</v>
+        <v>1786</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,11 +43400,11 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="N538" t="n">
         <v>9000</v>
@@ -43413,7 +43413,7 @@
         <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>9571</v>
+        <v>9500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,11 +43480,11 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="N539" t="n">
         <v>7000</v>
@@ -43493,7 +43493,7 @@
         <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>7571</v>
+        <v>7500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,11 +43560,11 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N540" t="n">
         <v>5000</v>
@@ -43573,7 +43573,7 @@
         <v>6000</v>
       </c>
       <c r="P540" t="n">
-        <v>5333</v>
+        <v>5500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>450</v>
+        <v>2100</v>
       </c>
       <c r="N541" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>4000</v>
+        <v>9571</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>571</v>
+        <v>1367</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>175</v>
+        <v>1750</v>
       </c>
       <c r="N542" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P542" t="n">
-        <v>15000</v>
+        <v>7571</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>2143</v>
+        <v>1082</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>175</v>
+        <v>900</v>
       </c>
       <c r="N543" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P543" t="n">
-        <v>11000</v>
+        <v>5333</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1571</v>
+        <v>762</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="N544" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="O544" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="P544" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1214</v>
+        <v>571</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N545" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O545" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P545" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,11 +44040,11 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="N546" t="n">
         <v>11000</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N547" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O547" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P547" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>857</v>
+        <v>1214</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N548" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O548" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P548" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>2714</v>
+        <v>2857</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N549" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>2357</v>
+        <v>1571</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P550" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N551" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P551" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1143</v>
+        <v>2714</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,24 +44520,24 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
         <v>150</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O552" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P552" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1286</v>
+        <v>2357</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,24 +44600,24 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N553" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O553" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P553" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,24 +44680,24 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N554" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O554" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,20 +44764,20 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>2000</v>
+        <v>1286</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,20 +44844,20 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N556" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O556" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P556" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,20 +44924,20 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O557" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P557" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O558" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P558" t="n">
-        <v>7875</v>
+        <v>14000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1125</v>
+        <v>2000</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N559" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O559" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P559" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>929</v>
+        <v>1714</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N560" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O560" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P560" t="n">
-        <v>3750</v>
+        <v>9000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>536</v>
+        <v>1286</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N561" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O561" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P561" t="n">
-        <v>14500</v>
+        <v>7875</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2071</v>
+        <v>1125</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N562" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O562" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P562" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1643</v>
+        <v>929</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N563" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O563" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P563" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1071</v>
+        <v>536</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N564" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O564" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P564" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="N565" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O565" t="n">
         <v>12000</v>
       </c>
-      <c r="O565" t="n">
-        <v>13000</v>
-      </c>
       <c r="P565" t="n">
-        <v>12308</v>
+        <v>11500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1758</v>
+        <v>1643</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="N566" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P566" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>620</v>
+        <v>150</v>
       </c>
       <c r="N567" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O567" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P567" t="n">
-        <v>7403</v>
+        <v>6000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1058</v>
+        <v>857</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N568" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P568" t="n">
-        <v>8000</v>
+        <v>12308</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1143</v>
+        <v>1758</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>260</v>
+        <v>650</v>
       </c>
       <c r="N569" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O569" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P569" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>857</v>
+        <v>1429</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="N570" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O570" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>4000</v>
+        <v>7403</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>571</v>
+        <v>1058</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N572" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P572" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N573" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O573" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P573" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1929</v>
+        <v>571</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
         <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1571</v>
+        <v>1714</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N575" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>857</v>
+        <v>1357</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="N576" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1643</v>
+        <v>1929</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="N577" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P577" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,13 +46604,13 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="N578" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O578" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P578" t="n">
         <v>6000</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="N579" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O579" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P579" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1357</v>
+        <v>1643</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="N580" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N581" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O581" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P581" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>679</v>
+        <v>857</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N582" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>500</v>
+        <v>1357</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="N583" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O583" t="n">
         <v>8000</v>
       </c>
-      <c r="O583" t="n">
-        <v>9000</v>
-      </c>
       <c r="P583" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N584" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="O584" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P584" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>964</v>
+        <v>679</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M585" t="n">
         <v>300</v>
       </c>
       <c r="N585" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O585" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P585" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="N586" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O586" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P586" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>2929</v>
+        <v>1214</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N587" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O587" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P587" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>2214</v>
+        <v>964</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47407,13 +47407,13 @@
         <v>300</v>
       </c>
       <c r="N588" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O588" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P588" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N589" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O589" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P589" t="n">
-        <v>5000</v>
+        <v>20500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>714</v>
+        <v>2929</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N590" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O590" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P590" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>3071</v>
+        <v>2214</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N591" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O591" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P591" t="n">
-        <v>16500</v>
+        <v>6500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>2357</v>
+        <v>929</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O592" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P592" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N593" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O593" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P593" t="n">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1000</v>
+        <v>3071</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P594" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>2071</v>
+        <v>2357</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
         <v>12000</v>
       </c>
       <c r="P595" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1571</v>
+        <v>1714</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N596" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O596" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P596" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N597" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P597" t="n">
-        <v>11455</v>
+        <v>14500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>1636</v>
+        <v>2071</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N598" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>9600</v>
+        <v>11000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1371</v>
+        <v>1571</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N599" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O599" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P599" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>679</v>
+        <v>857</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N600" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O600" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P600" t="n">
-        <v>19500</v>
+        <v>11455</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>2786</v>
+        <v>1636</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N601" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O601" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>16500</v>
+        <v>9600</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>2357</v>
+        <v>1371</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N602" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P602" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1357</v>
+        <v>679</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N603" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O603" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P603" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>3571</v>
+        <v>2786</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N604" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="O604" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P604" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>3286</v>
+        <v>2357</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N605" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O605" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>2929</v>
+        <v>1357</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O606" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P606" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>2429</v>
+        <v>3571</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N607" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P607" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1571</v>
+        <v>3286</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N608" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P608" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1071</v>
+        <v>2929</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1300</v>
+        <v>360</v>
       </c>
       <c r="N609" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P609" t="n">
-        <v>8038</v>
+        <v>17000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1148</v>
+        <v>2429</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N610" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O610" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>4850</v>
+        <v>11000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>693</v>
+        <v>1571</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N611" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O611" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P611" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1286</v>
+        <v>1071</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="N612" t="n">
         <v>7000</v>
       </c>
       <c r="O612" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P612" t="n">
-        <v>7500</v>
+        <v>8038</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1071</v>
+        <v>1148</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N613" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O613" t="n">
         <v>5000</v>
       </c>
       <c r="P613" t="n">
-        <v>4500</v>
+        <v>4850</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>643</v>
+        <v>693</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N614" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O614" t="n">
         <v>9000</v>
       </c>
       <c r="P614" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N615" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O615" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P615" t="n">
-        <v>4444</v>
+        <v>7500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>635</v>
+        <v>1071</v>
       </c>
       <c r="T615" t="n">
         <v>7</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N616" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="O616" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P616" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>3571</v>
+        <v>643</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="N617" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O617" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P617" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>2857</v>
+        <v>1214</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N618" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O618" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P618" t="n">
-        <v>15000</v>
+        <v>4444</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>2143</v>
+        <v>635</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="N619" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O619" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P619" t="n">
-        <v>8554</v>
+        <v>25000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1222</v>
+        <v>3571</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1450</v>
+        <v>120</v>
       </c>
       <c r="N620" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O620" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P620" t="n">
-        <v>7017</v>
+        <v>20000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1002</v>
+        <v>2857</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="N621" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O621" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P621" t="n">
-        <v>4719</v>
+        <v>15000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>674</v>
+        <v>2143</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>80</v>
+        <v>1400</v>
       </c>
       <c r="N622" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O622" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P622" t="n">
-        <v>20000</v>
+        <v>8554</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>2857</v>
+        <v>1222</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>150</v>
+        <v>1450</v>
       </c>
       <c r="N623" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O623" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="P623" t="n">
-        <v>17000</v>
+        <v>7017</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>2429</v>
+        <v>1002</v>
       </c>
       <c r="T623" t="n">
         <v>7</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="N624" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P624" t="n">
-        <v>14000</v>
+        <v>4719</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>2000</v>
+        <v>674</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="N625" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P625" t="n">
-        <v>9438</v>
+        <v>20000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1348</v>
+        <v>2857</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>2100</v>
+        <v>150</v>
       </c>
       <c r="N626" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O626" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P626" t="n">
-        <v>7786</v>
+        <v>17000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1112</v>
+        <v>2429</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="N627" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O627" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>4769</v>
+        <v>14000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>681</v>
+        <v>2000</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>930</v>
+        <v>1600</v>
       </c>
       <c r="N628" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>8796</v>
+        <v>9438</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1257</v>
+        <v>1348</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>950</v>
+        <v>2100</v>
       </c>
       <c r="N629" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O629" t="n">
         <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>7421</v>
+        <v>7786</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1060</v>
+        <v>1112</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="N630" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O630" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P630" t="n">
-        <v>4156</v>
+        <v>4769</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>350</v>
+        <v>930</v>
       </c>
       <c r="N631" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="O631" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P631" t="n">
-        <v>16500</v>
+        <v>8796</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>2357</v>
+        <v>1257</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>100</v>
+        <v>950</v>
       </c>
       <c r="N632" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O632" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P632" t="n">
-        <v>6000</v>
+        <v>7421</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>857</v>
+        <v>1060</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O633" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P633" t="n">
-        <v>10000</v>
+        <v>4156</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1429</v>
+        <v>594</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
         <v>350</v>
       </c>
       <c r="N634" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O634" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P634" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1143</v>
+        <v>2357</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N635" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O635" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P635" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>679</v>
+        <v>857</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51247,13 +51247,13 @@
         <v>200</v>
       </c>
       <c r="N636" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P636" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>2071</v>
+        <v>1429</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N637" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O637" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P637" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
         <v>300</v>
       </c>
       <c r="N638" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O638" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="P638" t="n">
-        <v>25400</v>
+        <v>4750</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>3629</v>
+        <v>679</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N639" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>21381</v>
+        <v>14500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>3054</v>
+        <v>2071</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,68 +51527,308 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M640" t="n">
+        <v>400</v>
+      </c>
+      <c r="N640" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O640" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P640" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T640" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>6</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E640" t="n">
-        <v>13</v>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G640" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I640" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J640" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L640" t="inlineStr">
+      <c r="E641" t="n">
+        <v>13</v>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M641" t="n">
+        <v>300</v>
+      </c>
+      <c r="N641" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O641" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P641" t="n">
+        <v>25400</v>
+      </c>
+      <c r="Q641" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S641" t="n">
+        <v>3629</v>
+      </c>
+      <c r="T641" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>6</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E642" t="n">
+        <v>13</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M642" t="n">
+        <v>210</v>
+      </c>
+      <c r="N642" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O642" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P642" t="n">
+        <v>21381</v>
+      </c>
+      <c r="Q642" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S642" t="n">
+        <v>3054</v>
+      </c>
+      <c r="T642" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>6</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E643" t="n">
+        <v>13</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M640" t="n">
+      <c r="M643" t="n">
         <v>90</v>
       </c>
-      <c r="N640" t="n">
+      <c r="N643" t="n">
         <v>14000</v>
       </c>
-      <c r="O640" t="n">
+      <c r="O643" t="n">
         <v>15000</v>
       </c>
-      <c r="P640" t="n">
+      <c r="P643" t="n">
         <v>14556</v>
       </c>
-      <c r="Q640" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R640" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S640" t="n">
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
         <v>2079</v>
       </c>
-      <c r="T640" t="n">
+      <c r="T643" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T643"/>
+  <dimension ref="A1:T647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>120</v>
+        <v>2800</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P450" t="n">
-        <v>12000</v>
+        <v>7411</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1714</v>
+        <v>1059</v>
       </c>
       <c r="T450" t="n">
         <v>7</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T451" t="n">
         <v>7</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1143</v>
+        <v>571</v>
       </c>
       <c r="T452" t="n">
         <v>7</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N453" t="n">
-        <v>19000</v>
+        <v>2500</v>
       </c>
       <c r="O453" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="P453" t="n">
-        <v>19500</v>
+        <v>2750</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>2786</v>
+        <v>393</v>
       </c>
       <c r="T453" t="n">
         <v>7</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N454" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>2500</v>
+        <v>1714</v>
       </c>
       <c r="T454" t="n">
         <v>7</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N455" t="n">
         <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T455" t="n">
         <v>7</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="N456" t="n">
         <v>8000</v>
       </c>
       <c r="O456" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P456" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T456" t="n">
         <v>7</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N457" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O457" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P457" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>786</v>
+        <v>2786</v>
       </c>
       <c r="T457" t="n">
         <v>7</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,24 +37000,24 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="N458" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P458" t="n">
-        <v>9750</v>
+        <v>17500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1393</v>
+        <v>2500</v>
       </c>
       <c r="T458" t="n">
         <v>7</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,13 +37084,13 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N459" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
         <v>11000</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
         <v>9000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T460" t="n">
         <v>7</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T461" t="n">
         <v>7</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44320</v>
+        <v>44165</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37324,20 +37324,20 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N462" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1643</v>
+        <v>1393</v>
       </c>
       <c r="T462" t="n">
         <v>7</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="N463" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P463" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T463" t="n">
         <v>7</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N464" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T464" t="n">
         <v>7</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N465" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P465" t="n">
-        <v>4250</v>
+        <v>7000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>607</v>
+        <v>1000</v>
       </c>
       <c r="T465" t="n">
         <v>7</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O466" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P466" t="n">
-        <v>10333</v>
+        <v>11500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1476</v>
+        <v>1643</v>
       </c>
       <c r="T466" t="n">
         <v>7</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="N467" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P467" t="n">
-        <v>8875</v>
+        <v>9500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1268</v>
+        <v>1357</v>
       </c>
       <c r="T467" t="n">
         <v>7</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N468" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O468" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>4250</v>
+        <v>5500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="T468" t="n">
         <v>7</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1150</v>
+        <v>150</v>
       </c>
       <c r="N469" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O469" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P469" t="n">
-        <v>14174</v>
+        <v>4250</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>2025</v>
+        <v>607</v>
       </c>
       <c r="T469" t="n">
         <v>7</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,11 +37960,11 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="N470" t="n">
         <v>10000</v>
@@ -37973,7 +37973,7 @@
         <v>11000</v>
       </c>
       <c r="P470" t="n">
-        <v>10368</v>
+        <v>10333</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="T470" t="n">
         <v>7</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>7500</v>
+        <v>8875</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1071</v>
+        <v>1268</v>
       </c>
       <c r="T471" t="n">
         <v>7</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N472" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O472" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P472" t="n">
-        <v>5500</v>
+        <v>4250</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>786</v>
+        <v>607</v>
       </c>
       <c r="T472" t="n">
         <v>7</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O473" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>13000</v>
+        <v>14174</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1857</v>
+        <v>2025</v>
       </c>
       <c r="T473" t="n">
         <v>7</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P474" t="n">
-        <v>9500</v>
+        <v>10368</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1357</v>
+        <v>1481</v>
       </c>
       <c r="T474" t="n">
         <v>7</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N475" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="T475" t="n">
         <v>7</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44204</v>
+        <v>44475</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1450</v>
+        <v>400</v>
       </c>
       <c r="N476" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P476" t="n">
-        <v>9517</v>
+        <v>5500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1360</v>
+        <v>786</v>
       </c>
       <c r="T476" t="n">
         <v>7</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N477" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O477" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P477" t="n">
-        <v>7600</v>
+        <v>13000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1086</v>
+        <v>1857</v>
       </c>
       <c r="T477" t="n">
         <v>7</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N478" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>4833</v>
+        <v>9500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>690</v>
+        <v>1357</v>
       </c>
       <c r="T478" t="n">
         <v>7</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N479" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P479" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>2000</v>
+        <v>786</v>
       </c>
       <c r="T479" t="n">
         <v>7</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>370</v>
+        <v>1450</v>
       </c>
       <c r="N480" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>11541</v>
+        <v>9517</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1649</v>
+        <v>1360</v>
       </c>
       <c r="T480" t="n">
         <v>7</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N481" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O481" t="n">
         <v>8000</v>
       </c>
-      <c r="O481" t="n">
-        <v>9000</v>
-      </c>
       <c r="P481" t="n">
-        <v>8500</v>
+        <v>7600</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1214</v>
+        <v>1086</v>
       </c>
       <c r="T481" t="n">
         <v>7</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N482" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O482" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P482" t="n">
-        <v>6500</v>
+        <v>4833</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>929</v>
+        <v>690</v>
       </c>
       <c r="T482" t="n">
         <v>7</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N483" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O483" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P483" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>643</v>
+        <v>2000</v>
       </c>
       <c r="T483" t="n">
         <v>7</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,11 +39080,11 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="N484" t="n">
         <v>11000</v>
@@ -39093,7 +39093,7 @@
         <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>11600</v>
+        <v>11541</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="T484" t="n">
         <v>7</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P485" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T485" t="n">
         <v>7</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N486" t="n">
         <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P486" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>857</v>
+        <v>929</v>
       </c>
       <c r="T486" t="n">
         <v>7</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N487" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O487" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P487" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T487" t="n">
         <v>7</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N488" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O488" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>13500</v>
+        <v>11600</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1929</v>
+        <v>1657</v>
       </c>
       <c r="T488" t="n">
         <v>7</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O489" t="n">
         <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T489" t="n">
         <v>7</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N490" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O490" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P490" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1571</v>
+        <v>857</v>
       </c>
       <c r="T490" t="n">
         <v>7</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O491" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P491" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T491" t="n">
         <v>7</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N492" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O492" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P492" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>679</v>
+        <v>1929</v>
       </c>
       <c r="T492" t="n">
         <v>7</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N493" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>2500</v>
+        <v>1357</v>
       </c>
       <c r="T493" t="n">
         <v>7</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N494" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O494" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P494" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>2071</v>
+        <v>1571</v>
       </c>
       <c r="T494" t="n">
         <v>7</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N495" t="n">
         <v>6000</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O496" t="n">
         <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="T496" t="n">
         <v>7</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O497" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P497" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1571</v>
+        <v>2500</v>
       </c>
       <c r="T497" t="n">
         <v>7</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>750</v>
+        <v>360</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O498" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P498" t="n">
-        <v>7600</v>
+        <v>14500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1086</v>
+        <v>2071</v>
       </c>
       <c r="T498" t="n">
         <v>7</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N499" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O499" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>5625</v>
+        <v>6500</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>804</v>
+        <v>929</v>
       </c>
       <c r="T499" t="n">
         <v>7</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N500" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O500" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P500" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>571</v>
+        <v>714</v>
       </c>
       <c r="T500" t="n">
         <v>7</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N501" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O501" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>3571</v>
+        <v>1571</v>
       </c>
       <c r="T501" t="n">
         <v>7</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N502" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O502" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P502" t="n">
-        <v>20000</v>
+        <v>7600</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2857</v>
+        <v>1086</v>
       </c>
       <c r="T502" t="n">
         <v>7</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N503" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>15000</v>
+        <v>5625</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>2143</v>
+        <v>804</v>
       </c>
       <c r="T503" t="n">
         <v>7</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N504" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P504" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T504" t="n">
         <v>7</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O505" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P505" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1214</v>
+        <v>3571</v>
       </c>
       <c r="T505" t="n">
         <v>7</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N506" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O506" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P506" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T506" t="n">
         <v>7</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N507" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O507" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P507" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T507" t="n">
         <v>7</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M508" t="n">
         <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O508" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>2571</v>
+        <v>1429</v>
       </c>
       <c r="T508" t="n">
         <v>7</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P509" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T509" t="n">
         <v>7</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="N510" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O510" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P510" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T510" t="n">
         <v>7</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,11 +41240,11 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N511" t="n">
         <v>20000</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
         <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O512" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P512" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2143</v>
+        <v>2571</v>
       </c>
       <c r="T512" t="n">
         <v>7</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P513" t="n">
-        <v>8700</v>
+        <v>11000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1243</v>
+        <v>1571</v>
       </c>
       <c r="T513" t="n">
         <v>7</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>1800</v>
+        <v>140</v>
       </c>
       <c r="N514" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="O514" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P514" t="n">
-        <v>7194</v>
+        <v>25000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1028</v>
+        <v>3571</v>
       </c>
       <c r="T514" t="n">
         <v>7</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N515" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O515" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P515" t="n">
-        <v>4750</v>
+        <v>20000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>679</v>
+        <v>2857</v>
       </c>
       <c r="T515" t="n">
         <v>7</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N516" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P516" t="n">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>3500</v>
+        <v>2143</v>
       </c>
       <c r="T516" t="n">
         <v>7</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>300</v>
+        <v>2250</v>
       </c>
       <c r="N517" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O517" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>20667</v>
+        <v>8700</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>2952</v>
+        <v>1243</v>
       </c>
       <c r="T517" t="n">
         <v>7</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="N518" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O518" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P518" t="n">
-        <v>15000</v>
+        <v>7194</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>2143</v>
+        <v>1028</v>
       </c>
       <c r="T518" t="n">
         <v>7</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="N519" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="O519" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="P519" t="n">
-        <v>25787</v>
+        <v>4750</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>3684</v>
+        <v>679</v>
       </c>
       <c r="T519" t="n">
         <v>7</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="N520" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O520" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P520" t="n">
-        <v>22139</v>
+        <v>24500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>3163</v>
+        <v>3500</v>
       </c>
       <c r="T520" t="n">
         <v>7</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O521" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P521" t="n">
-        <v>14414</v>
+        <v>20667</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>2059</v>
+        <v>2952</v>
       </c>
       <c r="T521" t="n">
         <v>7</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44377</v>
+        <v>44453</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N522" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O522" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P522" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>2500</v>
+        <v>2143</v>
       </c>
       <c r="T522" t="n">
         <v>7</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>340</v>
+        <v>820</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O523" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P523" t="n">
-        <v>14000</v>
+        <v>25787</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>2000</v>
+        <v>3684</v>
       </c>
       <c r="T523" t="n">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="N524" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="P524" t="n">
-        <v>7000</v>
+        <v>22139</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1000</v>
+        <v>3163</v>
       </c>
       <c r="T524" t="n">
         <v>7</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="N525" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>24500</v>
+        <v>14414</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>3500</v>
+        <v>2059</v>
       </c>
       <c r="T525" t="n">
         <v>7</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N526" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O526" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P526" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>2857</v>
+        <v>2500</v>
       </c>
       <c r="T526" t="n">
         <v>7</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="N527" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
         <v>15000</v>
       </c>
       <c r="P527" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T527" t="n">
         <v>7</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P528" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
         <v>7</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N529" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P529" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1071</v>
+        <v>3500</v>
       </c>
       <c r="T529" t="n">
         <v>7</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O530" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P530" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>643</v>
+        <v>2857</v>
       </c>
       <c r="T530" t="n">
         <v>7</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>1680</v>
+        <v>40</v>
       </c>
       <c r="N531" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O531" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P531" t="n">
-        <v>8021</v>
+        <v>15000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1146</v>
+        <v>2143</v>
       </c>
       <c r="T531" t="n">
         <v>7</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N532" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>6921</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>989</v>
+        <v>1357</v>
       </c>
       <c r="T532" t="n">
         <v>7</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N533" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>686</v>
+        <v>1071</v>
       </c>
       <c r="T533" t="n">
         <v>7</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O534" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P534" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1571</v>
+        <v>643</v>
       </c>
       <c r="T534" t="n">
         <v>7</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>500</v>
+        <v>1680</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>8021</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1286</v>
+        <v>1146</v>
       </c>
       <c r="T535" t="n">
         <v>7</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="N536" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O536" t="n">
         <v>7000</v>
       </c>
       <c r="P536" t="n">
-        <v>7000</v>
+        <v>6921</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="T536" t="n">
         <v>7</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O537" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P537" t="n">
-        <v>12500</v>
+        <v>4800</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1786</v>
+        <v>686</v>
       </c>
       <c r="T537" t="n">
         <v>7</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P538" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T538" t="n">
         <v>7</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N539" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P539" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T539" t="n">
         <v>7</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P540" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="N541" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>9571</v>
+        <v>12500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1367</v>
+        <v>1786</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>1750</v>
+        <v>700</v>
       </c>
       <c r="N542" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>7571</v>
+        <v>9500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1082</v>
+        <v>1357</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N543" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O543" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P543" t="n">
-        <v>5333</v>
+        <v>7500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>762</v>
+        <v>1071</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N544" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O544" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P544" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>571</v>
+        <v>786</v>
       </c>
       <c r="T544" t="n">
         <v>7</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>175</v>
+        <v>2100</v>
       </c>
       <c r="N545" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O545" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P545" t="n">
-        <v>15000</v>
+        <v>9571</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>2143</v>
+        <v>1367</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>175</v>
+        <v>1750</v>
       </c>
       <c r="N546" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P546" t="n">
-        <v>11000</v>
+        <v>7571</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1571</v>
+        <v>1082</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>175</v>
+        <v>900</v>
       </c>
       <c r="N547" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O547" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="P547" t="n">
-        <v>8500</v>
+        <v>5333</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1214</v>
+        <v>762</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N548" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O548" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P548" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>2857</v>
+        <v>571</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="N549" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O549" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P549" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1571</v>
+        <v>2143</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N550" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O550" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N551" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="O551" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="P551" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>2714</v>
+        <v>1214</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N552" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O552" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P552" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>2357</v>
+        <v>2857</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N553" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O553" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P553" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1714</v>
+        <v>1571</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N554" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P554" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,20 +44764,20 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N555" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O555" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P555" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1286</v>
+        <v>2714</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,20 +44844,20 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O556" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P556" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1000</v>
+        <v>2357</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,20 +44924,20 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N557" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O557" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P557" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>714</v>
+        <v>1714</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N558" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O558" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P558" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,24 +45080,24 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N559" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1714</v>
+        <v>1286</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,24 +45160,24 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,24 +45240,24 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="N561" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O561" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>7875</v>
+        <v>5000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N562" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O562" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P562" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>929</v>
+        <v>2000</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N563" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O563" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P563" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>536</v>
+        <v>1714</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N564" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O564" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P564" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>2071</v>
+        <v>1286</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N565" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O565" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P565" t="n">
-        <v>11500</v>
+        <v>7875</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1643</v>
+        <v>1125</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N566" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O566" t="n">
         <v>7000</v>
       </c>
-      <c r="O566" t="n">
-        <v>8000</v>
-      </c>
       <c r="P566" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1071</v>
+        <v>929</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N567" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O567" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P567" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>857</v>
+        <v>536</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N568" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O568" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P568" t="n">
-        <v>12308</v>
+        <v>14500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1758</v>
+        <v>2071</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O569" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1429</v>
+        <v>1643</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,7 +45964,7 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N570" t="n">
         <v>7000</v>
@@ -45973,7 +45973,7 @@
         <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>7403</v>
+        <v>7500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P571" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1143</v>
+        <v>857</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="N572" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>6000</v>
+        <v>12308</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>857</v>
+        <v>1758</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N573" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="N574" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O574" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>12000</v>
+        <v>7403</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1714</v>
+        <v>1058</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N575" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P575" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N576" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O576" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P576" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1929</v>
+        <v>857</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O577" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P577" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1571</v>
+        <v>571</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N578" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O578" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P578" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N579" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N580" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P580" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1357</v>
+        <v>1929</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="N581" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P581" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N582" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O582" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N583" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1071</v>
+        <v>1643</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N584" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O584" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>679</v>
+        <v>1357</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N585" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O585" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P585" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="N586" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O586" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N587" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O587" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P587" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>964</v>
+        <v>1071</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N588" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O588" t="n">
         <v>5000</v>
       </c>
       <c r="P588" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N589" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O589" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P589" t="n">
-        <v>20500</v>
+        <v>3500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>2929</v>
+        <v>500</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="N590" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P590" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>2214</v>
+        <v>1214</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N591" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O591" t="n">
         <v>7000</v>
       </c>
       <c r="P591" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,11 +47720,11 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N592" t="n">
         <v>5000</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N593" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O593" t="n">
         <v>21000</v>
       </c>
-      <c r="O593" t="n">
-        <v>22000</v>
-      </c>
       <c r="P593" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>3071</v>
+        <v>2929</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N594" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O594" t="n">
         <v>16000</v>
       </c>
-      <c r="O594" t="n">
-        <v>17000</v>
-      </c>
       <c r="P594" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>2357</v>
+        <v>2214</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O595" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P595" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O596" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P596" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N597" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O597" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P597" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>2071</v>
+        <v>3071</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O598" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P598" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1571</v>
+        <v>2357</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N599" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N600" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O600" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P600" t="n">
-        <v>11455</v>
+        <v>7000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1636</v>
+        <v>1000</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N601" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>9600</v>
+        <v>14500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>1371</v>
+        <v>2071</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N602" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O602" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P602" t="n">
-        <v>4750</v>
+        <v>11000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>679</v>
+        <v>1571</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N603" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O603" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P603" t="n">
-        <v>19500</v>
+        <v>6000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>2786</v>
+        <v>857</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N604" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O604" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P604" t="n">
-        <v>16500</v>
+        <v>11455</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>2357</v>
+        <v>1636</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,11 +48760,11 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N605" t="n">
         <v>9000</v>
@@ -48773,7 +48773,7 @@
         <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N606" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O606" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P606" t="n">
-        <v>25000</v>
+        <v>4750</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>3571</v>
+        <v>679</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N607" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O607" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P607" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>3286</v>
+        <v>2786</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
         <v>300</v>
       </c>
       <c r="N608" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O608" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P608" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>2929</v>
+        <v>2357</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N609" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O609" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>2429</v>
+        <v>1357</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O610" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P610" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>1571</v>
+        <v>3571</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N611" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="O611" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P611" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49262,11 +49262,11 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1071</v>
+        <v>3286</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="N612" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O612" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P612" t="n">
-        <v>8038</v>
+        <v>20500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1148</v>
+        <v>2929</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N613" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O613" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P613" t="n">
-        <v>4850</v>
+        <v>17000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>693</v>
+        <v>2429</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N614" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P614" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,11 +49560,11 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N615" t="n">
         <v>7000</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="N616" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O616" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P616" t="n">
-        <v>4500</v>
+        <v>8038</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N617" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O617" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P617" t="n">
-        <v>8500</v>
+        <v>4850</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1214</v>
+        <v>693</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N618" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O618" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P618" t="n">
-        <v>4444</v>
+        <v>9000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>635</v>
+        <v>1286</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N619" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O619" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P619" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N620" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O620" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P620" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>2857</v>
+        <v>643</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N621" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O621" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P621" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1400</v>
+        <v>180</v>
       </c>
       <c r="N622" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O622" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P622" t="n">
-        <v>8554</v>
+        <v>4444</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1222</v>
+        <v>635</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1450</v>
+        <v>100</v>
       </c>
       <c r="N623" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="O623" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P623" t="n">
-        <v>7017</v>
+        <v>25000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>1002</v>
+        <v>3571</v>
       </c>
       <c r="T623" t="n">
         <v>7</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N624" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O624" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P624" t="n">
-        <v>4719</v>
+        <v>20000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>674</v>
+        <v>2857</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
         <v>80</v>
       </c>
       <c r="N625" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O625" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P625" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="N626" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O626" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P626" t="n">
-        <v>17000</v>
+        <v>8554</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>2429</v>
+        <v>1222</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>120</v>
+        <v>1450</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P627" t="n">
-        <v>14000</v>
+        <v>7017</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O628" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P628" t="n">
-        <v>9438</v>
+        <v>4719</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1348</v>
+        <v>674</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2100</v>
+        <v>80</v>
       </c>
       <c r="N629" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O629" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P629" t="n">
-        <v>7786</v>
+        <v>20000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1112</v>
+        <v>2857</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="N630" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="O630" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P630" t="n">
-        <v>4769</v>
+        <v>17000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>681</v>
+        <v>2429</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>930</v>
+        <v>120</v>
       </c>
       <c r="N631" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>8796</v>
+        <v>14000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1257</v>
+        <v>2000</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>950</v>
+        <v>1600</v>
       </c>
       <c r="N632" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O632" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P632" t="n">
-        <v>7421</v>
+        <v>9438</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1060</v>
+        <v>1348</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>480</v>
+        <v>2100</v>
       </c>
       <c r="N633" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O633" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P633" t="n">
-        <v>4156</v>
+        <v>7786</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>594</v>
+        <v>1112</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N634" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O634" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P634" t="n">
-        <v>16500</v>
+        <v>4769</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>2357</v>
+        <v>681</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>100</v>
+        <v>930</v>
       </c>
       <c r="N635" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O635" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P635" t="n">
-        <v>6000</v>
+        <v>8796</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>857</v>
+        <v>1257</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="N636" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P636" t="n">
-        <v>10000</v>
+        <v>7421</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1429</v>
+        <v>1060</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N637" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O637" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P637" t="n">
-        <v>8000</v>
+        <v>4156</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1143</v>
+        <v>594</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N638" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O638" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P638" t="n">
-        <v>4750</v>
+        <v>16500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>679</v>
+        <v>2357</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N639" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O639" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P639" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>2071</v>
+        <v>857</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N640" t="n">
         <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T640" t="n">
         <v>7</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N641" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>25400</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>3629</v>
+        <v>1143</v>
       </c>
       <c r="T641" t="n">
         <v>7</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N642" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O642" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P642" t="n">
-        <v>21381</v>
+        <v>4750</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>3054</v>
+        <v>679</v>
       </c>
       <c r="T642" t="n">
         <v>7</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,11 +51800,11 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N643" t="n">
         <v>14000</v>
@@ -51813,22 +51813,342 @@
         <v>15000</v>
       </c>
       <c r="P643" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
+        <v>2071</v>
+      </c>
+      <c r="T643" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>6</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E644" t="n">
+        <v>13</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M644" t="n">
+        <v>400</v>
+      </c>
+      <c r="N644" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O644" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P644" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q644" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S644" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T644" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>6</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E645" t="n">
+        <v>13</v>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M645" t="n">
+        <v>300</v>
+      </c>
+      <c r="N645" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O645" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P645" t="n">
+        <v>25400</v>
+      </c>
+      <c r="Q645" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R645" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S645" t="n">
+        <v>3629</v>
+      </c>
+      <c r="T645" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>6</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D646" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E646" t="n">
+        <v>13</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M646" t="n">
+        <v>210</v>
+      </c>
+      <c r="N646" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O646" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P646" t="n">
+        <v>21381</v>
+      </c>
+      <c r="Q646" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S646" t="n">
+        <v>3054</v>
+      </c>
+      <c r="T646" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>6</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E647" t="n">
+        <v>13</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M647" t="n">
+        <v>90</v>
+      </c>
+      <c r="N647" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O647" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P647" t="n">
         <v>14556</v>
       </c>
-      <c r="Q643" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R643" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S643" t="n">
+      <c r="Q647" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R647" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S647" t="n">
         <v>2079</v>
       </c>
-      <c r="T643" t="n">
+      <c r="T647" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T651"/>
+  <dimension ref="A1:T655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="N576" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O576" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P576" t="n">
-        <v>12308</v>
+        <v>7500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1758</v>
+        <v>1071</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>650</v>
+        <v>1850</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P577" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>620</v>
+        <v>750</v>
       </c>
       <c r="N578" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P578" t="n">
-        <v>7403</v>
+        <v>4000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1058</v>
+        <v>571</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O579" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P579" t="n">
-        <v>8000</v>
+        <v>2828</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1143</v>
+        <v>404</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="N580" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P580" t="n">
-        <v>6000</v>
+        <v>12308</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>857</v>
+        <v>1758</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N581" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="N582" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O582" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>12000</v>
+        <v>7403</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1714</v>
+        <v>1058</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N583" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P583" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N584" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P584" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1929</v>
+        <v>857</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O585" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P585" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>1571</v>
+        <v>571</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O586" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P586" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P587" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N588" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1357</v>
+        <v>1929</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="N589" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P589" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O590" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P590" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N591" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1071</v>
+        <v>1643</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N592" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O592" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P592" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>679</v>
+        <v>1357</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N593" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O593" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P593" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="N594" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O594" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P594" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N595" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O595" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P595" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>964</v>
+        <v>1071</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N596" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O596" t="n">
         <v>5000</v>
       </c>
       <c r="P596" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N597" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O597" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="P597" t="n">
-        <v>20500</v>
+        <v>3500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>2929</v>
+        <v>500</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="N598" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O598" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P598" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>2214</v>
+        <v>1214</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N599" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O599" t="n">
         <v>7000</v>
       </c>
       <c r="P599" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,11 +48360,11 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N600" t="n">
         <v>5000</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N601" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O601" t="n">
         <v>21000</v>
       </c>
-      <c r="O601" t="n">
-        <v>22000</v>
-      </c>
       <c r="P601" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>3071</v>
+        <v>2929</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N602" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O602" t="n">
         <v>16000</v>
       </c>
-      <c r="O602" t="n">
-        <v>17000</v>
-      </c>
       <c r="P602" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>2357</v>
+        <v>2214</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N603" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O603" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P603" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1714</v>
+        <v>929</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N604" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O604" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P604" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N605" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O605" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P605" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>2071</v>
+        <v>3071</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O606" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P606" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1571</v>
+        <v>2357</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N607" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O607" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N608" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O608" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P608" t="n">
-        <v>11455</v>
+        <v>7000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1636</v>
+        <v>1000</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P609" t="n">
-        <v>9600</v>
+        <v>14500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1371</v>
+        <v>2071</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N610" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O610" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>4750</v>
+        <v>11000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>679</v>
+        <v>1571</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N611" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O611" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P611" t="n">
-        <v>19500</v>
+        <v>6000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>2786</v>
+        <v>857</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N612" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O612" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P612" t="n">
-        <v>16500</v>
+        <v>11455</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>2357</v>
+        <v>1636</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,11 +49400,11 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N613" t="n">
         <v>9000</v>
@@ -49413,7 +49413,7 @@
         <v>10000</v>
       </c>
       <c r="P613" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N614" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O614" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P614" t="n">
-        <v>25000</v>
+        <v>4750</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49502,11 +49502,11 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>3571</v>
+        <v>679</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N615" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O615" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P615" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49582,11 +49582,11 @@
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>3286</v>
+        <v>2786</v>
       </c>
       <c r="T615" t="n">
         <v>7</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>300</v>
       </c>
       <c r="N616" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O616" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P616" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>2929</v>
+        <v>2357</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N617" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>2429</v>
+        <v>1357</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N618" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O618" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P618" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49822,11 +49822,11 @@
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1571</v>
+        <v>3571</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N619" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="O619" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P619" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1071</v>
+        <v>3286</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="N620" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O620" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P620" t="n">
-        <v>8038</v>
+        <v>20500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1148</v>
+        <v>2929</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N621" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O621" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P621" t="n">
-        <v>4850</v>
+        <v>17000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>693</v>
+        <v>2429</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N622" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P622" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,11 +50200,11 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N623" t="n">
         <v>7000</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>240</v>
+        <v>1300</v>
       </c>
       <c r="N624" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O624" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P624" t="n">
-        <v>4500</v>
+        <v>8038</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N625" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O625" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P625" t="n">
-        <v>8500</v>
+        <v>4850</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1214</v>
+        <v>693</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P626" t="n">
-        <v>4444</v>
+        <v>9000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>635</v>
+        <v>1286</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N627" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O627" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P627" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N628" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O628" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P628" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>2857</v>
+        <v>643</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="N629" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P629" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1400</v>
+        <v>180</v>
       </c>
       <c r="N630" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O630" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P630" t="n">
-        <v>8554</v>
+        <v>4444</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1222</v>
+        <v>635</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1450</v>
+        <v>100</v>
       </c>
       <c r="N631" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="O631" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P631" t="n">
-        <v>7017</v>
+        <v>25000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1002</v>
+        <v>3571</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N632" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O632" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P632" t="n">
-        <v>4719</v>
+        <v>20000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>674</v>
+        <v>2857</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
         <v>80</v>
       </c>
       <c r="N633" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O633" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P633" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>2857</v>
+        <v>2143</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="N634" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O634" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>17000</v>
+        <v>8554</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>2429</v>
+        <v>1222</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>120</v>
+        <v>1450</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="O635" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P635" t="n">
-        <v>14000</v>
+        <v>7017</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P636" t="n">
-        <v>9438</v>
+        <v>4719</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1348</v>
+        <v>674</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>2100</v>
+        <v>80</v>
       </c>
       <c r="N637" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O637" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P637" t="n">
-        <v>7786</v>
+        <v>20000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1112</v>
+        <v>2857</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="N638" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="O638" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P638" t="n">
-        <v>4769</v>
+        <v>17000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>681</v>
+        <v>2429</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>930</v>
+        <v>120</v>
       </c>
       <c r="N639" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P639" t="n">
-        <v>8796</v>
+        <v>14000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1257</v>
+        <v>2000</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>950</v>
+        <v>1600</v>
       </c>
       <c r="N640" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>7421</v>
+        <v>9438</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1060</v>
+        <v>1348</v>
       </c>
       <c r="T640" t="n">
         <v>7</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>480</v>
+        <v>2100</v>
       </c>
       <c r="N641" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O641" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>4156</v>
+        <v>7786</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>594</v>
+        <v>1112</v>
       </c>
       <c r="T641" t="n">
         <v>7</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N642" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O642" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P642" t="n">
-        <v>16500</v>
+        <v>4769</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>2357</v>
+        <v>681</v>
       </c>
       <c r="T642" t="n">
         <v>7</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>100</v>
+        <v>930</v>
       </c>
       <c r="N643" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O643" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P643" t="n">
-        <v>6000</v>
+        <v>8796</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>857</v>
+        <v>1257</v>
       </c>
       <c r="T643" t="n">
         <v>7</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P644" t="n">
-        <v>10000</v>
+        <v>7421</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1429</v>
+        <v>1060</v>
       </c>
       <c r="T644" t="n">
         <v>7</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>4156</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1143</v>
+        <v>594</v>
       </c>
       <c r="T645" t="n">
         <v>7</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N646" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O646" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P646" t="n">
-        <v>4750</v>
+        <v>16500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>679</v>
+        <v>2357</v>
       </c>
       <c r="T646" t="n">
         <v>7</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N647" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O647" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P647" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>2071</v>
+        <v>857</v>
       </c>
       <c r="T647" t="n">
         <v>7</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N648" t="n">
         <v>10000</v>
       </c>
       <c r="O648" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T648" t="n">
         <v>7</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N649" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>25400</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>3629</v>
+        <v>1143</v>
       </c>
       <c r="T649" t="n">
         <v>7</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N650" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O650" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P650" t="n">
-        <v>21381</v>
+        <v>4750</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>3054</v>
+        <v>679</v>
       </c>
       <c r="T650" t="n">
         <v>7</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,11 +52440,11 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N651" t="n">
         <v>14000</v>
@@ -52453,22 +52453,342 @@
         <v>15000</v>
       </c>
       <c r="P651" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q651" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R651" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S651" t="n">
+        <v>2071</v>
+      </c>
+      <c r="T651" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>6</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E652" t="n">
+        <v>13</v>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G652" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I652" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M652" t="n">
+        <v>400</v>
+      </c>
+      <c r="N652" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O652" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P652" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q652" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R652" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S652" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T652" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>6</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D653" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E653" t="n">
+        <v>13</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G653" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M653" t="n">
+        <v>300</v>
+      </c>
+      <c r="N653" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O653" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P653" t="n">
+        <v>25400</v>
+      </c>
+      <c r="Q653" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R653" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S653" t="n">
+        <v>3629</v>
+      </c>
+      <c r="T653" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>6</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E654" t="n">
+        <v>13</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M654" t="n">
+        <v>210</v>
+      </c>
+      <c r="N654" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O654" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P654" t="n">
+        <v>21381</v>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
+        <v>3054</v>
+      </c>
+      <c r="T654" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>6</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E655" t="n">
+        <v>13</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M655" t="n">
+        <v>90</v>
+      </c>
+      <c r="N655" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O655" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P655" t="n">
         <v>14556</v>
       </c>
-      <c r="Q651" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R651" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S651" t="n">
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
         <v>2079</v>
       </c>
-      <c r="T651" t="n">
+      <c r="T655" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T678"/>
+  <dimension ref="A1:T682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>350</v>
+        <v>3550</v>
       </c>
       <c r="N570" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O570" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P570" t="n">
-        <v>8250</v>
+        <v>6451</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1179</v>
+        <v>922</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>390</v>
+        <v>1550</v>
       </c>
       <c r="N571" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="O571" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P571" t="n">
-        <v>6750</v>
+        <v>4919</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>964</v>
+        <v>703</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46124,17 +46124,17 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N572" t="n">
         <v>3000</v>
       </c>
       <c r="O572" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P572" t="n">
         <v>3500</v>
       </c>
-      <c r="P572" t="n">
-        <v>3250</v>
-      </c>
       <c r="Q572" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N573" t="n">
-        <v>19000</v>
+        <v>2500</v>
       </c>
       <c r="O573" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="P573" t="n">
-        <v>19000</v>
+        <v>2750</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>2714</v>
+        <v>393</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N574" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P574" t="n">
-        <v>16500</v>
+        <v>8250</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>2357</v>
+        <v>1179</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O575" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P575" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1714</v>
+        <v>964</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N576" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P576" t="n">
-        <v>8000</v>
+        <v>3250</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1143</v>
+        <v>464</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N577" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O577" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P577" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1286</v>
+        <v>2714</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="N578" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P578" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>1143</v>
+        <v>2357</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N579" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O579" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P579" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="N580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
         <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P581" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>857</v>
+        <v>1286</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="N582" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O582" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>4250</v>
+        <v>8000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>607</v>
+        <v>1143</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N583" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O583" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P583" t="n">
-        <v>3250</v>
+        <v>6000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>464</v>
+        <v>857</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="N584" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="N585" t="n">
-        <v>23000</v>
+        <v>5500</v>
       </c>
       <c r="O585" t="n">
-        <v>23000</v>
+        <v>6500</v>
       </c>
       <c r="P585" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>3286</v>
+        <v>857</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N586" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O586" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P586" t="n">
-        <v>13500</v>
+        <v>4250</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1929</v>
+        <v>607</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P587" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>1643</v>
+        <v>464</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O588" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P588" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>786</v>
+        <v>3571</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="N589" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O589" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P589" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1929</v>
+        <v>3286</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P590" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1643</v>
+        <v>1929</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="N591" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O591" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>786</v>
+        <v>1643</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N592" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="O592" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P592" t="n">
-        <v>24600</v>
+        <v>5500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>3514</v>
+        <v>786</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N593" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P593" t="n">
-        <v>19625</v>
+        <v>13500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>2804</v>
+        <v>1929</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="N594" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>2143</v>
+        <v>1643</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>3060</v>
+        <v>500</v>
       </c>
       <c r="N595" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O595" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P595" t="n">
-        <v>7676</v>
+        <v>5500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1097</v>
+        <v>786</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="N596" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="O596" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P596" t="n">
-        <v>6500</v>
+        <v>24600</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>929</v>
+        <v>3514</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N597" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="O597" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P597" t="n">
-        <v>4812</v>
+        <v>19625</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>687</v>
+        <v>2804</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>3400</v>
+        <v>180</v>
       </c>
       <c r="N598" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P598" t="n">
-        <v>7515</v>
+        <v>15000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1074</v>
+        <v>2143</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>1300</v>
+        <v>3060</v>
       </c>
       <c r="N599" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O599" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P599" t="n">
-        <v>6173</v>
+        <v>7676</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>882</v>
+        <v>1097</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="N600" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O600" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P600" t="n">
-        <v>4577</v>
+        <v>6500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>654</v>
+        <v>929</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N601" t="n">
-        <v>19000</v>
+        <v>4500</v>
       </c>
       <c r="O601" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P601" t="n">
-        <v>19500</v>
+        <v>4812</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>2786</v>
+        <v>687</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>300</v>
+        <v>3400</v>
       </c>
       <c r="N602" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O602" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P602" t="n">
-        <v>16500</v>
+        <v>7515</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>2357</v>
+        <v>1074</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>160</v>
+        <v>1300</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O603" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P603" t="n">
-        <v>9500</v>
+        <v>6173</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1357</v>
+        <v>882</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>930</v>
+        <v>1300</v>
       </c>
       <c r="N604" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O604" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P604" t="n">
-        <v>8796</v>
+        <v>4577</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>1257</v>
+        <v>654</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N605" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O605" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P605" t="n">
-        <v>7421</v>
+        <v>19500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1060</v>
+        <v>2786</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N606" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O606" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P606" t="n">
-        <v>4156</v>
+        <v>16500</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>594</v>
+        <v>2357</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N607" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O607" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>2071</v>
+        <v>1357</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>400</v>
+        <v>930</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O608" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P608" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>275</v>
+        <v>950</v>
       </c>
       <c r="N609" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O609" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P609" t="n">
-        <v>6727</v>
+        <v>7421</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>961</v>
+        <v>1060</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N610" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P610" t="n">
-        <v>6000</v>
+        <v>4156</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>857</v>
+        <v>594</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49247,13 +49247,13 @@
         <v>300</v>
       </c>
       <c r="N611" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O611" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P611" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>3000</v>
+        <v>2071</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49327,13 +49327,13 @@
         <v>400</v>
       </c>
       <c r="N612" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O612" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>2286</v>
+        <v>1286</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N613" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O613" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P613" t="n">
-        <v>11500</v>
+        <v>6727</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1643</v>
+        <v>961</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="N614" t="n">
         <v>6000</v>
       </c>
       <c r="O614" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P614" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>2250</v>
+        <v>300</v>
       </c>
       <c r="N615" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O615" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="P615" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>714</v>
+        <v>3000</v>
       </c>
       <c r="T615" t="n">
         <v>7</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N616" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O616" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P616" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>500</v>
+        <v>2286</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N617" t="n">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="O617" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="P617" t="n">
-        <v>2250</v>
+        <v>11500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>321</v>
+        <v>1643</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>350</v>
+        <v>2700</v>
       </c>
       <c r="N618" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O618" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P618" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1286</v>
+        <v>929</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>400</v>
+        <v>2250</v>
       </c>
       <c r="N619" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O619" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P619" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N620" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O620" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P620" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="N621" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O621" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P621" t="n">
-        <v>6761</v>
+        <v>2250</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>966</v>
+        <v>321</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1350</v>
+        <v>350</v>
       </c>
       <c r="N622" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P622" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N623" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O623" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P623" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>571</v>
+        <v>1000</v>
       </c>
       <c r="T623" t="n">
         <v>7</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N624" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P624" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>1857</v>
+        <v>714</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P625" t="n">
-        <v>10500</v>
+        <v>6761</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1500</v>
+        <v>966</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>300</v>
+        <v>1350</v>
       </c>
       <c r="N626" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O626" t="n">
         <v>6000</v>
       </c>
-      <c r="O626" t="n">
-        <v>7000</v>
-      </c>
       <c r="P626" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>929</v>
+        <v>786</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="N627" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O627" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P627" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>2857</v>
+        <v>571</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="N628" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O628" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P628" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N629" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1929</v>
+        <v>1500</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N630" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O630" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P630" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1571</v>
+        <v>929</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N631" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O631" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P631" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N632" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O632" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P632" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="N633" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O633" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P633" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>857</v>
+        <v>1929</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N634" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O634" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>571</v>
+        <v>1571</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O635" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P635" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1857</v>
+        <v>857</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P636" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N637" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O637" t="n">
         <v>6000</v>
       </c>
       <c r="P637" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M638" t="n">
         <v>200</v>
       </c>
       <c r="N638" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O638" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P638" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>1286</v>
+        <v>571</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N639" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O639" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P639" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1071</v>
+        <v>1857</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="N640" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T640" t="n">
         <v>7</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N641" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O641" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P641" t="n">
-        <v>8857</v>
+        <v>5500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>1265</v>
+        <v>786</v>
       </c>
       <c r="T641" t="n">
         <v>7</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N642" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O642" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P642" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T642" t="n">
         <v>7</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N643" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O643" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P643" t="n">
-        <v>3812</v>
+        <v>7500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>545</v>
+        <v>1071</v>
       </c>
       <c r="T643" t="n">
         <v>7</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N644" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P644" t="n">
-        <v>9583</v>
+        <v>4500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1369</v>
+        <v>643</v>
       </c>
       <c r="T644" t="n">
         <v>7</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N645" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P645" t="n">
-        <v>7700</v>
+        <v>8857</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="T645" t="n">
         <v>7</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
         <v>500</v>
       </c>
       <c r="N646" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>643</v>
+        <v>1071</v>
       </c>
       <c r="T646" t="n">
         <v>7</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N647" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O647" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P647" t="n">
-        <v>21000</v>
+        <v>3812</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>3000</v>
+        <v>545</v>
       </c>
       <c r="T647" t="n">
         <v>7</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="N648" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O648" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>17500</v>
+        <v>9583</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>2500</v>
+        <v>1369</v>
       </c>
       <c r="T648" t="n">
         <v>7</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N649" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O649" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>12000</v>
+        <v>7700</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1714</v>
+        <v>1100</v>
       </c>
       <c r="T649" t="n">
         <v>7</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N650" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O650" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="P650" t="n">
-        <v>18500</v>
+        <v>4500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>2643</v>
+        <v>643</v>
       </c>
       <c r="T650" t="n">
         <v>7</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
         <v>150</v>
       </c>
       <c r="N651" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O651" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P651" t="n">
-        <v>16750</v>
+        <v>21000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>2393</v>
+        <v>3000</v>
       </c>
       <c r="T651" t="n">
         <v>7</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N652" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O652" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P652" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1714</v>
+        <v>2500</v>
       </c>
       <c r="T652" t="n">
         <v>7</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O653" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P653" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T653" t="n">
         <v>7</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O654" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P654" t="n">
-        <v>9500</v>
+        <v>18500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1357</v>
+        <v>2643</v>
       </c>
       <c r="T654" t="n">
         <v>7</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N655" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O655" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P655" t="n">
-        <v>7000</v>
+        <v>16750</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1000</v>
+        <v>2393</v>
       </c>
       <c r="T655" t="n">
         <v>7</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="N656" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1071</v>
+        <v>1714</v>
       </c>
       <c r="T656" t="n">
         <v>7</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N657" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O657" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T657" t="n">
         <v>7</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N658" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>714</v>
+        <v>1357</v>
       </c>
       <c r="T658" t="n">
         <v>7</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N659" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O659" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P659" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T659" t="n">
         <v>7</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,7 +53164,7 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="N660" t="n">
         <v>7000</v>
@@ -53182,7 +53182,7 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S660" t="n">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53247,13 +53247,13 @@
         <v>300</v>
       </c>
       <c r="N661" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O661" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P661" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T661" t="n">
         <v>7</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N662" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O662" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P662" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1107</v>
+        <v>714</v>
       </c>
       <c r="T662" t="n">
         <v>7</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N663" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O663" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P663" t="n">
-        <v>6600</v>
+        <v>9500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>943</v>
+        <v>1357</v>
       </c>
       <c r="T663" t="n">
         <v>7</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N664" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O664" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P664" t="n">
-        <v>4429</v>
+        <v>7500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>633</v>
+        <v>1071</v>
       </c>
       <c r="T664" t="n">
         <v>7</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O665" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P665" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>536</v>
+        <v>643</v>
       </c>
       <c r="T665" t="n">
         <v>7</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N666" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O666" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>3500</v>
+        <v>1107</v>
       </c>
       <c r="T666" t="n">
         <v>7</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="N667" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O667" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P667" t="n">
-        <v>20000</v>
+        <v>6600</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>2857</v>
+        <v>943</v>
       </c>
       <c r="T667" t="n">
         <v>7</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N668" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O668" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P668" t="n">
-        <v>15000</v>
+        <v>4429</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>2143</v>
+        <v>633</v>
       </c>
       <c r="T668" t="n">
         <v>7</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N669" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O669" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P669" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1143</v>
+        <v>536</v>
       </c>
       <c r="T669" t="n">
         <v>7</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N670" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O670" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P670" t="n">
-        <v>7000</v>
+        <v>24500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="T670" t="n">
         <v>7</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N671" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O671" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P671" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T671" t="n">
         <v>7</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O672" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P672" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T672" t="n">
         <v>7</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,11 +54200,11 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N673" t="n">
         <v>8000</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,11 +54280,11 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N674" t="n">
         <v>7000</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="N675" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O675" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P675" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T675" t="n">
         <v>7</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>1850</v>
+        <v>175</v>
       </c>
       <c r="N676" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O676" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P676" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>786</v>
+        <v>1429</v>
       </c>
       <c r="T676" t="n">
         <v>7</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>750</v>
+        <v>240</v>
       </c>
       <c r="N677" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O677" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P677" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T677" t="n">
         <v>7</v>
@@ -54567,68 +54567,388 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E678" t="n">
+        <v>13</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>200</v>
+      </c>
+      <c r="N678" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T678" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>6</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E678" t="n">
-        <v>13</v>
-      </c>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G678" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I678" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J678" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L678" t="inlineStr">
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N679" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T679" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>6</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N680" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O680" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P680" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>786</v>
+      </c>
+      <c r="T680" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>6</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>750</v>
+      </c>
+      <c r="N681" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O681" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P681" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>571</v>
+      </c>
+      <c r="T681" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>6</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M678" t="n">
+      <c r="M682" t="n">
         <v>580</v>
       </c>
-      <c r="N678" t="n">
+      <c r="N682" t="n">
         <v>2500</v>
       </c>
-      <c r="O678" t="n">
+      <c r="O682" t="n">
         <v>3000</v>
       </c>
-      <c r="P678" t="n">
+      <c r="P682" t="n">
         <v>2828</v>
       </c>
-      <c r="Q678" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R678" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S678" t="n">
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
         <v>404</v>
       </c>
-      <c r="T678" t="n">
+      <c r="T682" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T682"/>
+  <dimension ref="A1:T686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>900</v>
+        <v>2950</v>
       </c>
       <c r="N584" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O584" t="n">
         <v>7000</v>
       </c>
-      <c r="O584" t="n">
-        <v>8000</v>
-      </c>
       <c r="P584" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1071</v>
+        <v>929</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>750</v>
+        <v>2800</v>
       </c>
       <c r="N585" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O585" t="n">
         <v>5500</v>
       </c>
-      <c r="O585" t="n">
-        <v>6500</v>
-      </c>
       <c r="P585" t="n">
-        <v>6000</v>
+        <v>4911</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>857</v>
+        <v>702</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="N586" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O586" t="n">
         <v>4000</v>
       </c>
-      <c r="O586" t="n">
-        <v>4500</v>
-      </c>
       <c r="P586" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>607</v>
+        <v>500</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N587" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O587" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P587" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="N588" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O588" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>3571</v>
+        <v>1071</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="N589" t="n">
-        <v>23000</v>
+        <v>5500</v>
       </c>
       <c r="O589" t="n">
-        <v>23000</v>
+        <v>6500</v>
       </c>
       <c r="P589" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>3286</v>
+        <v>857</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N590" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O590" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P590" t="n">
-        <v>13500</v>
+        <v>4250</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1929</v>
+        <v>607</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N591" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P591" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1643</v>
+        <v>464</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O592" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P592" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>786</v>
+        <v>3571</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="N593" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O593" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P593" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1929</v>
+        <v>3286</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N594" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O594" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1643</v>
+        <v>1929</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="N595" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O595" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P595" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>786</v>
+        <v>1643</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N596" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="O596" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P596" t="n">
-        <v>24600</v>
+        <v>5500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>3514</v>
+        <v>786</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N597" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O597" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P597" t="n">
-        <v>19625</v>
+        <v>13500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>2804</v>
+        <v>1929</v>
       </c>
       <c r="T597" t="n">
         <v>7</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="N598" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>2143</v>
+        <v>1643</v>
       </c>
       <c r="T598" t="n">
         <v>7</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>3060</v>
+        <v>500</v>
       </c>
       <c r="N599" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O599" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P599" t="n">
-        <v>7676</v>
+        <v>5500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1097</v>
+        <v>786</v>
       </c>
       <c r="T599" t="n">
         <v>7</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="N600" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="O600" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P600" t="n">
-        <v>6500</v>
+        <v>24600</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>929</v>
+        <v>3514</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N601" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="O601" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P601" t="n">
-        <v>4812</v>
+        <v>19625</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>687</v>
+        <v>2804</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>3400</v>
+        <v>180</v>
       </c>
       <c r="N602" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O602" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P602" t="n">
-        <v>7515</v>
+        <v>15000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1074</v>
+        <v>2143</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1300</v>
+        <v>3060</v>
       </c>
       <c r="N603" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O603" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P603" t="n">
-        <v>6173</v>
+        <v>7676</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>882</v>
+        <v>1097</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="N604" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O604" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P604" t="n">
-        <v>4577</v>
+        <v>6500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>654</v>
+        <v>929</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N605" t="n">
-        <v>19000</v>
+        <v>4500</v>
       </c>
       <c r="O605" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P605" t="n">
-        <v>19500</v>
+        <v>4812</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>2786</v>
+        <v>687</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>300</v>
+        <v>3400</v>
       </c>
       <c r="N606" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O606" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P606" t="n">
-        <v>16500</v>
+        <v>7515</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>2357</v>
+        <v>1074</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>160</v>
+        <v>1300</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O607" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P607" t="n">
-        <v>9500</v>
+        <v>6173</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1357</v>
+        <v>882</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>930</v>
+        <v>1300</v>
       </c>
       <c r="N608" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O608" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P608" t="n">
-        <v>8796</v>
+        <v>4577</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1257</v>
+        <v>654</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="N609" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O609" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P609" t="n">
-        <v>7421</v>
+        <v>19500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1060</v>
+        <v>2786</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N610" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O610" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P610" t="n">
-        <v>4156</v>
+        <v>16500</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>594</v>
+        <v>2357</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N611" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O611" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P611" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>2071</v>
+        <v>1357</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>400</v>
+        <v>930</v>
       </c>
       <c r="N612" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O612" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P612" t="n">
-        <v>9000</v>
+        <v>8796</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>275</v>
+        <v>950</v>
       </c>
       <c r="N613" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O613" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P613" t="n">
-        <v>6727</v>
+        <v>7421</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>961</v>
+        <v>1060</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N614" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O614" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P614" t="n">
-        <v>6000</v>
+        <v>4156</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>857</v>
+        <v>594</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49567,13 +49567,13 @@
         <v>300</v>
       </c>
       <c r="N615" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O615" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P615" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>3000</v>
+        <v>2071</v>
       </c>
       <c r="T615" t="n">
         <v>7</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49647,13 +49647,13 @@
         <v>400</v>
       </c>
       <c r="N616" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>2286</v>
+        <v>1286</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N617" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O617" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P617" t="n">
-        <v>11500</v>
+        <v>6727</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1643</v>
+        <v>961</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="N618" t="n">
         <v>6000</v>
       </c>
       <c r="O618" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P618" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>2250</v>
+        <v>300</v>
       </c>
       <c r="N619" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O619" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="P619" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>714</v>
+        <v>3000</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N620" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O620" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P620" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>500</v>
+        <v>2286</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N621" t="n">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="O621" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="P621" t="n">
-        <v>2250</v>
+        <v>11500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>321</v>
+        <v>1643</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>350</v>
+        <v>2700</v>
       </c>
       <c r="N622" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O622" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P622" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1286</v>
+        <v>929</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>400</v>
+        <v>2250</v>
       </c>
       <c r="N623" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O623" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P623" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T623" t="n">
         <v>7</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N624" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O624" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P624" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="N625" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O625" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="P625" t="n">
-        <v>6761</v>
+        <v>2250</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>966</v>
+        <v>321</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1350</v>
+        <v>350</v>
       </c>
       <c r="N626" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P626" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N627" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O627" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P627" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>571</v>
+        <v>1000</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N628" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O628" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P628" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1857</v>
+        <v>714</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="N629" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O629" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P629" t="n">
-        <v>10500</v>
+        <v>6761</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1500</v>
+        <v>966</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>1350</v>
       </c>
       <c r="N630" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O630" t="n">
         <v>6000</v>
       </c>
-      <c r="O630" t="n">
-        <v>7000</v>
-      </c>
       <c r="P630" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>929</v>
+        <v>786</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="N631" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O631" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P631" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>2857</v>
+        <v>571</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="N632" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O632" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P632" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N633" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O633" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P633" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1929</v>
+        <v>1500</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N634" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O634" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P634" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1571</v>
+        <v>929</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N635" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O635" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P635" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N636" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O636" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P636" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="N637" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O637" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>857</v>
+        <v>1929</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N638" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O638" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P638" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>571</v>
+        <v>1571</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N639" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O639" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P639" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1857</v>
+        <v>857</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N640" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P640" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T640" t="n">
         <v>7</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N641" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O641" t="n">
         <v>6000</v>
       </c>
       <c r="P641" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T641" t="n">
         <v>7</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M642" t="n">
         <v>200</v>
       </c>
       <c r="N642" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O642" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P642" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1286</v>
+        <v>571</v>
       </c>
       <c r="T642" t="n">
         <v>7</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N643" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O643" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P643" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1071</v>
+        <v>1857</v>
       </c>
       <c r="T643" t="n">
         <v>7</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="N644" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O644" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>643</v>
+        <v>1357</v>
       </c>
       <c r="T644" t="n">
         <v>7</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N645" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O645" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P645" t="n">
-        <v>8857</v>
+        <v>5500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1265</v>
+        <v>786</v>
       </c>
       <c r="T645" t="n">
         <v>7</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N646" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O646" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P646" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T646" t="n">
         <v>7</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N647" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O647" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P647" t="n">
-        <v>3812</v>
+        <v>7500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>545</v>
+        <v>1071</v>
       </c>
       <c r="T647" t="n">
         <v>7</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N648" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P648" t="n">
-        <v>9583</v>
+        <v>4500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1369</v>
+        <v>643</v>
       </c>
       <c r="T648" t="n">
         <v>7</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N649" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O649" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P649" t="n">
-        <v>7700</v>
+        <v>8857</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1100</v>
+        <v>1265</v>
       </c>
       <c r="T649" t="n">
         <v>7</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
         <v>500</v>
       </c>
       <c r="N650" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O650" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P650" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>643</v>
+        <v>1071</v>
       </c>
       <c r="T650" t="n">
         <v>7</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N651" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O651" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="P651" t="n">
-        <v>21000</v>
+        <v>3812</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>3000</v>
+        <v>545</v>
       </c>
       <c r="T651" t="n">
         <v>7</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="N652" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O652" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P652" t="n">
-        <v>17500</v>
+        <v>9583</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>2500</v>
+        <v>1369</v>
       </c>
       <c r="T652" t="n">
         <v>7</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N653" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>12000</v>
+        <v>7700</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1714</v>
+        <v>1100</v>
       </c>
       <c r="T653" t="n">
         <v>7</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N654" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O654" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="P654" t="n">
-        <v>18500</v>
+        <v>4500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>2643</v>
+        <v>643</v>
       </c>
       <c r="T654" t="n">
         <v>7</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
         <v>150</v>
       </c>
       <c r="N655" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O655" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P655" t="n">
-        <v>16750</v>
+        <v>21000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>2393</v>
+        <v>3000</v>
       </c>
       <c r="T655" t="n">
         <v>7</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N656" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O656" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P656" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1714</v>
+        <v>2500</v>
       </c>
       <c r="T656" t="n">
         <v>7</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O657" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P657" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T657" t="n">
         <v>7</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N658" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P658" t="n">
-        <v>9500</v>
+        <v>18500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1357</v>
+        <v>2643</v>
       </c>
       <c r="T658" t="n">
         <v>7</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N659" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O659" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P659" t="n">
-        <v>7000</v>
+        <v>16750</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1000</v>
+        <v>2393</v>
       </c>
       <c r="T659" t="n">
         <v>7</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="N660" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1071</v>
+        <v>1714</v>
       </c>
       <c r="T660" t="n">
         <v>7</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N661" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O661" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P661" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T661" t="n">
         <v>7</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N662" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O662" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>714</v>
+        <v>1357</v>
       </c>
       <c r="T662" t="n">
         <v>7</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N663" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O663" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P663" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T663" t="n">
         <v>7</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53484,7 +53484,7 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="N664" t="n">
         <v>7000</v>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S664" t="n">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53567,13 +53567,13 @@
         <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O665" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P665" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T665" t="n">
         <v>7</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N666" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P666" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1107</v>
+        <v>714</v>
       </c>
       <c r="T666" t="n">
         <v>7</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N667" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O667" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>6600</v>
+        <v>9500</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>943</v>
+        <v>1357</v>
       </c>
       <c r="T667" t="n">
         <v>7</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N668" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O668" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P668" t="n">
-        <v>4429</v>
+        <v>7500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>633</v>
+        <v>1071</v>
       </c>
       <c r="T668" t="n">
         <v>7</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N669" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O669" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P669" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>536</v>
+        <v>643</v>
       </c>
       <c r="T669" t="n">
         <v>7</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N670" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O670" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P670" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>3500</v>
+        <v>1107</v>
       </c>
       <c r="T670" t="n">
         <v>7</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="N671" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O671" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P671" t="n">
-        <v>20000</v>
+        <v>6600</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>2857</v>
+        <v>943</v>
       </c>
       <c r="T671" t="n">
         <v>7</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N672" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O672" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P672" t="n">
-        <v>15000</v>
+        <v>4429</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>2143</v>
+        <v>633</v>
       </c>
       <c r="T672" t="n">
         <v>7</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N673" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P673" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1143</v>
+        <v>536</v>
       </c>
       <c r="T673" t="n">
         <v>7</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N674" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O674" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P674" t="n">
-        <v>7000</v>
+        <v>24500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="T674" t="n">
         <v>7</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N675" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O675" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P675" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T675" t="n">
         <v>7</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O676" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P676" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T676" t="n">
         <v>7</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,11 +54520,11 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N677" t="n">
         <v>8000</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,11 +54600,11 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N678" t="n">
         <v>7000</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="N679" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O679" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P679" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T679" t="n">
         <v>7</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>1850</v>
+        <v>175</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O680" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P680" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>786</v>
+        <v>1429</v>
       </c>
       <c r="T680" t="n">
         <v>7</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>750</v>
+        <v>240</v>
       </c>
       <c r="N681" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O681" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P681" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T681" t="n">
         <v>7</v>
@@ -54887,68 +54887,388 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>200</v>
+      </c>
+      <c r="N682" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O682" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T682" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>6</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E682" t="n">
-        <v>13</v>
-      </c>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G682" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I682" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J682" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M683" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N683" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O683" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P683" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q683" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S683" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T683" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>6</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M684" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N684" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O684" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P684" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q684" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S684" t="n">
+        <v>786</v>
+      </c>
+      <c r="T684" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>6</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M685" t="n">
+        <v>750</v>
+      </c>
+      <c r="N685" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O685" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P685" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q685" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S685" t="n">
+        <v>571</v>
+      </c>
+      <c r="T685" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>6</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M682" t="n">
+      <c r="M686" t="n">
         <v>580</v>
       </c>
-      <c r="N682" t="n">
+      <c r="N686" t="n">
         <v>2500</v>
       </c>
-      <c r="O682" t="n">
+      <c r="O686" t="n">
         <v>3000</v>
       </c>
-      <c r="P682" t="n">
+      <c r="P686" t="n">
         <v>2828</v>
       </c>
-      <c r="Q682" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R682" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S682" t="n">
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
         <v>404</v>
       </c>
-      <c r="T682" t="n">
+      <c r="T686" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T686"/>
+  <dimension ref="A1:T689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="N540" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>2071</v>
+        <v>1071</v>
       </c>
       <c r="T540" t="n">
         <v>7</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="N541" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O541" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P541" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1571</v>
+        <v>786</v>
       </c>
       <c r="T541" t="n">
         <v>7</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="N542" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O542" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P542" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>857</v>
+        <v>571</v>
       </c>
       <c r="T542" t="n">
         <v>7</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N543" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O543" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P543" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1857</v>
+        <v>2071</v>
       </c>
       <c r="T543" t="n">
         <v>7</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,13 +43884,13 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P544" t="n">
         <v>11000</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43967,13 +43967,13 @@
         <v>180</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O545" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P545" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1286</v>
+        <v>857</v>
       </c>
       <c r="T545" t="n">
         <v>7</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P546" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1500</v>
+        <v>1857</v>
       </c>
       <c r="T546" t="n">
         <v>7</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P547" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T547" t="n">
         <v>7</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N548" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T548" t="n">
         <v>7</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="N549" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O549" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>7875</v>
+        <v>10500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1125</v>
+        <v>1500</v>
       </c>
       <c r="T549" t="n">
         <v>7</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="N550" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>929</v>
+        <v>1357</v>
       </c>
       <c r="T550" t="n">
         <v>7</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="N551" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O551" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P551" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>536</v>
+        <v>929</v>
       </c>
       <c r="T551" t="n">
         <v>7</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O552" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P552" t="n">
-        <v>9000</v>
+        <v>7875</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1286</v>
+        <v>1125</v>
       </c>
       <c r="T552" t="n">
         <v>7</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N553" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O553" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P553" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1071</v>
+        <v>929</v>
       </c>
       <c r="T553" t="n">
         <v>7</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="N554" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O554" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P554" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>714</v>
+        <v>536</v>
       </c>
       <c r="T554" t="n">
         <v>7</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="N555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P555" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>2000</v>
+        <v>1286</v>
       </c>
       <c r="T555" t="n">
         <v>7</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N556" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O556" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P556" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1571</v>
+        <v>1071</v>
       </c>
       <c r="T556" t="n">
         <v>7</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N557" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P557" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T557" t="n">
         <v>7</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
         <v>200</v>
       </c>
       <c r="N558" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O558" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P558" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T558" t="n">
         <v>7</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N559" t="n">
         <v>11000</v>
       </c>
       <c r="O559" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P559" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1643</v>
+        <v>1571</v>
       </c>
       <c r="T559" t="n">
         <v>7</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N560" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T560" t="n">
         <v>7</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M561" t="n">
         <v>200</v>
       </c>
       <c r="N561" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O561" t="n">
         <v>5000</v>
       </c>
       <c r="P561" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="T561" t="n">
         <v>7</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N562" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O562" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P562" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2786</v>
+        <v>1643</v>
       </c>
       <c r="T562" t="n">
         <v>7</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N563" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>2214</v>
+        <v>1357</v>
       </c>
       <c r="T563" t="n">
         <v>7</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P564" t="n">
-        <v>11000</v>
+        <v>4750</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1571</v>
+        <v>679</v>
       </c>
       <c r="T564" t="n">
         <v>7</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N565" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P565" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1143</v>
+        <v>2786</v>
       </c>
       <c r="T565" t="n">
         <v>7</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N566" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P566" t="n">
-        <v>11600</v>
+        <v>15500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1657</v>
+        <v>2214</v>
       </c>
       <c r="T566" t="n">
         <v>7</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N567" t="n">
         <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T567" t="n">
         <v>7</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N568" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>857</v>
+        <v>1143</v>
       </c>
       <c r="T568" t="n">
         <v>7</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N569" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O569" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>5000</v>
+        <v>11600</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>714</v>
+        <v>1657</v>
       </c>
       <c r="T569" t="n">
         <v>7</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>3550</v>
+        <v>200</v>
       </c>
       <c r="N570" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>6451</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>922</v>
+        <v>1429</v>
       </c>
       <c r="T570" t="n">
         <v>7</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1550</v>
+        <v>150</v>
       </c>
       <c r="N571" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O571" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P571" t="n">
-        <v>4919</v>
+        <v>6000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="T571" t="n">
         <v>7</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="N572" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O572" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P572" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T572" t="n">
         <v>7</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>3550</v>
       </c>
       <c r="N573" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O573" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P573" t="n">
-        <v>2750</v>
+        <v>6451</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>393</v>
+        <v>922</v>
       </c>
       <c r="T573" t="n">
         <v>7</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>350</v>
+        <v>1550</v>
       </c>
       <c r="N574" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O574" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="P574" t="n">
-        <v>8250</v>
+        <v>4919</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1179</v>
+        <v>703</v>
       </c>
       <c r="T574" t="n">
         <v>7</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>390</v>
+        <v>1200</v>
       </c>
       <c r="N575" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O575" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P575" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>964</v>
+        <v>500</v>
       </c>
       <c r="T575" t="n">
         <v>7</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N576" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O576" t="n">
         <v>3000</v>
       </c>
-      <c r="O576" t="n">
-        <v>3500</v>
-      </c>
       <c r="P576" t="n">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="T576" t="n">
         <v>7</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="N577" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O577" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="P577" t="n">
-        <v>19000</v>
+        <v>8250</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>2714</v>
+        <v>1179</v>
       </c>
       <c r="T577" t="n">
         <v>7</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="N578" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="O578" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P578" t="n">
-        <v>16500</v>
+        <v>6750</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>2357</v>
+        <v>964</v>
       </c>
       <c r="T578" t="n">
         <v>7</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P579" t="n">
-        <v>12000</v>
+        <v>3250</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>1714</v>
+        <v>464</v>
       </c>
       <c r="T579" t="n">
         <v>7</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N580" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O580" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P580" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1143</v>
+        <v>2714</v>
       </c>
       <c r="T580" t="n">
         <v>7</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N581" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O581" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P581" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1286</v>
+        <v>2357</v>
       </c>
       <c r="T581" t="n">
         <v>7</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="N582" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P582" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T582" t="n">
         <v>7</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N583" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P583" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>857</v>
+        <v>1143</v>
       </c>
       <c r="T583" t="n">
         <v>7</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>2950</v>
+        <v>100</v>
       </c>
       <c r="N584" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O584" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P584" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="T584" t="n">
         <v>7</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>2800</v>
+        <v>275</v>
       </c>
       <c r="N585" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>4911</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>702</v>
+        <v>1143</v>
       </c>
       <c r="T585" t="n">
         <v>7</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N586" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O586" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P586" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T586" t="n">
         <v>7</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>500</v>
+        <v>2950</v>
       </c>
       <c r="N587" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O587" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P587" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>321</v>
+        <v>929</v>
       </c>
       <c r="T587" t="n">
         <v>7</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="N588" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O588" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P588" t="n">
-        <v>7500</v>
+        <v>4911</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1071</v>
+        <v>702</v>
       </c>
       <c r="T588" t="n">
         <v>7</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="N589" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="O589" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P589" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
       <c r="T589" t="n">
         <v>7</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N590" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O590" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P590" t="n">
-        <v>4250</v>
+        <v>2250</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>607</v>
+        <v>321</v>
       </c>
       <c r="T590" t="n">
         <v>7</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N591" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O591" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P591" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="T591" t="n">
         <v>7</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="N592" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="O592" t="n">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="P592" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>3571</v>
+        <v>857</v>
       </c>
       <c r="T592" t="n">
         <v>7</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="N593" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="O593" t="n">
-        <v>23000</v>
+        <v>4500</v>
       </c>
       <c r="P593" t="n">
-        <v>23000</v>
+        <v>4250</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Cardenal Caro</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>3286</v>
+        <v>607</v>
       </c>
       <c r="T593" t="n">
         <v>7</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N594" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O594" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P594" t="n">
-        <v>13500</v>
+        <v>3250</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1929</v>
+        <v>464</v>
       </c>
       <c r="T594" t="n">
         <v>7</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>640</v>
+        <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O595" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P595" t="n">
-        <v>11500</v>
+        <v>25000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>1643</v>
+        <v>3571</v>
       </c>
       <c r="T595" t="n">
         <v>7</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="N596" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="O596" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="P596" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cardenal Caro</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="T596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,7 +48124,7 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N597" t="n">
         <v>13000</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,7 +48204,7 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="N598" t="n">
         <v>11000</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,7 +48284,7 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N599" t="n">
         <v>5000</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N600" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O600" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P600" t="n">
-        <v>24600</v>
+        <v>13500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>3514</v>
+        <v>1929</v>
       </c>
       <c r="T600" t="n">
         <v>7</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N601" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O601" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P601" t="n">
-        <v>19625</v>
+        <v>11500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>2804</v>
+        <v>1643</v>
       </c>
       <c r="T601" t="n">
         <v>7</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N602" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O602" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P602" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>2143</v>
+        <v>786</v>
       </c>
       <c r="T602" t="n">
         <v>7</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>3060</v>
+        <v>500</v>
       </c>
       <c r="N603" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P603" t="n">
-        <v>7676</v>
+        <v>24600</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1097</v>
+        <v>3514</v>
       </c>
       <c r="T603" t="n">
         <v>7</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1550</v>
+        <v>400</v>
       </c>
       <c r="N604" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O604" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P604" t="n">
-        <v>6500</v>
+        <v>19625</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>929</v>
+        <v>2804</v>
       </c>
       <c r="T604" t="n">
         <v>7</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N605" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O605" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P605" t="n">
-        <v>4812</v>
+        <v>15000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>687</v>
+        <v>2143</v>
       </c>
       <c r="T605" t="n">
         <v>7</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>3400</v>
+        <v>3060</v>
       </c>
       <c r="N606" t="n">
         <v>7000</v>
@@ -48853,7 +48853,7 @@
         <v>8000</v>
       </c>
       <c r="P606" t="n">
-        <v>7515</v>
+        <v>7676</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1074</v>
+        <v>1097</v>
       </c>
       <c r="T606" t="n">
         <v>7</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48924,17 +48924,17 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="N607" t="n">
         <v>6000</v>
       </c>
       <c r="O607" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P607" t="n">
         <v>6500</v>
       </c>
-      <c r="P607" t="n">
-        <v>6173</v>
-      </c>
       <c r="Q607" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>882</v>
+        <v>929</v>
       </c>
       <c r="T607" t="n">
         <v>7</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="N608" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O608" t="n">
         <v>5000</v>
       </c>
       <c r="P608" t="n">
-        <v>4577</v>
+        <v>4812</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="T608" t="n">
         <v>7</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>200</v>
+        <v>3400</v>
       </c>
       <c r="N609" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O609" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P609" t="n">
-        <v>19500</v>
+        <v>7515</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>2786</v>
+        <v>1074</v>
       </c>
       <c r="T609" t="n">
         <v>7</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="N610" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O610" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P610" t="n">
-        <v>16500</v>
+        <v>6173</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>2357</v>
+        <v>882</v>
       </c>
       <c r="T610" t="n">
         <v>7</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>160</v>
+        <v>1300</v>
       </c>
       <c r="N611" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O611" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P611" t="n">
-        <v>9500</v>
+        <v>4577</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1357</v>
+        <v>654</v>
       </c>
       <c r="T611" t="n">
         <v>7</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>930</v>
+        <v>200</v>
       </c>
       <c r="N612" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O612" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P612" t="n">
-        <v>8796</v>
+        <v>19500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1257</v>
+        <v>2786</v>
       </c>
       <c r="T612" t="n">
         <v>7</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="N613" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O613" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P613" t="n">
-        <v>7421</v>
+        <v>16500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1060</v>
+        <v>2357</v>
       </c>
       <c r="T613" t="n">
         <v>7</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="N614" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O614" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P614" t="n">
-        <v>4156</v>
+        <v>9500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>594</v>
+        <v>1357</v>
       </c>
       <c r="T614" t="n">
         <v>7</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>300</v>
+        <v>930</v>
       </c>
       <c r="N615" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O615" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P615" t="n">
-        <v>14500</v>
+        <v>8796</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>2071</v>
+        <v>1257</v>
       </c>
       <c r="T615" t="n">
         <v>7</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="N616" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O616" t="n">
         <v>8000</v>
       </c>
-      <c r="O616" t="n">
-        <v>10000</v>
-      </c>
       <c r="P616" t="n">
-        <v>9000</v>
+        <v>7421</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1286</v>
+        <v>1060</v>
       </c>
       <c r="T616" t="n">
         <v>7</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="N617" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O617" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P617" t="n">
-        <v>6727</v>
+        <v>4156</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>961</v>
+        <v>594</v>
       </c>
       <c r="T617" t="n">
         <v>7</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N618" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O618" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P618" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>857</v>
+        <v>2071</v>
       </c>
       <c r="T618" t="n">
         <v>7</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N619" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O619" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>3000</v>
+        <v>1286</v>
       </c>
       <c r="T619" t="n">
         <v>7</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N620" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O620" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P620" t="n">
-        <v>16000</v>
+        <v>6727</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>2286</v>
+        <v>961</v>
       </c>
       <c r="T620" t="n">
         <v>7</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N621" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O621" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P621" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>1643</v>
+        <v>857</v>
       </c>
       <c r="T621" t="n">
         <v>7</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="N622" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O622" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P622" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>929</v>
+        <v>3000</v>
       </c>
       <c r="T622" t="n">
         <v>7</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>2250</v>
+        <v>400</v>
       </c>
       <c r="N623" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O623" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="P623" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>714</v>
+        <v>2286</v>
       </c>
       <c r="T623" t="n">
         <v>7</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N624" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O624" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P624" t="n">
-        <v>3500</v>
+        <v>11500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>500</v>
+        <v>1643</v>
       </c>
       <c r="T624" t="n">
         <v>7</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>600</v>
+        <v>2700</v>
       </c>
       <c r="N625" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O625" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P625" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>321</v>
+        <v>929</v>
       </c>
       <c r="T625" t="n">
         <v>7</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>350</v>
+        <v>2250</v>
       </c>
       <c r="N626" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O626" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P626" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T626" t="n">
         <v>7</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N627" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O627" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P627" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T627" t="n">
         <v>7</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N628" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O628" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P628" t="n">
-        <v>5000</v>
+        <v>2250</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>714</v>
+        <v>321</v>
       </c>
       <c r="T628" t="n">
         <v>7</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="N629" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O629" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P629" t="n">
-        <v>6761</v>
+        <v>9000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>966</v>
+        <v>1286</v>
       </c>
       <c r="T629" t="n">
         <v>7</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="N630" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O630" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P630" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T630" t="n">
         <v>7</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N631" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O631" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P631" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>571</v>
+        <v>714</v>
       </c>
       <c r="T631" t="n">
         <v>7</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50924,16 +50924,16 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="N632" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O632" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P632" t="n">
-        <v>13000</v>
+        <v>6761</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1857</v>
+        <v>966</v>
       </c>
       <c r="T632" t="n">
         <v>7</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>200</v>
+        <v>1350</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O633" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P633" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1500</v>
+        <v>786</v>
       </c>
       <c r="T633" t="n">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N634" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O634" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P634" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>929</v>
+        <v>571</v>
       </c>
       <c r="T634" t="n">
         <v>7</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="N635" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O635" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P635" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>2857</v>
+        <v>1857</v>
       </c>
       <c r="T635" t="n">
         <v>7</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N636" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P636" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>2143</v>
+        <v>1500</v>
       </c>
       <c r="T636" t="n">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N637" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O637" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P637" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1929</v>
+        <v>929</v>
       </c>
       <c r="T637" t="n">
         <v>7</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="N638" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O638" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P638" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T638" t="n">
         <v>7</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N639" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O639" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T639" t="n">
         <v>7</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N640" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O640" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P640" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1143</v>
+        <v>1929</v>
       </c>
       <c r="T640" t="n">
         <v>7</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="N641" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O641" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P641" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>857</v>
+        <v>1571</v>
       </c>
       <c r="T641" t="n">
         <v>7</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N642" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O642" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P642" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>571</v>
+        <v>857</v>
       </c>
       <c r="T642" t="n">
         <v>7</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N643" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O643" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P643" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T643" t="n">
         <v>7</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="N644" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P644" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1357</v>
+        <v>857</v>
       </c>
       <c r="T644" t="n">
         <v>7</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N645" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O645" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P645" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>786</v>
+        <v>571</v>
       </c>
       <c r="T645" t="n">
         <v>7</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N646" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O646" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P646" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1286</v>
+        <v>1857</v>
       </c>
       <c r="T646" t="n">
         <v>7</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N647" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O647" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P647" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T647" t="n">
         <v>7</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N648" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O648" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P648" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T648" t="n">
         <v>7</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O649" t="n">
         <v>9000</v>
       </c>
       <c r="P649" t="n">
-        <v>8857</v>
+        <v>9000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1265</v>
+        <v>1286</v>
       </c>
       <c r="T649" t="n">
         <v>7</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N651" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O651" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P651" t="n">
-        <v>3812</v>
+        <v>4500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="T651" t="n">
         <v>7</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N652" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O652" t="n">
         <v>9000</v>
       </c>
-      <c r="O652" t="n">
-        <v>10000</v>
-      </c>
       <c r="P652" t="n">
-        <v>9583</v>
+        <v>8857</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1369</v>
+        <v>1265</v>
       </c>
       <c r="T652" t="n">
         <v>7</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52604,7 +52604,7 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N653" t="n">
         <v>7000</v>
@@ -52613,7 +52613,7 @@
         <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T653" t="n">
         <v>7</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N654" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O654" t="n">
         <v>4000</v>
       </c>
-      <c r="O654" t="n">
-        <v>5000</v>
-      </c>
       <c r="P654" t="n">
-        <v>4500</v>
+        <v>3812</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>643</v>
+        <v>545</v>
       </c>
       <c r="T654" t="n">
         <v>7</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N655" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>21000</v>
+        <v>9583</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>3000</v>
+        <v>1369</v>
       </c>
       <c r="T655" t="n">
         <v>7</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="N656" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O656" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>17500</v>
+        <v>7700</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="T656" t="n">
         <v>7</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N657" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P657" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1714</v>
+        <v>643</v>
       </c>
       <c r="T657" t="n">
         <v>7</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N658" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O658" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P658" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>2643</v>
+        <v>3000</v>
       </c>
       <c r="T658" t="n">
         <v>7</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N659" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O659" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P659" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T659" t="n">
         <v>7</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,7 +53164,7 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N660" t="n">
         <v>12000</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N661" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O661" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P661" t="n">
-        <v>9000</v>
+        <v>18500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1286</v>
+        <v>2643</v>
       </c>
       <c r="T661" t="n">
         <v>7</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N662" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="O662" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P662" t="n">
-        <v>9500</v>
+        <v>16750</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1357</v>
+        <v>2393</v>
       </c>
       <c r="T662" t="n">
         <v>7</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T663" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="N664" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O664" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P664" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>1071</v>
+        <v>1286</v>
       </c>
       <c r="T664" t="n">
         <v>7</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
         <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O665" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P665" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T665" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T666" t="n">
         <v>7</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="N667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O667" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P667" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1357</v>
+        <v>1071</v>
       </c>
       <c r="T667" t="n">
         <v>7</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N668" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O668" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P668" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T668" t="n">
         <v>7</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N669" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O669" t="n">
         <v>5000</v>
       </c>
       <c r="P669" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T669" t="n">
         <v>7</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N670" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O670" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P670" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1107</v>
+        <v>1357</v>
       </c>
       <c r="T670" t="n">
         <v>7</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N671" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O671" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P671" t="n">
-        <v>6600</v>
+        <v>7500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>943</v>
+        <v>1071</v>
       </c>
       <c r="T671" t="n">
         <v>7</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,7 +54124,7 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N672" t="n">
         <v>4000</v>
@@ -54133,7 +54133,7 @@
         <v>5000</v>
       </c>
       <c r="P672" t="n">
-        <v>4429</v>
+        <v>4500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="T672" t="n">
         <v>7</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N673" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O673" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P673" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="T673" t="n">
         <v>7</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N674" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="O674" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P674" t="n">
-        <v>24500</v>
+        <v>6600</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>3500</v>
+        <v>943</v>
       </c>
       <c r="T674" t="n">
         <v>7</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N675" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O675" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P675" t="n">
-        <v>20000</v>
+        <v>4429</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>2857</v>
+        <v>633</v>
       </c>
       <c r="T675" t="n">
         <v>7</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N676" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O676" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P676" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>2143</v>
+        <v>536</v>
       </c>
       <c r="T676" t="n">
         <v>7</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N677" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O677" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P677" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1143</v>
+        <v>3500</v>
       </c>
       <c r="T677" t="n">
         <v>7</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N678" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O678" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P678" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T678" t="n">
         <v>7</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N679" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O679" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P679" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>714</v>
+        <v>2143</v>
       </c>
       <c r="T679" t="n">
         <v>7</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N680" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O680" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P680" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T680" t="n">
         <v>7</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N681" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O681" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P681" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T681" t="n">
         <v>7</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N682" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O682" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P682" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T682" t="n">
         <v>7</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>2400</v>
+        <v>175</v>
       </c>
       <c r="N683" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O683" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P683" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T683" t="n">
         <v>7</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>1850</v>
+        <v>240</v>
       </c>
       <c r="N684" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O684" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P684" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T684" t="n">
         <v>7</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N685" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O685" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P685" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>571</v>
+        <v>1000</v>
       </c>
       <c r="T685" t="n">
         <v>7</v>
@@ -55240,35 +55240,275 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M686" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N686" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O686" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P686" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T686" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>6</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M687" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N687" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O687" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P687" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q687" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S687" t="n">
+        <v>786</v>
+      </c>
+      <c r="T687" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M688" t="n">
+        <v>750</v>
+      </c>
+      <c r="N688" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O688" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P688" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q688" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S688" t="n">
+        <v>571</v>
+      </c>
+      <c r="T688" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>6</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M686" t="n">
+      <c r="M689" t="n">
         <v>580</v>
       </c>
-      <c r="N686" t="n">
+      <c r="N689" t="n">
         <v>2500</v>
       </c>
-      <c r="O686" t="n">
+      <c r="O689" t="n">
         <v>3000</v>
       </c>
-      <c r="P686" t="n">
+      <c r="P689" t="n">
         <v>2828</v>
       </c>
-      <c r="Q686" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R686" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S686" t="n">
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
         <v>404</v>
       </c>
-      <c r="T686" t="n">
+      <c r="T689" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T689"/>
+  <dimension ref="A1:T693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>150</v>
+        <v>2200</v>
       </c>
       <c r="N658" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O658" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P658" t="n">
-        <v>21000</v>
+        <v>6420</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>3000</v>
+        <v>917</v>
       </c>
       <c r="T658" t="n">
         <v>7</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="N659" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O659" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P659" t="n">
-        <v>17500</v>
+        <v>5188</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>2500</v>
+        <v>741</v>
       </c>
       <c r="T659" t="n">
         <v>7</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>100</v>
+        <v>1450</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P660" t="n">
-        <v>12000</v>
+        <v>3879</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1714</v>
+        <v>554</v>
       </c>
       <c r="T660" t="n">
         <v>7</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N661" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O661" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="P661" t="n">
-        <v>18500</v>
+        <v>2750</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>2643</v>
+        <v>393</v>
       </c>
       <c r="T661" t="n">
         <v>7</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
         <v>150</v>
       </c>
       <c r="N662" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O662" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P662" t="n">
-        <v>16750</v>
+        <v>21000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>2393</v>
+        <v>3000</v>
       </c>
       <c r="T662" t="n">
         <v>7</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N663" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O663" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P663" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1714</v>
+        <v>2500</v>
       </c>
       <c r="T663" t="n">
         <v>7</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N664" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O664" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P664" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>1286</v>
+        <v>1714</v>
       </c>
       <c r="T664" t="n">
         <v>7</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N665" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P665" t="n">
-        <v>9500</v>
+        <v>18500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1357</v>
+        <v>2643</v>
       </c>
       <c r="T665" t="n">
         <v>7</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N666" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O666" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P666" t="n">
-        <v>7000</v>
+        <v>16750</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1000</v>
+        <v>2393</v>
       </c>
       <c r="T666" t="n">
         <v>7</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="N667" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O667" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P667" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de San Antonio</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1071</v>
+        <v>1714</v>
       </c>
       <c r="T667" t="n">
         <v>7</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N668" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O668" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P668" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T668" t="n">
         <v>7</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N669" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O669" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P669" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>714</v>
+        <v>1357</v>
       </c>
       <c r="T669" t="n">
         <v>7</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N670" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O670" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P670" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T670" t="n">
         <v>7</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,7 +54044,7 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="N671" t="n">
         <v>7000</v>
@@ -54062,7 +54062,7 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S671" t="n">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54127,13 +54127,13 @@
         <v>300</v>
       </c>
       <c r="N672" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O672" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P672" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T672" t="n">
         <v>7</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N673" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P673" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de San Antonio</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1107</v>
+        <v>714</v>
       </c>
       <c r="T673" t="n">
         <v>7</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N674" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O674" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P674" t="n">
-        <v>6600</v>
+        <v>9500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>943</v>
+        <v>1357</v>
       </c>
       <c r="T674" t="n">
         <v>7</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N675" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O675" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P675" t="n">
-        <v>4429</v>
+        <v>7500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>633</v>
+        <v>1071</v>
       </c>
       <c r="T675" t="n">
         <v>7</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N676" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O676" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P676" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>536</v>
+        <v>643</v>
       </c>
       <c r="T676" t="n">
         <v>7</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N677" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O677" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P677" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>3500</v>
+        <v>1107</v>
       </c>
       <c r="T677" t="n">
         <v>7</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="N678" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O678" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P678" t="n">
-        <v>20000</v>
+        <v>6600</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>2857</v>
+        <v>943</v>
       </c>
       <c r="T678" t="n">
         <v>7</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N679" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O679" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P679" t="n">
-        <v>15000</v>
+        <v>4429</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>2143</v>
+        <v>633</v>
       </c>
       <c r="T679" t="n">
         <v>7</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N680" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O680" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P680" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1143</v>
+        <v>536</v>
       </c>
       <c r="T680" t="n">
         <v>7</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N681" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O681" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P681" t="n">
-        <v>7000</v>
+        <v>24500</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="T681" t="n">
         <v>7</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N682" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O682" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P682" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T682" t="n">
         <v>7</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N683" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O683" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P683" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1429</v>
+        <v>2143</v>
       </c>
       <c r="T683" t="n">
         <v>7</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,11 +55080,11 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N684" t="n">
         <v>8000</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,11 +55160,11 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N685" t="n">
         <v>7000</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="N686" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O686" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P686" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T686" t="n">
         <v>7</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>1850</v>
+        <v>175</v>
       </c>
       <c r="N687" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O687" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P687" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>786</v>
+        <v>1429</v>
       </c>
       <c r="T687" t="n">
         <v>7</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>750</v>
+        <v>240</v>
       </c>
       <c r="N688" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O688" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P688" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T688" t="n">
         <v>7</v>
@@ -55447,68 +55447,388 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M689" t="n">
+        <v>200</v>
+      </c>
+      <c r="N689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T689" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>6</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D690" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E689" t="n">
-        <v>13</v>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G689" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I689" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J689" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L689" t="inlineStr">
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M690" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N690" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O690" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P690" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q690" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R690" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S690" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T690" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>6</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D691" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E691" t="n">
+        <v>13</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M691" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N691" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O691" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P691" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q691" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R691" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S691" t="n">
+        <v>786</v>
+      </c>
+      <c r="T691" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>6</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D692" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E692" t="n">
+        <v>13</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M692" t="n">
+        <v>750</v>
+      </c>
+      <c r="N692" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O692" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P692" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q692" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R692" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S692" t="n">
+        <v>571</v>
+      </c>
+      <c r="T692" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>6</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D693" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M689" t="n">
+      <c r="M693" t="n">
         <v>580</v>
       </c>
-      <c r="N689" t="n">
+      <c r="N693" t="n">
         <v>2500</v>
       </c>
-      <c r="O689" t="n">
+      <c r="O693" t="n">
         <v>3000</v>
       </c>
-      <c r="P689" t="n">
+      <c r="P693" t="n">
         <v>2828</v>
       </c>
-      <c r="Q689" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R689" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S689" t="n">
+      <c r="Q693" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R693" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S693" t="n">
         <v>404</v>
       </c>
-      <c r="T689" t="n">
+      <c r="T693" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T693"/>
+  <dimension ref="A1:T696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
